--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/40/Output_15_0.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/40/Output_15_0.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3801206.303282325</v>
+        <v>-3802004.670720141</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1518870.533152644</v>
+        <v>1518870.533152645</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>590120.9651681856</v>
+        <v>590120.9651681854</v>
       </c>
     </row>
     <row r="9">
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>261.6938579839128</v>
+        <v>261.6938579839127</v>
       </c>
       <c r="C11" t="n">
-        <v>80.70298740955513</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>210.7336715177291</v>
       </c>
       <c r="I11" t="n">
-        <v>62.92019570772388</v>
+        <v>62.92019570772383</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,22 +1418,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>71.85443390360341</v>
+        <v>71.85443390360336</v>
       </c>
       <c r="T11" t="n">
-        <v>98.63966577724223</v>
+        <v>98.63966577724236</v>
       </c>
       <c r="U11" t="n">
-        <v>129.4131254575975</v>
+        <v>129.4131254575977</v>
       </c>
       <c r="V11" t="n">
-        <v>206.5106695150371</v>
+        <v>206.510669515037</v>
       </c>
       <c r="W11" t="n">
         <v>228.5075649930723</v>
       </c>
       <c r="X11" t="n">
-        <v>248.8390471236871</v>
+        <v>118.8083630155131</v>
       </c>
       <c r="Y11" t="n">
         <v>264.6645197437535</v>
@@ -1446,22 +1446,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>43.34957360286256</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C12" t="n">
-        <v>86.24580212349873</v>
+        <v>49.00303191991868</v>
       </c>
       <c r="D12" t="n">
-        <v>24.0898715671633</v>
+        <v>24.08987156716326</v>
       </c>
       <c r="E12" t="n">
-        <v>34.01088169969157</v>
+        <v>34.01088169969152</v>
       </c>
       <c r="F12" t="n">
-        <v>21.48368007606703</v>
+        <v>21.48368007606699</v>
       </c>
       <c r="G12" t="n">
-        <v>13.7191825122173</v>
+        <v>13.71918251221725</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1506,16 +1506,16 @@
         <v>224.6386589300076</v>
       </c>
       <c r="V12" t="n">
-        <v>231.9087310396551</v>
+        <v>147.1289492357532</v>
       </c>
       <c r="W12" t="n">
         <v>249.98934675</v>
       </c>
       <c r="X12" t="n">
-        <v>82.439077600996</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y12" t="n">
-        <v>203.671151418586</v>
+        <v>81.64859941110372</v>
       </c>
     </row>
     <row r="13">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>58.06113948320154</v>
+        <v>58.0611394832015</v>
       </c>
       <c r="C13" t="n">
-        <v>45.31400092372007</v>
+        <v>45.31400092372003</v>
       </c>
       <c r="D13" t="n">
-        <v>26.9830145070371</v>
+        <v>26.98301450703705</v>
       </c>
       <c r="E13" t="n">
-        <v>24.95207216571691</v>
+        <v>24.95207216571687</v>
       </c>
       <c r="F13" t="n">
-        <v>24.13646940232223</v>
+        <v>24.13646940232219</v>
       </c>
       <c r="G13" t="n">
-        <v>45.63105716341552</v>
+        <v>45.63105716341548</v>
       </c>
       <c r="H13" t="n">
-        <v>37.51344541500134</v>
+        <v>37.5134454150013</v>
       </c>
       <c r="I13" t="n">
-        <v>20.51115563718941</v>
+        <v>20.51115563719068</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>40.75808757999051</v>
+        <v>40.75808757999047</v>
       </c>
       <c r="S13" t="n">
-        <v>96.22237133206637</v>
+        <v>96.22237133206652</v>
       </c>
       <c r="T13" t="n">
         <v>105.301636831036</v>
       </c>
       <c r="U13" t="n">
-        <v>164.0168467603529</v>
+        <v>164.0168467603523</v>
       </c>
       <c r="V13" t="n">
-        <v>130.9137990594569</v>
+        <v>130.9137990594568</v>
       </c>
       <c r="W13" t="n">
-        <v>164.0700248799333</v>
+        <v>164.0700248799332</v>
       </c>
       <c r="X13" t="n">
-        <v>104.117807924827</v>
+        <v>104.1178079248269</v>
       </c>
       <c r="Y13" t="n">
-        <v>96.72612186028596</v>
+        <v>96.72612186028591</v>
       </c>
     </row>
     <row r="14">
@@ -1604,10 +1604,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>261.6938579839128</v>
+        <v>131.6631738757387</v>
       </c>
       <c r="C14" t="n">
-        <v>80.70298740955512</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1622,10 +1622,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>210.7336715177291</v>
       </c>
       <c r="I14" t="n">
-        <v>62.92019570772388</v>
+        <v>62.92019570772383</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,16 +1655,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>71.85443390360342</v>
+        <v>71.85443390360329</v>
       </c>
       <c r="T14" t="n">
-        <v>98.63966577724241</v>
+        <v>98.63966577724237</v>
       </c>
       <c r="U14" t="n">
-        <v>129.4131254575977</v>
+        <v>129.4131254575975</v>
       </c>
       <c r="V14" t="n">
-        <v>206.5106695150371</v>
+        <v>206.510669515037</v>
       </c>
       <c r="W14" t="n">
         <v>228.5075649930723</v>
@@ -1683,22 +1683,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>43.34957360286256</v>
+        <v>43.34957360286252</v>
       </c>
       <c r="C15" t="n">
-        <v>49.00303191991873</v>
+        <v>49.00303191991868</v>
       </c>
       <c r="D15" t="n">
-        <v>24.0898715671633</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E15" t="n">
-        <v>71.25365190327157</v>
+        <v>34.01088169969152</v>
       </c>
       <c r="F15" t="n">
-        <v>21.48368007606703</v>
+        <v>21.48368007606699</v>
       </c>
       <c r="G15" t="n">
-        <v>13.7191825122173</v>
+        <v>13.71918251221725</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1734,7 +1734,7 @@
         <v>77.21879642024861</v>
       </c>
       <c r="S15" t="n">
-        <v>163.7333265046506</v>
+        <v>78.95354470074868</v>
       </c>
       <c r="T15" t="n">
         <v>197.2479873695406</v>
@@ -1743,13 +1743,13 @@
         <v>224.6386589300076</v>
       </c>
       <c r="V15" t="n">
-        <v>231.9087310396551</v>
+        <v>109.8861790321728</v>
       </c>
       <c r="W15" t="n">
         <v>249.98934675</v>
       </c>
       <c r="X15" t="n">
-        <v>82.439077600996</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y15" t="n">
         <v>203.671151418586</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>58.06113948320154</v>
+        <v>58.0611394832015</v>
       </c>
       <c r="C16" t="n">
-        <v>45.31400092372007</v>
+        <v>45.31400092372003</v>
       </c>
       <c r="D16" t="n">
-        <v>26.9830145070371</v>
+        <v>26.98301450703705</v>
       </c>
       <c r="E16" t="n">
-        <v>24.95207216571691</v>
+        <v>24.95207216571687</v>
       </c>
       <c r="F16" t="n">
-        <v>20.00818519020509</v>
+        <v>24.13646940232219</v>
       </c>
       <c r="G16" t="n">
-        <v>45.63105716341553</v>
+        <v>45.63105716341548</v>
       </c>
       <c r="H16" t="n">
-        <v>37.51344541500136</v>
+        <v>37.51344541500103</v>
       </c>
       <c r="I16" t="n">
-        <v>24.6394398493067</v>
+        <v>20.51115563719069</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>40.7580875799905</v>
+        <v>40.75808757999047</v>
       </c>
       <c r="S16" t="n">
-        <v>96.22237133206656</v>
+        <v>96.22237133206652</v>
       </c>
       <c r="T16" t="n">
         <v>105.301636831036</v>
@@ -1822,16 +1822,16 @@
         <v>164.0168467603523</v>
       </c>
       <c r="V16" t="n">
-        <v>130.9137990594569</v>
+        <v>130.9137990594568</v>
       </c>
       <c r="W16" t="n">
-        <v>164.0700248799333</v>
+        <v>164.0700248799332</v>
       </c>
       <c r="X16" t="n">
-        <v>104.117807924827</v>
+        <v>104.1178079248269</v>
       </c>
       <c r="Y16" t="n">
-        <v>96.72612186028596</v>
+        <v>96.72612186028591</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>160.4576875370722</v>
+        <v>160.4576875370721</v>
       </c>
       <c r="C17" t="n">
-        <v>143.7263732246198</v>
+        <v>143.7263732246197</v>
       </c>
       <c r="D17" t="n">
-        <v>133.3460103002755</v>
+        <v>133.3460103002754</v>
       </c>
       <c r="E17" t="n">
-        <v>159.8593133009646</v>
+        <v>159.8593133009645</v>
       </c>
       <c r="F17" t="n">
-        <v>184.035141026218</v>
+        <v>184.0351410262179</v>
       </c>
       <c r="G17" t="n">
-        <v>191.0699665562024</v>
+        <v>191.0699665562023</v>
       </c>
       <c r="H17" t="n">
-        <v>109.4975010708885</v>
+        <v>109.4975010708884</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1898,19 +1898,19 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>28.17695501075713</v>
+        <v>28.176955010757</v>
       </c>
       <c r="V17" t="n">
-        <v>105.2744990681965</v>
+        <v>105.2744990681964</v>
       </c>
       <c r="W17" t="n">
-        <v>127.2713945462317</v>
+        <v>127.2713945462316</v>
       </c>
       <c r="X17" t="n">
-        <v>147.6028766768465</v>
+        <v>147.6028766768464</v>
       </c>
       <c r="Y17" t="n">
-        <v>163.428349296913</v>
+        <v>163.4283492969128</v>
       </c>
     </row>
     <row r="18">
@@ -1920,13 +1920,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D18" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>156.0334337071738</v>
@@ -1935,7 +1935,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>135.7417345196995</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1980,16 +1980,16 @@
         <v>224.6386589300076</v>
       </c>
       <c r="V18" t="n">
-        <v>231.9087310396551</v>
+        <v>63.61274982307662</v>
       </c>
       <c r="W18" t="n">
-        <v>249.98934675</v>
+        <v>26.73062429567707</v>
       </c>
       <c r="X18" t="n">
-        <v>71.12162879956357</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="19">
@@ -2053,22 +2053,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>4.06546638419543</v>
+        <v>4.065466384195316</v>
       </c>
       <c r="U19" t="n">
-        <v>62.78067631351171</v>
+        <v>62.7806763135116</v>
       </c>
       <c r="V19" t="n">
-        <v>29.6776286126163</v>
+        <v>29.67762861261619</v>
       </c>
       <c r="W19" t="n">
-        <v>62.83385443309268</v>
+        <v>62.83385443309257</v>
       </c>
       <c r="X19" t="n">
-        <v>2.881637477986402</v>
+        <v>2.881637477986288</v>
       </c>
       <c r="Y19" t="n">
-        <v>195.7611526141915</v>
+        <v>195.7611526141921</v>
       </c>
     </row>
     <row r="20">
@@ -2084,19 +2084,19 @@
         <v>143.7263732246197</v>
       </c>
       <c r="D20" t="n">
-        <v>133.3460103002755</v>
+        <v>133.3460103002754</v>
       </c>
       <c r="E20" t="n">
         <v>159.8593133009645</v>
       </c>
       <c r="F20" t="n">
-        <v>184.0351410262183</v>
+        <v>184.0351410262179</v>
       </c>
       <c r="G20" t="n">
         <v>191.0699665562023</v>
       </c>
       <c r="H20" t="n">
-        <v>109.4975010708885</v>
+        <v>109.4975010708884</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2135,19 +2135,19 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>28.17695501075706</v>
+        <v>28.176955010757</v>
       </c>
       <c r="V20" t="n">
-        <v>105.2744990681964</v>
+        <v>105.2744990681965</v>
       </c>
       <c r="W20" t="n">
-        <v>127.2713945462317</v>
+        <v>127.2713945462316</v>
       </c>
       <c r="X20" t="n">
-        <v>147.6028766768465</v>
+        <v>147.6028766768464</v>
       </c>
       <c r="Y20" t="n">
-        <v>163.4283492969129</v>
+        <v>163.4283492969128</v>
       </c>
     </row>
     <row r="21">
@@ -2157,13 +2157,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C21" t="n">
         <v>171.025583927401</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E21" t="n">
         <v>156.0334337071738</v>
@@ -2178,7 +2178,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>76.81238500081962</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2211,22 +2211,22 @@
         <v>163.7333265046506</v>
       </c>
       <c r="T21" t="n">
-        <v>197.2479873695406</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>1.379936475684708</v>
+        <v>224.6386589300076</v>
       </c>
       <c r="V21" t="n">
         <v>231.9087310396551</v>
       </c>
       <c r="W21" t="n">
-        <v>249.98934675</v>
+        <v>97.38437081668802</v>
       </c>
       <c r="X21" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>57.24106372880304</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2287,22 +2287,22 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>195.7611526141922</v>
       </c>
       <c r="T22" t="n">
-        <v>4.065466384195373</v>
+        <v>4.065466384195316</v>
       </c>
       <c r="U22" t="n">
-        <v>258.5418289277035</v>
+        <v>62.7806763135116</v>
       </c>
       <c r="V22" t="n">
-        <v>29.67762861261625</v>
+        <v>29.67762861261619</v>
       </c>
       <c r="W22" t="n">
-        <v>62.83385443309263</v>
+        <v>62.83385443309257</v>
       </c>
       <c r="X22" t="n">
-        <v>2.881637477986345</v>
+        <v>2.881637477986288</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>143.7263732246197</v>
       </c>
       <c r="D23" t="n">
-        <v>133.3460103002755</v>
+        <v>133.3460103002754</v>
       </c>
       <c r="E23" t="n">
         <v>159.8593133009645</v>
@@ -2333,7 +2333,7 @@
         <v>191.0699665562023</v>
       </c>
       <c r="H23" t="n">
-        <v>109.4975010708885</v>
+        <v>109.4975010708884</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2372,19 +2372,19 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>28.17695501075706</v>
+        <v>28.176955010757</v>
       </c>
       <c r="V23" t="n">
         <v>105.2744990681964</v>
       </c>
       <c r="W23" t="n">
-        <v>127.2713945462317</v>
+        <v>127.2713945462316</v>
       </c>
       <c r="X23" t="n">
-        <v>147.6028766768465</v>
+        <v>147.6028766768464</v>
       </c>
       <c r="Y23" t="n">
-        <v>163.4283492969129</v>
+        <v>163.4283492969128</v>
       </c>
     </row>
     <row r="24">
@@ -2394,7 +2394,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>171.025583927401</v>
@@ -2403,7 +2403,7 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -2412,7 +2412,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>107.7440529821119</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2448,16 +2448,16 @@
         <v>163.7333265046506</v>
       </c>
       <c r="T24" t="n">
-        <v>197.2479873695406</v>
+        <v>86.5800787811942</v>
       </c>
       <c r="U24" t="n">
         <v>224.6386589300076</v>
       </c>
       <c r="V24" t="n">
-        <v>219.6461835302505</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W24" t="n">
-        <v>26.73062429567713</v>
+        <v>26.73062429567707</v>
       </c>
       <c r="X24" t="n">
         <v>204.4616296084783</v>
@@ -2479,7 +2479,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>32.98051302671937</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2527,19 +2527,19 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>4.065466384195373</v>
+        <v>4.065466384195316</v>
       </c>
       <c r="U25" t="n">
-        <v>95.76118934023074</v>
+        <v>62.7806763135116</v>
       </c>
       <c r="V25" t="n">
-        <v>29.67762861261625</v>
+        <v>29.67762861261619</v>
       </c>
       <c r="W25" t="n">
-        <v>62.83385443309263</v>
+        <v>62.83385443309257</v>
       </c>
       <c r="X25" t="n">
-        <v>2.881637477986345</v>
+        <v>2.881637477986288</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2558,7 +2558,7 @@
         <v>224.8735010598801</v>
       </c>
       <c r="D26" t="n">
-        <v>214.4931381355359</v>
+        <v>214.4931381355358</v>
       </c>
       <c r="E26" t="n">
         <v>241.0064411362249</v>
@@ -2567,13 +2567,13 @@
         <v>265.1822688614783</v>
       </c>
       <c r="G26" t="n">
-        <v>272.2170943914628</v>
+        <v>272.2170943914627</v>
       </c>
       <c r="H26" t="n">
         <v>190.6446289061489</v>
       </c>
       <c r="I26" t="n">
-        <v>42.83115309614362</v>
+        <v>42.83115309614359</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,10 +2603,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>51.76539129202317</v>
+        <v>51.76539129202312</v>
       </c>
       <c r="T26" t="n">
-        <v>78.55062316566216</v>
+        <v>78.5506231656621</v>
       </c>
       <c r="U26" t="n">
         <v>109.3240828460171</v>
@@ -2615,10 +2615,10 @@
         <v>186.4216269034568</v>
       </c>
       <c r="W26" t="n">
-        <v>208.4185223814921</v>
+        <v>208.418522381492</v>
       </c>
       <c r="X26" t="n">
-        <v>228.7500045121069</v>
+        <v>228.7500045121068</v>
       </c>
       <c r="Y26" t="n">
         <v>244.5754771321733</v>
@@ -2634,19 +2634,19 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C27" t="n">
-        <v>171.025583927401</v>
+        <v>45.15787031900694</v>
       </c>
       <c r="D27" t="n">
-        <v>4.000828955583046</v>
+        <v>4.000828955583017</v>
       </c>
       <c r="E27" t="n">
-        <v>156.0334337071738</v>
+        <v>13.92183908811128</v>
       </c>
       <c r="F27" t="n">
         <v>143.5062320835493</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>135.7417345196995</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2685,7 +2685,7 @@
         <v>163.7333265046506</v>
       </c>
       <c r="T27" t="n">
-        <v>65.01041366178349</v>
+        <v>197.2479873695406</v>
       </c>
       <c r="U27" t="n">
         <v>224.6386589300076</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>37.97209687162129</v>
+        <v>37.97209687162126</v>
       </c>
       <c r="C28" t="n">
-        <v>25.22495831213982</v>
+        <v>25.22495831213979</v>
       </c>
       <c r="D28" t="n">
-        <v>6.893971895456843</v>
+        <v>6.893971895456815</v>
       </c>
       <c r="E28" t="n">
-        <v>4.863029554136659</v>
+        <v>4.863029554136631</v>
       </c>
       <c r="F28" t="n">
-        <v>4.04742679074198</v>
+        <v>4.047426790741952</v>
       </c>
       <c r="G28" t="n">
-        <v>25.54201455183527</v>
+        <v>25.54201455183524</v>
       </c>
       <c r="H28" t="n">
-        <v>17.42440280342109</v>
+        <v>17.42440280342106</v>
       </c>
       <c r="I28" t="n">
-        <v>4.550397237726484</v>
+        <v>4.550397237726457</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>20.66904496841025</v>
+        <v>20.66904496841023</v>
       </c>
       <c r="S28" t="n">
-        <v>76.1333287204863</v>
+        <v>76.13332872048628</v>
       </c>
       <c r="T28" t="n">
-        <v>85.21259421945577</v>
+        <v>85.21259421945574</v>
       </c>
       <c r="U28" t="n">
-        <v>143.9278041487721</v>
+        <v>143.927804148772</v>
       </c>
       <c r="V28" t="n">
         <v>110.8247564478766</v>
@@ -2776,10 +2776,10 @@
         <v>143.980982268353</v>
       </c>
       <c r="X28" t="n">
-        <v>84.02876531324674</v>
+        <v>84.02876531324671</v>
       </c>
       <c r="Y28" t="n">
-        <v>76.6370792487057</v>
+        <v>76.63707924870567</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>190.6446289061489</v>
       </c>
       <c r="I29" t="n">
-        <v>42.8311530961444</v>
+        <v>42.83115309614409</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2868,19 +2868,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>165.3721256103448</v>
+        <v>110.3533483228364</v>
       </c>
       <c r="C30" t="n">
         <v>171.025583927401</v>
       </c>
       <c r="D30" t="n">
-        <v>146.1124235746456</v>
+        <v>4.000828955582989</v>
       </c>
       <c r="E30" t="n">
         <v>156.0334337071738</v>
       </c>
       <c r="F30" t="n">
-        <v>1.394637464486721</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>77.21879642024861</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>163.7333265046506</v>
@@ -2937,7 +2937,7 @@
         <v>204.4616296084783</v>
       </c>
       <c r="Y30" t="n">
-        <v>71.43357771082891</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="31">
@@ -2968,7 +2968,7 @@
         <v>17.42440280342104</v>
       </c>
       <c r="I31" t="n">
-        <v>4.550397237726427</v>
+        <v>4.550397237726428</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3026,10 +3026,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>241.6048153723324</v>
+        <v>241.6048153723325</v>
       </c>
       <c r="C32" t="n">
-        <v>224.87350105988</v>
+        <v>224.8735010598801</v>
       </c>
       <c r="D32" t="n">
         <v>214.4931381355358</v>
@@ -3038,16 +3038,16 @@
         <v>241.0064411362249</v>
       </c>
       <c r="F32" t="n">
-        <v>265.1822688614782</v>
+        <v>265.1822688614783</v>
       </c>
       <c r="G32" t="n">
-        <v>272.2170943914626</v>
+        <v>272.2170943914627</v>
       </c>
       <c r="H32" t="n">
-        <v>190.6446289061488</v>
+        <v>190.6446289061489</v>
       </c>
       <c r="I32" t="n">
-        <v>42.83115309614354</v>
+        <v>42.83115309614359</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,16 +3077,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>51.76539129202308</v>
+        <v>51.76539129202314</v>
       </c>
       <c r="T32" t="n">
-        <v>78.55062316566207</v>
+        <v>78.55062316566213</v>
       </c>
       <c r="U32" t="n">
-        <v>109.3240828460175</v>
+        <v>109.3240828460167</v>
       </c>
       <c r="V32" t="n">
-        <v>186.4216269034567</v>
+        <v>186.4216269034568</v>
       </c>
       <c r="W32" t="n">
         <v>208.418522381492</v>
@@ -3095,7 +3095,7 @@
         <v>228.7500045121068</v>
       </c>
       <c r="Y32" t="n">
-        <v>244.5754771321732</v>
+        <v>244.5754771321733</v>
       </c>
     </row>
     <row r="33">
@@ -3108,19 +3108,19 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C33" t="n">
-        <v>45.15787031900711</v>
+        <v>38.78801021964396</v>
       </c>
       <c r="D33" t="n">
         <v>146.1124235746456</v>
       </c>
       <c r="E33" t="n">
-        <v>156.0334337071738</v>
+        <v>13.92183908811128</v>
       </c>
       <c r="F33" t="n">
         <v>143.5062320835493</v>
       </c>
       <c r="G33" t="n">
-        <v>135.7417345196995</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3171,10 +3171,10 @@
         <v>249.98934675</v>
       </c>
       <c r="X33" t="n">
-        <v>62.35003498941566</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y33" t="n">
-        <v>61.55955679952342</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="34">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>37.9720968716212</v>
+        <v>37.97209687162126</v>
       </c>
       <c r="C34" t="n">
-        <v>25.22495831213973</v>
+        <v>25.22495831213979</v>
       </c>
       <c r="D34" t="n">
-        <v>6.893971895456758</v>
+        <v>6.893971895456815</v>
       </c>
       <c r="E34" t="n">
-        <v>4.863029554136574</v>
+        <v>4.863029554136631</v>
       </c>
       <c r="F34" t="n">
-        <v>4.047426790741895</v>
+        <v>4.047426790741952</v>
       </c>
       <c r="G34" t="n">
-        <v>25.54201455183518</v>
+        <v>25.54201455183524</v>
       </c>
       <c r="H34" t="n">
-        <v>17.42440280342101</v>
+        <v>17.42440280342106</v>
       </c>
       <c r="I34" t="n">
-        <v>4.550397237726399</v>
+        <v>4.550397237726457</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>20.66904496841017</v>
+        <v>20.66904496841023</v>
       </c>
       <c r="S34" t="n">
-        <v>76.13332872048622</v>
+        <v>76.13332872048628</v>
       </c>
       <c r="T34" t="n">
-        <v>85.21259421945568</v>
+        <v>85.21259421945574</v>
       </c>
       <c r="U34" t="n">
         <v>143.927804148772</v>
@@ -3247,13 +3247,13 @@
         <v>110.8247564478766</v>
       </c>
       <c r="W34" t="n">
-        <v>143.9809822683529</v>
+        <v>143.980982268353</v>
       </c>
       <c r="X34" t="n">
-        <v>84.02876531324665</v>
+        <v>84.02876531324671</v>
       </c>
       <c r="Y34" t="n">
-        <v>76.63707924870562</v>
+        <v>76.63707924870567</v>
       </c>
     </row>
     <row r="35">
@@ -3320,7 +3320,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>30.77345968035533</v>
+        <v>30.77345968035544</v>
       </c>
       <c r="V35" t="n">
         <v>107.8710037377947</v>
@@ -3342,7 +3342,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>164.6800631003819</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C36" t="n">
         <v>171.025583927401</v>
@@ -3354,7 +3354,7 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>16.29900385617659</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -3402,7 +3402,7 @@
         <v>224.6386589300076</v>
       </c>
       <c r="V36" t="n">
-        <v>231.9087310396551</v>
+        <v>11.24651325493048</v>
       </c>
       <c r="W36" t="n">
         <v>249.98934675</v>
@@ -3411,7 +3411,7 @@
         <v>204.4616296084783</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="37">
@@ -3579,13 +3579,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>95.72362522691171</v>
+        <v>132.378096309553</v>
       </c>
       <c r="C39" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -3600,7 +3600,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>76.81238500081962</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3636,10 +3636,10 @@
         <v>197.2479873695406</v>
       </c>
       <c r="U39" t="n">
-        <v>3.976441145282969</v>
+        <v>224.6386589300076</v>
       </c>
       <c r="V39" t="n">
-        <v>231.9087310396551</v>
+        <v>11.24651325493048</v>
       </c>
       <c r="W39" t="n">
         <v>249.98934675</v>
@@ -3648,7 +3648,7 @@
         <v>204.4616296084783</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="40">
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>182.7786292662006</v>
       </c>
       <c r="T40" t="n">
         <v>6.661971053793634</v>
@@ -3727,7 +3727,7 @@
         <v>5.478142147584606</v>
       </c>
       <c r="Y40" t="n">
-        <v>182.7786292662005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>189.8394240803094</v>
+        <v>189.8394240803093</v>
       </c>
       <c r="C41" t="n">
         <v>173.1081097678569</v>
@@ -3746,13 +3746,13 @@
         <v>162.7277468435127</v>
       </c>
       <c r="E41" t="n">
-        <v>189.2410498442018</v>
+        <v>189.2410498442017</v>
       </c>
       <c r="F41" t="n">
-        <v>213.4168775694552</v>
+        <v>213.4168775694551</v>
       </c>
       <c r="G41" t="n">
-        <v>220.4517030994396</v>
+        <v>220.4517030994395</v>
       </c>
       <c r="H41" t="n">
         <v>138.8792376141257</v>
@@ -3791,13 +3791,13 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>26.78523187363894</v>
+        <v>26.78523187363939</v>
       </c>
       <c r="U41" t="n">
-        <v>57.55869155399574</v>
+        <v>57.55869155399425</v>
       </c>
       <c r="V41" t="n">
-        <v>134.6562356114337</v>
+        <v>134.6562356114336</v>
       </c>
       <c r="W41" t="n">
         <v>156.6531310894689</v>
@@ -3825,10 +3825,10 @@
         <v>146.1124235746456</v>
       </c>
       <c r="E42" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -3864,10 +3864,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>77.21879642024861</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>5.432269651590784</v>
+        <v>163.7333265046506</v>
       </c>
       <c r="T42" t="n">
         <v>197.2479873695406</v>
@@ -3876,7 +3876,7 @@
         <v>224.6386589300076</v>
       </c>
       <c r="V42" t="n">
-        <v>231.9087310396551</v>
+        <v>163.3536722304667</v>
       </c>
       <c r="W42" t="n">
         <v>249.98934675</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>24.36793742846314</v>
+        <v>24.36793742846311</v>
       </c>
       <c r="T43" t="n">
-        <v>33.4472029274326</v>
+        <v>33.44720292743257</v>
       </c>
       <c r="U43" t="n">
-        <v>92.16241285674887</v>
+        <v>92.16241285674884</v>
       </c>
       <c r="V43" t="n">
-        <v>59.05936515585347</v>
+        <v>59.05936515585344</v>
       </c>
       <c r="W43" t="n">
-        <v>92.21559097632985</v>
+        <v>92.21559097632982</v>
       </c>
       <c r="X43" t="n">
-        <v>32.26337402122357</v>
+        <v>32.26337402122354</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.87168795668254</v>
+        <v>24.87168795668251</v>
       </c>
     </row>
     <row r="44">
@@ -3977,10 +3977,10 @@
         <v>189.8394240803094</v>
       </c>
       <c r="C44" t="n">
-        <v>173.108109767857</v>
+        <v>173.1081097678569</v>
       </c>
       <c r="D44" t="n">
-        <v>162.7277468435128</v>
+        <v>162.7277468435127</v>
       </c>
       <c r="E44" t="n">
         <v>189.2410498442018</v>
@@ -3992,7 +3992,7 @@
         <v>220.4517030994396</v>
       </c>
       <c r="H44" t="n">
-        <v>138.8792376141258</v>
+        <v>138.8792376141257</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4028,22 +4028,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>26.78523187363904</v>
+        <v>26.78523187363894</v>
       </c>
       <c r="U44" t="n">
-        <v>57.55869155399434</v>
+        <v>57.55869155399428</v>
       </c>
       <c r="V44" t="n">
         <v>134.6562356114337</v>
       </c>
       <c r="W44" t="n">
-        <v>156.653131089469</v>
+        <v>156.6531310894689</v>
       </c>
       <c r="X44" t="n">
-        <v>176.9846132200838</v>
+        <v>176.9846132200837</v>
       </c>
       <c r="Y44" t="n">
-        <v>192.8100858401502</v>
+        <v>192.8100858401501</v>
       </c>
     </row>
     <row r="45">
@@ -4056,22 +4056,22 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C45" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>102.3162648356395</v>
       </c>
       <c r="F45" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>135.7417345196995</v>
       </c>
       <c r="H45" t="n">
-        <v>107.7440529821119</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>76.81238500081962</v>
@@ -4110,16 +4110,16 @@
         <v>197.2479873695406</v>
       </c>
       <c r="U45" t="n">
-        <v>146.3206030201124</v>
+        <v>224.6386589300076</v>
       </c>
       <c r="V45" t="n">
-        <v>38.0317451285695</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W45" t="n">
         <v>249.98934675</v>
       </c>
       <c r="X45" t="n">
-        <v>10.58464369739264</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y45" t="n">
         <v>203.671151418586</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>24.36793742846319</v>
+        <v>24.36793742846314</v>
       </c>
       <c r="T46" t="n">
-        <v>33.44720292743266</v>
+        <v>33.4472029274326</v>
       </c>
       <c r="U46" t="n">
-        <v>92.16241285674893</v>
+        <v>92.16241285674887</v>
       </c>
       <c r="V46" t="n">
-        <v>59.05936515585353</v>
+        <v>59.05936515585347</v>
       </c>
       <c r="W46" t="n">
-        <v>92.21559097632991</v>
+        <v>92.21559097632985</v>
       </c>
       <c r="X46" t="n">
-        <v>32.26337402122363</v>
+        <v>32.26337402122357</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.87168795668259</v>
+        <v>24.87168795668254</v>
       </c>
     </row>
   </sheetData>
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>179.1647503682098</v>
+        <v>310.5088757300016</v>
       </c>
       <c r="C11" t="n">
-        <v>97.64658126764905</v>
+        <v>310.5088757300016</v>
       </c>
       <c r="D11" t="n">
-        <v>97.64658126764905</v>
+        <v>310.5088757300016</v>
       </c>
       <c r="E11" t="n">
-        <v>97.64658126764905</v>
+        <v>310.5088757300016</v>
       </c>
       <c r="F11" t="n">
-        <v>97.64658126764905</v>
+        <v>310.5088757300016</v>
       </c>
       <c r="G11" t="n">
-        <v>97.64658126764905</v>
+        <v>310.5088757300016</v>
       </c>
       <c r="H11" t="n">
-        <v>97.64658126764905</v>
+        <v>97.64658126764901</v>
       </c>
       <c r="I11" t="n">
         <v>34.09082802752392</v>
       </c>
       <c r="J11" t="n">
-        <v>77.64171918777311</v>
+        <v>77.64171918777316</v>
       </c>
       <c r="K11" t="n">
-        <v>265.1898083646869</v>
+        <v>265.1898083646868</v>
       </c>
       <c r="L11" t="n">
         <v>549.8288752482732</v>
@@ -5069,7 +5069,7 @@
         <v>1631.96116510993</v>
       </c>
       <c r="T11" t="n">
-        <v>1532.325139072311</v>
+        <v>1532.325139072312</v>
       </c>
       <c r="U11" t="n">
         <v>1401.604810327264</v>
@@ -5078,13 +5078,13 @@
         <v>1193.008174453489</v>
       </c>
       <c r="W11" t="n">
-        <v>962.192452238264</v>
+        <v>962.1924522382641</v>
       </c>
       <c r="X11" t="n">
-        <v>710.8398793860547</v>
+        <v>842.1840047478468</v>
       </c>
       <c r="Y11" t="n">
-        <v>443.5019806549904</v>
+        <v>574.8461060167826</v>
       </c>
     </row>
     <row r="12">
@@ -5094,19 +5094,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>215.4538764907946</v>
+        <v>177.8349166891984</v>
       </c>
       <c r="C12" t="n">
-        <v>128.3369046488766</v>
+        <v>128.3369046488765</v>
       </c>
       <c r="D12" t="n">
-        <v>104.0037010456814</v>
+        <v>104.0037010456813</v>
       </c>
       <c r="E12" t="n">
-        <v>69.64927508639698</v>
+        <v>69.6492750863969</v>
       </c>
       <c r="F12" t="n">
-        <v>47.94858814087473</v>
+        <v>47.94858814087468</v>
       </c>
       <c r="G12" t="n">
         <v>34.09082802752392</v>
@@ -5121,7 +5121,7 @@
         <v>34.09082802752392</v>
       </c>
       <c r="K12" t="n">
-        <v>34.09082802752392</v>
+        <v>167.054404374991</v>
       </c>
       <c r="L12" t="n">
         <v>167.054404374991</v>
@@ -5154,16 +5154,16 @@
         <v>1035.007291048471</v>
       </c>
       <c r="V12" t="n">
-        <v>800.756047574072</v>
+        <v>886.3921908103366</v>
       </c>
       <c r="W12" t="n">
-        <v>548.2415559074053</v>
+        <v>633.8776991436699</v>
       </c>
       <c r="X12" t="n">
-        <v>464.9697603508437</v>
+        <v>427.3508005492474</v>
       </c>
       <c r="Y12" t="n">
-        <v>259.2413245744941</v>
+        <v>344.8774678107588</v>
       </c>
     </row>
     <row r="13">
@@ -5173,43 +5173,43 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>261.4051868299508</v>
+        <v>261.4051868299515</v>
       </c>
       <c r="C13" t="n">
-        <v>215.6334687251831</v>
+        <v>215.6334687251838</v>
       </c>
       <c r="D13" t="n">
-        <v>188.3778985160547</v>
+        <v>188.3778985160554</v>
       </c>
       <c r="E13" t="n">
-        <v>163.1737852173507</v>
+        <v>163.1737852173515</v>
       </c>
       <c r="F13" t="n">
-        <v>138.7935130937929</v>
+        <v>138.7935130937938</v>
       </c>
       <c r="G13" t="n">
-        <v>92.70153616104994</v>
+        <v>92.70153616105117</v>
       </c>
       <c r="H13" t="n">
-        <v>54.80916705498797</v>
+        <v>54.80916705498925</v>
       </c>
       <c r="I13" t="n">
         <v>34.09082802752392</v>
       </c>
       <c r="J13" t="n">
-        <v>83.45962932283541</v>
+        <v>83.45962932283544</v>
       </c>
       <c r="K13" t="n">
-        <v>216.7776820939543</v>
+        <v>216.7776820939544</v>
       </c>
       <c r="L13" t="n">
-        <v>409.3994443472053</v>
+        <v>409.3994443472054</v>
       </c>
       <c r="M13" t="n">
-        <v>616.5181956441182</v>
+        <v>616.5181956441181</v>
       </c>
       <c r="N13" t="n">
-        <v>826.7257971805971</v>
+        <v>826.7257971805969</v>
       </c>
       <c r="O13" t="n">
         <v>1014.771769283489</v>
@@ -5221,28 +5221,28 @@
         <v>1231.291889568486</v>
       </c>
       <c r="R13" t="n">
-        <v>1190.122104134153</v>
+        <v>1190.122104134152</v>
       </c>
       <c r="S13" t="n">
-        <v>1092.927789657318</v>
+        <v>1092.927789657317</v>
       </c>
       <c r="T13" t="n">
-        <v>986.5624999289986</v>
+        <v>986.5624999289987</v>
       </c>
       <c r="U13" t="n">
-        <v>820.8889173427835</v>
+        <v>820.8889173427843</v>
       </c>
       <c r="V13" t="n">
-        <v>688.6527566766655</v>
+        <v>688.6527566766663</v>
       </c>
       <c r="W13" t="n">
-        <v>522.9254588181473</v>
+        <v>522.9254588181478</v>
       </c>
       <c r="X13" t="n">
-        <v>417.7559558637766</v>
+        <v>417.7559558637772</v>
       </c>
       <c r="Y13" t="n">
-        <v>320.0528024695483</v>
+        <v>320.052802469549</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>179.1647503682093</v>
+        <v>310.5088757300016</v>
       </c>
       <c r="C14" t="n">
-        <v>97.64658126764905</v>
+        <v>310.5088757300016</v>
       </c>
       <c r="D14" t="n">
-        <v>97.64658126764905</v>
+        <v>310.5088757300016</v>
       </c>
       <c r="E14" t="n">
-        <v>97.64658126764905</v>
+        <v>310.5088757300016</v>
       </c>
       <c r="F14" t="n">
-        <v>97.64658126764905</v>
+        <v>310.5088757300016</v>
       </c>
       <c r="G14" t="n">
-        <v>97.64658126764905</v>
+        <v>310.5088757300016</v>
       </c>
       <c r="H14" t="n">
-        <v>97.64658126764905</v>
+        <v>97.64658126764901</v>
       </c>
       <c r="I14" t="n">
         <v>34.09082802752392</v>
@@ -5309,19 +5309,19 @@
         <v>1532.325139072311</v>
       </c>
       <c r="U14" t="n">
-        <v>1401.604810327263</v>
+        <v>1401.604810327264</v>
       </c>
       <c r="V14" t="n">
-        <v>1193.008174453488</v>
+        <v>1193.008174453489</v>
       </c>
       <c r="W14" t="n">
-        <v>962.1924522382633</v>
+        <v>962.1924522382642</v>
       </c>
       <c r="X14" t="n">
-        <v>710.8398793860541</v>
+        <v>710.839879386055</v>
       </c>
       <c r="Y14" t="n">
-        <v>443.5019806549899</v>
+        <v>443.5019806549909</v>
       </c>
     </row>
     <row r="15">
@@ -5331,19 +5331,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>215.4538764907946</v>
+        <v>301.0900197270593</v>
       </c>
       <c r="C15" t="n">
-        <v>165.9558644504726</v>
+        <v>251.5920076867374</v>
       </c>
       <c r="D15" t="n">
-        <v>141.6226608472774</v>
+        <v>104.0037010456813</v>
       </c>
       <c r="E15" t="n">
-        <v>69.64927508639698</v>
+        <v>69.6492750863969</v>
       </c>
       <c r="F15" t="n">
-        <v>47.94858814087473</v>
+        <v>47.94858814087468</v>
       </c>
       <c r="G15" t="n">
         <v>34.09082802752392</v>
@@ -5382,25 +5382,25 @@
         <v>1626.542617113319</v>
       </c>
       <c r="S15" t="n">
-        <v>1461.155418623772</v>
+        <v>1546.791561860037</v>
       </c>
       <c r="T15" t="n">
-        <v>1261.915027341408</v>
+        <v>1347.551170577673</v>
       </c>
       <c r="U15" t="n">
-        <v>1035.007291048471</v>
+        <v>1120.643434284736</v>
       </c>
       <c r="V15" t="n">
-        <v>800.756047574072</v>
+        <v>1009.647293848198</v>
       </c>
       <c r="W15" t="n">
-        <v>548.2415559074053</v>
+        <v>757.1328021815309</v>
       </c>
       <c r="X15" t="n">
-        <v>464.9697603508437</v>
+        <v>550.6059035871084</v>
       </c>
       <c r="Y15" t="n">
-        <v>259.2413245744941</v>
+        <v>344.8774678107588</v>
       </c>
     </row>
     <row r="16">
@@ -5410,43 +5410,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>261.4051868299509</v>
+        <v>261.4051868299514</v>
       </c>
       <c r="C16" t="n">
-        <v>215.6334687251832</v>
+        <v>215.6334687251837</v>
       </c>
       <c r="D16" t="n">
-        <v>188.3778985160548</v>
+        <v>188.3778985160554</v>
       </c>
       <c r="E16" t="n">
-        <v>163.1737852173509</v>
+        <v>163.1737852173515</v>
       </c>
       <c r="F16" t="n">
-        <v>142.9634971464367</v>
+        <v>138.7935130937938</v>
       </c>
       <c r="G16" t="n">
-        <v>96.87152021369369</v>
+        <v>92.70153616105091</v>
       </c>
       <c r="H16" t="n">
-        <v>58.9791511076317</v>
+        <v>54.80916705498926</v>
       </c>
       <c r="I16" t="n">
         <v>34.09082802752392</v>
       </c>
       <c r="J16" t="n">
-        <v>83.45962932283547</v>
+        <v>83.45962932283544</v>
       </c>
       <c r="K16" t="n">
-        <v>216.7776820939544</v>
+        <v>216.7776820939543</v>
       </c>
       <c r="L16" t="n">
-        <v>409.3994443472054</v>
+        <v>409.3994443472053</v>
       </c>
       <c r="M16" t="n">
         <v>616.5181956441181</v>
       </c>
       <c r="N16" t="n">
-        <v>826.7257971805969</v>
+        <v>826.7257971805971</v>
       </c>
       <c r="O16" t="n">
         <v>1014.771769283489</v>
@@ -5458,28 +5458,28 @@
         <v>1231.291889568486</v>
       </c>
       <c r="R16" t="n">
-        <v>1190.122104134152</v>
+        <v>1190.122104134153</v>
       </c>
       <c r="S16" t="n">
-        <v>1092.927789657317</v>
+        <v>1092.927789657318</v>
       </c>
       <c r="T16" t="n">
-        <v>986.5624999289982</v>
+        <v>986.5624999289985</v>
       </c>
       <c r="U16" t="n">
-        <v>820.8889173427839</v>
+        <v>820.8889173427841</v>
       </c>
       <c r="V16" t="n">
-        <v>688.6527566766658</v>
+        <v>688.6527566766661</v>
       </c>
       <c r="W16" t="n">
-        <v>522.9254588181474</v>
+        <v>522.9254588181477</v>
       </c>
       <c r="X16" t="n">
-        <v>417.7559558637767</v>
+        <v>417.755955863777</v>
       </c>
       <c r="Y16" t="n">
-        <v>320.0528024695485</v>
+        <v>320.0528024695489</v>
       </c>
     </row>
     <row r="17">
@@ -5489,37 +5489,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>964.9335608347649</v>
+        <v>964.9335608347656</v>
       </c>
       <c r="C17" t="n">
-        <v>819.7554060624213</v>
+        <v>819.7554060624221</v>
       </c>
       <c r="D17" t="n">
-        <v>685.0624663651733</v>
+        <v>685.0624663651743</v>
       </c>
       <c r="E17" t="n">
-        <v>523.5884125258151</v>
+        <v>523.5884125258161</v>
       </c>
       <c r="F17" t="n">
-        <v>337.6943306811504</v>
+        <v>337.6943306811516</v>
       </c>
       <c r="G17" t="n">
-        <v>144.6943644627649</v>
+        <v>144.6943644627648</v>
       </c>
       <c r="H17" t="n">
         <v>34.09082802752392</v>
       </c>
       <c r="I17" t="n">
-        <v>34.09082802752392</v>
+        <v>34.09082802752388</v>
       </c>
       <c r="J17" t="n">
-        <v>77.64171918777302</v>
+        <v>77.64171918777316</v>
       </c>
       <c r="K17" t="n">
-        <v>265.1898083646867</v>
+        <v>265.1898083646868</v>
       </c>
       <c r="L17" t="n">
-        <v>549.8288752482731</v>
+        <v>549.8288752482732</v>
       </c>
       <c r="M17" t="n">
         <v>881.7569750909471</v>
@@ -5555,7 +5555,7 @@
         <v>1441.184988623484</v>
       </c>
       <c r="X17" t="n">
-        <v>1292.091173798386</v>
+        <v>1292.091173798387</v>
       </c>
       <c r="Y17" t="n">
         <v>1127.012033094434</v>
@@ -5568,19 +5568,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>476.4015268169371</v>
+        <v>364.4534721028521</v>
       </c>
       <c r="C18" t="n">
-        <v>476.4015268169371</v>
+        <v>191.7003570246692</v>
       </c>
       <c r="D18" t="n">
-        <v>328.8132201758809</v>
+        <v>191.7003570246692</v>
       </c>
       <c r="E18" t="n">
-        <v>171.2036911787356</v>
+        <v>34.09082802752392</v>
       </c>
       <c r="F18" t="n">
-        <v>171.2036911787356</v>
+        <v>34.09082802752392</v>
       </c>
       <c r="G18" t="n">
         <v>34.09082802752392</v>
@@ -5595,10 +5595,10 @@
         <v>34.09082802752392</v>
       </c>
       <c r="K18" t="n">
-        <v>167.054404374991</v>
+        <v>34.09082802752392</v>
       </c>
       <c r="L18" t="n">
-        <v>167.054404374991</v>
+        <v>342.6732976662156</v>
       </c>
       <c r="M18" t="n">
         <v>579.9557856232748</v>
@@ -5628,16 +5628,16 @@
         <v>1035.007291048471</v>
       </c>
       <c r="V18" t="n">
-        <v>800.756047574072</v>
+        <v>970.7519881968786</v>
       </c>
       <c r="W18" t="n">
-        <v>548.2415559074053</v>
+        <v>943.7513575951846</v>
       </c>
       <c r="X18" t="n">
-        <v>476.4015268169371</v>
+        <v>737.2244590007621</v>
       </c>
       <c r="Y18" t="n">
-        <v>476.4015268169371</v>
+        <v>531.4960232244125</v>
       </c>
     </row>
     <row r="19">
@@ -5674,7 +5674,7 @@
         <v>34.09082802752392</v>
       </c>
       <c r="K19" t="n">
-        <v>46.60655431123539</v>
+        <v>46.60655431123538</v>
       </c>
       <c r="L19" t="n">
         <v>118.4259900770789</v>
@@ -5701,19 +5701,19 @@
         <v>395.7074096796392</v>
       </c>
       <c r="T19" t="n">
-        <v>391.6008779784316</v>
+        <v>391.6008779784318</v>
       </c>
       <c r="U19" t="n">
-        <v>328.1860534193289</v>
+        <v>328.1860534193291</v>
       </c>
       <c r="V19" t="n">
-        <v>298.2086507803226</v>
+        <v>298.2086507803229</v>
       </c>
       <c r="W19" t="n">
-        <v>234.7401109489158</v>
+        <v>234.7401109489163</v>
       </c>
       <c r="X19" t="n">
-        <v>231.8293660216568</v>
+        <v>231.8293660216574</v>
       </c>
       <c r="Y19" t="n">
         <v>34.09082802752392</v>
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>964.9335608347656</v>
+        <v>964.9335608347646</v>
       </c>
       <c r="C20" t="n">
-        <v>819.7554060624221</v>
+        <v>819.755406062421</v>
       </c>
       <c r="D20" t="n">
-        <v>685.0624663651741</v>
+        <v>685.0624663651731</v>
       </c>
       <c r="E20" t="n">
-        <v>523.588412525816</v>
+        <v>523.5884125258151</v>
       </c>
       <c r="F20" t="n">
-        <v>337.694330681151</v>
+        <v>337.6943306811506</v>
       </c>
       <c r="G20" t="n">
         <v>144.6943644627648</v>
       </c>
       <c r="H20" t="n">
-        <v>34.09082802752392</v>
+        <v>34.09082802752391</v>
       </c>
       <c r="I20" t="n">
-        <v>34.09082802752392</v>
+        <v>34.09082802752391</v>
       </c>
       <c r="J20" t="n">
-        <v>77.64171918777302</v>
+        <v>77.64171918777225</v>
       </c>
       <c r="K20" t="n">
-        <v>265.1898083646867</v>
+        <v>265.1898083646859</v>
       </c>
       <c r="L20" t="n">
-        <v>549.8288752482731</v>
+        <v>549.8288752482723</v>
       </c>
       <c r="M20" t="n">
-        <v>881.7569750909471</v>
+        <v>881.7569750909462</v>
       </c>
       <c r="N20" t="n">
-        <v>1203.53884361695</v>
+        <v>1203.538843616949</v>
       </c>
       <c r="O20" t="n">
-        <v>1461.259986043749</v>
+        <v>1461.259986043748</v>
       </c>
       <c r="P20" t="n">
-        <v>1644.280225347656</v>
+        <v>1644.280225347655</v>
       </c>
       <c r="Q20" t="n">
-        <v>1704.541401376196</v>
+        <v>1704.541401376195</v>
       </c>
       <c r="R20" t="n">
-        <v>1704.541401376196</v>
+        <v>1704.541401376195</v>
       </c>
       <c r="S20" t="n">
-        <v>1704.541401376196</v>
+        <v>1704.541401376195</v>
       </c>
       <c r="T20" t="n">
-        <v>1704.541401376196</v>
+        <v>1704.541401376195</v>
       </c>
       <c r="U20" t="n">
-        <v>1676.07983065826</v>
+        <v>1676.079830658259</v>
       </c>
       <c r="V20" t="n">
-        <v>1569.741952811597</v>
+        <v>1569.741952811596</v>
       </c>
       <c r="W20" t="n">
-        <v>1441.184988623484</v>
+        <v>1441.184988623483</v>
       </c>
       <c r="X20" t="n">
-        <v>1292.091173798387</v>
+        <v>1292.091173798386</v>
       </c>
       <c r="Y20" t="n">
-        <v>1127.012033094434</v>
+        <v>1127.012033094433</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>509.4092620862352</v>
+        <v>734.585836404887</v>
       </c>
       <c r="C21" t="n">
-        <v>336.6561470080524</v>
+        <v>561.8327213267041</v>
       </c>
       <c r="D21" t="n">
-        <v>336.6561470080524</v>
+        <v>414.2444146856479</v>
       </c>
       <c r="E21" t="n">
-        <v>179.0466180109071</v>
+        <v>256.6348856885027</v>
       </c>
       <c r="F21" t="n">
-        <v>34.09082802752392</v>
+        <v>111.6790957051195</v>
       </c>
       <c r="G21" t="n">
-        <v>34.09082802752392</v>
+        <v>111.6790957051195</v>
       </c>
       <c r="H21" t="n">
-        <v>34.09082802752392</v>
+        <v>111.6790957051195</v>
       </c>
       <c r="I21" t="n">
-        <v>34.09082802752392</v>
+        <v>34.09082802752391</v>
       </c>
       <c r="J21" t="n">
-        <v>67.81148563097688</v>
+        <v>34.09082802752391</v>
       </c>
       <c r="K21" t="n">
-        <v>252.0510736548812</v>
+        <v>34.09082802752391</v>
       </c>
       <c r="L21" t="n">
-        <v>252.0510736548812</v>
+        <v>167.0544043749903</v>
       </c>
       <c r="M21" t="n">
-        <v>579.9557856232748</v>
+        <v>579.9557856232741</v>
       </c>
       <c r="N21" t="n">
-        <v>1001.829782463883</v>
+        <v>1001.829782463882</v>
       </c>
       <c r="O21" t="n">
-        <v>1336.009925071734</v>
+        <v>1336.009925071733</v>
       </c>
       <c r="P21" t="n">
-        <v>1587.792410277646</v>
+        <v>1587.792410277645</v>
       </c>
       <c r="Q21" t="n">
-        <v>1704.541401376196</v>
+        <v>1704.541401376195</v>
       </c>
       <c r="R21" t="n">
-        <v>1626.542617113319</v>
+        <v>1626.542617113318</v>
       </c>
       <c r="S21" t="n">
         <v>1461.155418623772</v>
       </c>
       <c r="T21" t="n">
-        <v>1261.915027341408</v>
+        <v>1461.155418623772</v>
       </c>
       <c r="U21" t="n">
-        <v>1260.521152113444</v>
+        <v>1234.247682330835</v>
       </c>
       <c r="V21" t="n">
-        <v>1026.269908639045</v>
+        <v>999.9964388564354</v>
       </c>
       <c r="W21" t="n">
-        <v>773.7554169723779</v>
+        <v>901.6283875264475</v>
       </c>
       <c r="X21" t="n">
-        <v>567.2285183779554</v>
+        <v>901.6283875264475</v>
       </c>
       <c r="Y21" t="n">
-        <v>509.4092620862352</v>
+        <v>901.6283875264475</v>
       </c>
     </row>
     <row r="22">
@@ -5884,34 +5884,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>34.09082802752392</v>
+        <v>34.09082802752391</v>
       </c>
       <c r="C22" t="n">
-        <v>34.09082802752392</v>
+        <v>34.09082802752391</v>
       </c>
       <c r="D22" t="n">
-        <v>34.09082802752392</v>
+        <v>34.09082802752391</v>
       </c>
       <c r="E22" t="n">
-        <v>34.09082802752392</v>
+        <v>34.09082802752391</v>
       </c>
       <c r="F22" t="n">
-        <v>34.09082802752392</v>
+        <v>34.09082802752391</v>
       </c>
       <c r="G22" t="n">
-        <v>34.09082802752392</v>
+        <v>34.09082802752391</v>
       </c>
       <c r="H22" t="n">
-        <v>34.09082802752392</v>
+        <v>34.09082802752391</v>
       </c>
       <c r="I22" t="n">
-        <v>34.09082802752392</v>
+        <v>34.09082802752391</v>
       </c>
       <c r="J22" t="n">
-        <v>34.09082802752392</v>
+        <v>34.09082802752391</v>
       </c>
       <c r="K22" t="n">
-        <v>46.60655431123539</v>
+        <v>46.60655431123536</v>
       </c>
       <c r="L22" t="n">
         <v>118.4259900770789</v>
@@ -5935,25 +5935,25 @@
         <v>395.7074096796392</v>
       </c>
       <c r="S22" t="n">
-        <v>395.7074096796392</v>
+        <v>197.9688716855057</v>
       </c>
       <c r="T22" t="n">
-        <v>391.6008779784317</v>
+        <v>193.8623399842983</v>
       </c>
       <c r="U22" t="n">
-        <v>130.4475154251959</v>
+        <v>130.4475154251957</v>
       </c>
       <c r="V22" t="n">
-        <v>100.4701127861895</v>
+        <v>100.4701127861894</v>
       </c>
       <c r="W22" t="n">
-        <v>37.00157295478285</v>
+        <v>37.00157295478278</v>
       </c>
       <c r="X22" t="n">
-        <v>34.09082802752392</v>
+        <v>34.09082802752391</v>
       </c>
       <c r="Y22" t="n">
-        <v>34.09082802752392</v>
+        <v>34.09082802752391</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>964.9335608347652</v>
+        <v>964.9335608347646</v>
       </c>
       <c r="C23" t="n">
-        <v>819.7554060624218</v>
+        <v>819.755406062421</v>
       </c>
       <c r="D23" t="n">
-        <v>685.0624663651738</v>
+        <v>685.0624663651731</v>
       </c>
       <c r="E23" t="n">
-        <v>523.5884125258157</v>
+        <v>523.5884125258151</v>
       </c>
       <c r="F23" t="n">
-        <v>337.6943306811511</v>
+        <v>337.6943306811506</v>
       </c>
       <c r="G23" t="n">
         <v>144.6943644627648</v>
       </c>
       <c r="H23" t="n">
-        <v>34.09082802752392</v>
+        <v>34.09082802752391</v>
       </c>
       <c r="I23" t="n">
-        <v>34.09082802752392</v>
+        <v>34.09082802752391</v>
       </c>
       <c r="J23" t="n">
-        <v>77.64171918777322</v>
+        <v>77.64171918777225</v>
       </c>
       <c r="K23" t="n">
-        <v>265.1898083646869</v>
+        <v>265.1898083646859</v>
       </c>
       <c r="L23" t="n">
-        <v>549.8288752482733</v>
+        <v>549.8288752482723</v>
       </c>
       <c r="M23" t="n">
-        <v>881.7569750909472</v>
+        <v>881.7569750909462</v>
       </c>
       <c r="N23" t="n">
-        <v>1203.53884361695</v>
+        <v>1203.538843616949</v>
       </c>
       <c r="O23" t="n">
-        <v>1461.259986043749</v>
+        <v>1461.259986043748</v>
       </c>
       <c r="P23" t="n">
-        <v>1644.280225347656</v>
+        <v>1644.280225347655</v>
       </c>
       <c r="Q23" t="n">
-        <v>1704.541401376196</v>
+        <v>1704.541401376195</v>
       </c>
       <c r="R23" t="n">
-        <v>1704.541401376196</v>
+        <v>1704.541401376195</v>
       </c>
       <c r="S23" t="n">
-        <v>1704.541401376196</v>
+        <v>1704.541401376195</v>
       </c>
       <c r="T23" t="n">
-        <v>1704.541401376196</v>
+        <v>1704.541401376195</v>
       </c>
       <c r="U23" t="n">
-        <v>1676.07983065826</v>
+        <v>1676.079830658259</v>
       </c>
       <c r="V23" t="n">
-        <v>1569.741952811597</v>
+        <v>1569.741952811596</v>
       </c>
       <c r="W23" t="n">
-        <v>1441.184988623484</v>
+        <v>1441.184988623483</v>
       </c>
       <c r="X23" t="n">
         <v>1292.091173798386</v>
       </c>
       <c r="Y23" t="n">
-        <v>1127.012033094434</v>
+        <v>1127.012033094433</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>206.8439431057067</v>
+        <v>473.28584885246</v>
       </c>
       <c r="C24" t="n">
-        <v>34.09082802752392</v>
+        <v>300.5327337742772</v>
       </c>
       <c r="D24" t="n">
-        <v>34.09082802752392</v>
+        <v>300.5327337742772</v>
       </c>
       <c r="E24" t="n">
-        <v>34.09082802752392</v>
+        <v>142.9232047771319</v>
       </c>
       <c r="F24" t="n">
-        <v>34.09082802752392</v>
+        <v>142.9232047771319</v>
       </c>
       <c r="G24" t="n">
-        <v>34.09082802752392</v>
+        <v>142.9232047771319</v>
       </c>
       <c r="H24" t="n">
-        <v>34.09082802752392</v>
+        <v>34.09082802752391</v>
       </c>
       <c r="I24" t="n">
-        <v>34.09082802752392</v>
+        <v>34.09082802752391</v>
       </c>
       <c r="J24" t="n">
-        <v>34.09082802752392</v>
+        <v>34.09082802752391</v>
       </c>
       <c r="K24" t="n">
-        <v>34.09082802752392</v>
+        <v>34.09082802752391</v>
       </c>
       <c r="L24" t="n">
-        <v>342.6732976662157</v>
+        <v>167.0544043749903</v>
       </c>
       <c r="M24" t="n">
-        <v>579.9557856232748</v>
+        <v>579.9557856232741</v>
       </c>
       <c r="N24" t="n">
-        <v>1001.829782463883</v>
+        <v>1001.829782463882</v>
       </c>
       <c r="O24" t="n">
-        <v>1336.009925071734</v>
+        <v>1336.009925071733</v>
       </c>
       <c r="P24" t="n">
-        <v>1587.792410277646</v>
+        <v>1587.792410277645</v>
       </c>
       <c r="Q24" t="n">
-        <v>1704.541401376196</v>
+        <v>1704.541401376195</v>
       </c>
       <c r="R24" t="n">
-        <v>1626.542617113319</v>
+        <v>1626.542617113318</v>
       </c>
       <c r="S24" t="n">
         <v>1461.155418623772</v>
       </c>
       <c r="T24" t="n">
-        <v>1261.915027341408</v>
+        <v>1373.700793592262</v>
       </c>
       <c r="U24" t="n">
-        <v>1035.007291048471</v>
+        <v>1146.793057299325</v>
       </c>
       <c r="V24" t="n">
-        <v>813.1424591997333</v>
+        <v>912.5418138249261</v>
       </c>
       <c r="W24" t="n">
-        <v>786.1418285980392</v>
+        <v>885.541183223232</v>
       </c>
       <c r="X24" t="n">
-        <v>579.6149300036167</v>
+        <v>679.0142846288095</v>
       </c>
       <c r="Y24" t="n">
-        <v>373.8864942272672</v>
+        <v>473.28584885246</v>
       </c>
     </row>
     <row r="25">
@@ -6121,34 +6121,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>34.09082802752392</v>
+        <v>67.40447754946267</v>
       </c>
       <c r="C25" t="n">
-        <v>34.09082802752392</v>
+        <v>67.40447754946267</v>
       </c>
       <c r="D25" t="n">
-        <v>34.09082802752392</v>
+        <v>34.09082802752391</v>
       </c>
       <c r="E25" t="n">
-        <v>34.09082802752392</v>
+        <v>34.09082802752391</v>
       </c>
       <c r="F25" t="n">
-        <v>34.09082802752392</v>
+        <v>34.09082802752391</v>
       </c>
       <c r="G25" t="n">
-        <v>34.09082802752392</v>
+        <v>34.09082802752391</v>
       </c>
       <c r="H25" t="n">
-        <v>34.09082802752392</v>
+        <v>34.09082802752391</v>
       </c>
       <c r="I25" t="n">
-        <v>34.09082802752392</v>
+        <v>34.09082802752391</v>
       </c>
       <c r="J25" t="n">
-        <v>34.09082802752392</v>
+        <v>34.09082802752391</v>
       </c>
       <c r="K25" t="n">
-        <v>46.60655431123539</v>
+        <v>46.60655431123536</v>
       </c>
       <c r="L25" t="n">
         <v>118.4259900770789</v>
@@ -6175,22 +6175,22 @@
         <v>231.2825212074445</v>
       </c>
       <c r="T25" t="n">
-        <v>227.175989506237</v>
+        <v>227.1759895062371</v>
       </c>
       <c r="U25" t="n">
-        <v>130.4475154251959</v>
+        <v>163.7611649471344</v>
       </c>
       <c r="V25" t="n">
-        <v>100.4701127861895</v>
+        <v>133.7837623081282</v>
       </c>
       <c r="W25" t="n">
-        <v>37.00157295478285</v>
+        <v>70.31522247672154</v>
       </c>
       <c r="X25" t="n">
-        <v>34.09082802752392</v>
+        <v>67.40447754946267</v>
       </c>
       <c r="Y25" t="n">
-        <v>34.09082802752392</v>
+        <v>67.40447754946267</v>
       </c>
     </row>
     <row r="26">
@@ -6209,46 +6209,46 @@
         <v>1079.836250306608</v>
       </c>
       <c r="E26" t="n">
-        <v>836.395400674058</v>
+        <v>836.3954006740578</v>
       </c>
       <c r="F26" t="n">
-        <v>568.5345230362011</v>
+        <v>568.5345230362009</v>
       </c>
       <c r="G26" t="n">
-        <v>293.5677610246228</v>
+        <v>293.5677610246231</v>
       </c>
       <c r="H26" t="n">
         <v>100.99742879619</v>
       </c>
       <c r="I26" t="n">
-        <v>57.7336377899843</v>
+        <v>57.73363778998429</v>
       </c>
       <c r="J26" t="n">
-        <v>241.9750076231062</v>
+        <v>241.9750076231055</v>
       </c>
       <c r="K26" t="n">
-        <v>570.2135754728918</v>
+        <v>570.2135754728911</v>
       </c>
       <c r="L26" t="n">
-        <v>995.54312102935</v>
+        <v>995.5431210293493</v>
       </c>
       <c r="M26" t="n">
-        <v>1468.161699544896</v>
+        <v>1468.161699544895</v>
       </c>
       <c r="N26" t="n">
-        <v>1930.634046743771</v>
+        <v>1930.63404674377</v>
       </c>
       <c r="O26" t="n">
-        <v>2329.045667843442</v>
+        <v>2329.045667843441</v>
       </c>
       <c r="P26" t="n">
-        <v>2652.75638582022</v>
+        <v>2652.756385820219</v>
       </c>
       <c r="Q26" t="n">
         <v>2853.708040521632</v>
       </c>
       <c r="R26" t="n">
-        <v>2886.681889499215</v>
+        <v>2886.681889499214</v>
       </c>
       <c r="S26" t="n">
         <v>2834.393615466868</v>
@@ -6257,7 +6257,7 @@
         <v>2755.049551663169</v>
       </c>
       <c r="U26" t="n">
-        <v>2644.621185152041</v>
+        <v>2644.62118515204</v>
       </c>
       <c r="V26" t="n">
         <v>2456.316511512185</v>
@@ -6279,34 +6279,34 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>537.0933132179714</v>
+        <v>403.5200064424591</v>
       </c>
       <c r="C27" t="n">
-        <v>364.3401981397885</v>
+        <v>357.9059960192198</v>
       </c>
       <c r="D27" t="n">
-        <v>360.2989567705127</v>
+        <v>353.864754649944</v>
       </c>
       <c r="E27" t="n">
-        <v>202.6894277733674</v>
+        <v>339.8022909245791</v>
       </c>
       <c r="F27" t="n">
-        <v>57.7336377899843</v>
+        <v>194.846500941196</v>
       </c>
       <c r="G27" t="n">
-        <v>57.7336377899843</v>
+        <v>57.73363778998429</v>
       </c>
       <c r="H27" t="n">
-        <v>57.7336377899843</v>
+        <v>57.73363778998429</v>
       </c>
       <c r="I27" t="n">
-        <v>57.7336377899843</v>
+        <v>57.73363778998429</v>
       </c>
       <c r="J27" t="n">
-        <v>91.45429539343725</v>
+        <v>91.45429539343723</v>
       </c>
       <c r="K27" t="n">
-        <v>275.6938834173416</v>
+        <v>275.6938834173415</v>
       </c>
       <c r="L27" t="n">
         <v>584.2763530560333</v>
@@ -6333,22 +6333,22 @@
         <v>1895.731754651159</v>
       </c>
       <c r="T27" t="n">
-        <v>1830.064670144307</v>
+        <v>1696.491363368795</v>
       </c>
       <c r="U27" t="n">
-        <v>1603.15693385137</v>
+        <v>1469.583627075858</v>
       </c>
       <c r="V27" t="n">
-        <v>1368.905690376971</v>
+        <v>1235.332383601458</v>
       </c>
       <c r="W27" t="n">
-        <v>1116.391198710304</v>
+        <v>982.8178919347916</v>
       </c>
       <c r="X27" t="n">
-        <v>909.8643001158814</v>
+        <v>776.2909933403691</v>
       </c>
       <c r="Y27" t="n">
-        <v>704.1358643395318</v>
+        <v>570.5625575640196</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>147.1742450076188</v>
+        <v>147.1742450076186</v>
       </c>
       <c r="C28" t="n">
-        <v>121.6944891367705</v>
+        <v>121.6944891367703</v>
       </c>
       <c r="D28" t="n">
-        <v>114.7308811615616</v>
+        <v>114.7308811615614</v>
       </c>
       <c r="E28" t="n">
-        <v>109.8187300967771</v>
+        <v>109.8187300967769</v>
       </c>
       <c r="F28" t="n">
-        <v>105.7304202071387</v>
+        <v>105.7304202071386</v>
       </c>
       <c r="G28" t="n">
-        <v>79.93040550831519</v>
+        <v>79.93040550831512</v>
       </c>
       <c r="H28" t="n">
-        <v>62.32999863617267</v>
+        <v>62.32999863617263</v>
       </c>
       <c r="I28" t="n">
-        <v>57.7336377899843</v>
+        <v>57.73363778998429</v>
       </c>
       <c r="J28" t="n">
-        <v>57.7336377899843</v>
+        <v>126.9905912707602</v>
       </c>
       <c r="K28" t="n">
-        <v>70.24936407369576</v>
+        <v>139.5063175544717</v>
       </c>
       <c r="L28" t="n">
-        <v>142.0687998395393</v>
+        <v>352.0162319931871</v>
       </c>
       <c r="M28" t="n">
-        <v>369.0757033219165</v>
+        <v>521.4879423203968</v>
       </c>
       <c r="N28" t="n">
-        <v>470.2027386965967</v>
+        <v>610.8932173694682</v>
       </c>
       <c r="O28" t="n">
-        <v>678.1368629849529</v>
+        <v>678.1368629849525</v>
       </c>
       <c r="P28" t="n">
-        <v>853.143415786324</v>
+        <v>853.1434157863235</v>
       </c>
       <c r="Q28" t="n">
-        <v>934.4332876408793</v>
+        <v>934.4332876408788</v>
       </c>
       <c r="R28" t="n">
-        <v>913.5554644404649</v>
+        <v>913.5554644404644</v>
       </c>
       <c r="S28" t="n">
-        <v>836.6531121975494</v>
+        <v>836.653112197549</v>
       </c>
       <c r="T28" t="n">
-        <v>750.5797847031496</v>
+        <v>750.5797847031492</v>
       </c>
       <c r="U28" t="n">
-        <v>605.1981643508545</v>
+        <v>605.1981643508542</v>
       </c>
       <c r="V28" t="n">
-        <v>493.2539659186559</v>
+        <v>493.2539659186556</v>
       </c>
       <c r="W28" t="n">
-        <v>347.8186302940568</v>
+        <v>347.8186302940566</v>
       </c>
       <c r="X28" t="n">
-        <v>262.9410895736056</v>
+        <v>262.9410895736054</v>
       </c>
       <c r="Y28" t="n">
-        <v>185.5298984132968</v>
+        <v>185.5298984132966</v>
       </c>
     </row>
     <row r="29">
@@ -6440,37 +6440,37 @@
         <v>1523.640936362585</v>
       </c>
       <c r="C29" t="n">
-        <v>1296.495985797049</v>
+        <v>1296.49598579705</v>
       </c>
       <c r="D29" t="n">
-        <v>1079.836250306609</v>
+        <v>1079.83625030661</v>
       </c>
       <c r="E29" t="n">
-        <v>836.3954006740587</v>
+        <v>836.3954006740591</v>
       </c>
       <c r="F29" t="n">
-        <v>568.5345230362018</v>
+        <v>568.5345230362021</v>
       </c>
       <c r="G29" t="n">
-        <v>293.567761024624</v>
+        <v>293.5677610246236</v>
       </c>
       <c r="H29" t="n">
-        <v>100.9974287961908</v>
+        <v>100.9974287961904</v>
       </c>
       <c r="I29" t="n">
-        <v>57.7336377899843</v>
+        <v>57.73363778998429</v>
       </c>
       <c r="J29" t="n">
-        <v>241.9750076231057</v>
+        <v>241.9750076231055</v>
       </c>
       <c r="K29" t="n">
         <v>570.2135754728913</v>
       </c>
       <c r="L29" t="n">
-        <v>995.5431210293497</v>
+        <v>995.5431210293495</v>
       </c>
       <c r="M29" t="n">
-        <v>1468.161699544896</v>
+        <v>1468.161699544895</v>
       </c>
       <c r="N29" t="n">
         <v>1930.63404674377</v>
@@ -6485,22 +6485,22 @@
         <v>2853.708040521632</v>
       </c>
       <c r="R29" t="n">
-        <v>2886.681889499215</v>
+        <v>2886.681889499214</v>
       </c>
       <c r="S29" t="n">
-        <v>2834.393615466869</v>
+        <v>2834.39361546687</v>
       </c>
       <c r="T29" t="n">
-        <v>2755.049551663169</v>
+        <v>2755.04955166317</v>
       </c>
       <c r="U29" t="n">
-        <v>2644.621185152041</v>
+        <v>2644.621185152042</v>
       </c>
       <c r="V29" t="n">
-        <v>2456.316511512185</v>
+        <v>2456.316511512186</v>
       </c>
       <c r="W29" t="n">
-        <v>2245.79275153088</v>
+        <v>2245.792751530881</v>
       </c>
       <c r="X29" t="n">
         <v>2014.732140912591</v>
@@ -6516,34 +6516,34 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>537.0933132179714</v>
+        <v>537.0933132179713</v>
       </c>
       <c r="C30" t="n">
         <v>364.3401981397885</v>
       </c>
       <c r="D30" t="n">
-        <v>216.7518914987324</v>
+        <v>360.2989567705127</v>
       </c>
       <c r="E30" t="n">
-        <v>59.14236250158705</v>
+        <v>202.6894277733674</v>
       </c>
       <c r="F30" t="n">
-        <v>57.7336377899843</v>
+        <v>57.73363778998429</v>
       </c>
       <c r="G30" t="n">
-        <v>57.7336377899843</v>
+        <v>57.73363778998429</v>
       </c>
       <c r="H30" t="n">
-        <v>57.7336377899843</v>
+        <v>57.73363778998429</v>
       </c>
       <c r="I30" t="n">
-        <v>57.7336377899843</v>
+        <v>57.73363778998429</v>
       </c>
       <c r="J30" t="n">
-        <v>91.45429539343725</v>
+        <v>91.45429539343723</v>
       </c>
       <c r="K30" t="n">
-        <v>275.6938834173416</v>
+        <v>275.6938834173415</v>
       </c>
       <c r="L30" t="n">
         <v>584.2763530560333</v>
@@ -6564,28 +6564,28 @@
         <v>2139.117737403582</v>
       </c>
       <c r="R30" t="n">
-        <v>2061.118953140705</v>
+        <v>2139.117737403582</v>
       </c>
       <c r="S30" t="n">
-        <v>1895.731754651159</v>
+        <v>1973.730538914036</v>
       </c>
       <c r="T30" t="n">
-        <v>1696.491363368795</v>
+        <v>1774.490147631672</v>
       </c>
       <c r="U30" t="n">
-        <v>1469.583627075858</v>
+        <v>1547.582411338735</v>
       </c>
       <c r="V30" t="n">
-        <v>1235.332383601458</v>
+        <v>1313.331167864336</v>
       </c>
       <c r="W30" t="n">
-        <v>982.8178919347916</v>
+        <v>1060.816676197669</v>
       </c>
       <c r="X30" t="n">
-        <v>776.2909933403691</v>
+        <v>854.2897776032465</v>
       </c>
       <c r="Y30" t="n">
-        <v>704.1358643395318</v>
+        <v>648.561341826897</v>
       </c>
     </row>
     <row r="31">
@@ -6598,7 +6598,7 @@
         <v>147.1742450076184</v>
       </c>
       <c r="C31" t="n">
-        <v>121.6944891367702</v>
+        <v>121.6944891367701</v>
       </c>
       <c r="D31" t="n">
         <v>114.7308811615613</v>
@@ -6610,31 +6610,31 @@
         <v>105.7304202071385</v>
       </c>
       <c r="G31" t="n">
-        <v>79.93040550831508</v>
+        <v>79.93040550831506</v>
       </c>
       <c r="H31" t="n">
-        <v>62.32999863617261</v>
+        <v>62.3299986361726</v>
       </c>
       <c r="I31" t="n">
-        <v>57.7336377899843</v>
+        <v>57.73363778998429</v>
       </c>
       <c r="J31" t="n">
-        <v>57.7336377899843</v>
+        <v>126.9905912707603</v>
       </c>
       <c r="K31" t="n">
-        <v>70.24936407369576</v>
+        <v>280.1967962273437</v>
       </c>
       <c r="L31" t="n">
-        <v>282.7592785124112</v>
+        <v>375.7709106925741</v>
       </c>
       <c r="M31" t="n">
-        <v>509.7661819947885</v>
+        <v>602.7778141749513</v>
       </c>
       <c r="N31" t="n">
-        <v>692.1830892240228</v>
+        <v>832.8735678968947</v>
       </c>
       <c r="O31" t="n">
-        <v>759.4267348395072</v>
+        <v>900.1172135123791</v>
       </c>
       <c r="P31" t="n">
         <v>934.4332876408782</v>
@@ -6674,7 +6674,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1523.640936362584</v>
+        <v>1523.640936362585</v>
       </c>
       <c r="C32" t="n">
         <v>1296.495985797049</v>
@@ -6683,28 +6683,28 @@
         <v>1079.836250306609</v>
       </c>
       <c r="E32" t="n">
-        <v>836.3954006740582</v>
+        <v>836.3954006740589</v>
       </c>
       <c r="F32" t="n">
-        <v>568.5345230362014</v>
+        <v>568.534523036202</v>
       </c>
       <c r="G32" t="n">
-        <v>293.567761024623</v>
+        <v>293.5677610246235</v>
       </c>
       <c r="H32" t="n">
-        <v>100.9974287961899</v>
+        <v>100.99742879619</v>
       </c>
       <c r="I32" t="n">
-        <v>57.7336377899843</v>
+        <v>57.73363778998429</v>
       </c>
       <c r="J32" t="n">
-        <v>241.9750076231056</v>
+        <v>241.9750076231055</v>
       </c>
       <c r="K32" t="n">
-        <v>570.2135754728907</v>
+        <v>570.2135754728911</v>
       </c>
       <c r="L32" t="n">
-        <v>995.5431210293491</v>
+        <v>995.5431210293493</v>
       </c>
       <c r="M32" t="n">
         <v>1468.161699544895</v>
@@ -6716,13 +6716,13 @@
         <v>2329.045667843441</v>
       </c>
       <c r="P32" t="n">
-        <v>2652.75638582022</v>
+        <v>2652.756385820219</v>
       </c>
       <c r="Q32" t="n">
         <v>2853.708040521632</v>
       </c>
       <c r="R32" t="n">
-        <v>2886.681889499215</v>
+        <v>2886.681889499214</v>
       </c>
       <c r="S32" t="n">
         <v>2834.393615466868</v>
@@ -6731,7 +6731,7 @@
         <v>2755.049551663169</v>
       </c>
       <c r="U32" t="n">
-        <v>2644.62118515204</v>
+        <v>2644.621185152041</v>
       </c>
       <c r="V32" t="n">
         <v>2456.316511512185</v>
@@ -6743,7 +6743,7 @@
         <v>2014.73214091259</v>
       </c>
       <c r="Y32" t="n">
-        <v>1767.686204415445</v>
+        <v>1767.686204415446</v>
       </c>
     </row>
     <row r="33">
@@ -6753,34 +6753,34 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>690.61413698602</v>
+        <v>403.5200064424591</v>
       </c>
       <c r="C33" t="n">
-        <v>645.0001265627805</v>
+        <v>364.3401981397885</v>
       </c>
       <c r="D33" t="n">
-        <v>497.4118199217244</v>
+        <v>216.7518914987323</v>
       </c>
       <c r="E33" t="n">
-        <v>339.8022909245791</v>
+        <v>202.6894277733674</v>
       </c>
       <c r="F33" t="n">
-        <v>194.846500941196</v>
+        <v>57.73363778998429</v>
       </c>
       <c r="G33" t="n">
-        <v>57.7336377899843</v>
+        <v>57.73363778998429</v>
       </c>
       <c r="H33" t="n">
-        <v>57.7336377899843</v>
+        <v>57.73363778998429</v>
       </c>
       <c r="I33" t="n">
-        <v>57.7336377899843</v>
+        <v>57.73363778998429</v>
       </c>
       <c r="J33" t="n">
-        <v>91.45429539343725</v>
+        <v>91.45429539343723</v>
       </c>
       <c r="K33" t="n">
-        <v>275.6938834173416</v>
+        <v>275.6938834173415</v>
       </c>
       <c r="L33" t="n">
         <v>584.2763530560333</v>
@@ -6819,10 +6819,10 @@
         <v>982.8178919347916</v>
       </c>
       <c r="X33" t="n">
-        <v>919.8380586121496</v>
+        <v>776.2909933403691</v>
       </c>
       <c r="Y33" t="n">
-        <v>857.6566881075804</v>
+        <v>570.5625575640196</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>147.1742450076182</v>
+        <v>147.1742450076186</v>
       </c>
       <c r="C34" t="n">
-        <v>121.69448913677</v>
+        <v>121.6944891367703</v>
       </c>
       <c r="D34" t="n">
-        <v>114.7308811615611</v>
+        <v>114.7308811615614</v>
       </c>
       <c r="E34" t="n">
-        <v>109.8187300967767</v>
+        <v>109.8187300967769</v>
       </c>
       <c r="F34" t="n">
-        <v>105.7304202071384</v>
+        <v>105.7304202071386</v>
       </c>
       <c r="G34" t="n">
-        <v>79.93040550831502</v>
+        <v>79.93040550831512</v>
       </c>
       <c r="H34" t="n">
-        <v>62.32999863617258</v>
+        <v>62.32999863617263</v>
       </c>
       <c r="I34" t="n">
-        <v>57.7336377899843</v>
+        <v>57.73363778998429</v>
       </c>
       <c r="J34" t="n">
-        <v>57.7336377899843</v>
+        <v>57.73363778998429</v>
       </c>
       <c r="K34" t="n">
-        <v>81.97112439930285</v>
+        <v>210.9398427465676</v>
       </c>
       <c r="L34" t="n">
-        <v>153.7905601651464</v>
+        <v>423.4497571852831</v>
       </c>
       <c r="M34" t="n">
-        <v>240.1069849746517</v>
+        <v>509.7661819947884</v>
       </c>
       <c r="N34" t="n">
-        <v>470.2027386965951</v>
+        <v>739.8619357167318</v>
       </c>
       <c r="O34" t="n">
-        <v>678.1368629849514</v>
+        <v>807.1055813322162</v>
       </c>
       <c r="P34" t="n">
-        <v>853.1434157863225</v>
+        <v>934.4332876408788</v>
       </c>
       <c r="Q34" t="n">
-        <v>934.4332876408779</v>
+        <v>934.4332876408788</v>
       </c>
       <c r="R34" t="n">
-        <v>913.5554644404635</v>
+        <v>913.5554644404644</v>
       </c>
       <c r="S34" t="n">
-        <v>836.6531121975481</v>
+        <v>836.653112197549</v>
       </c>
       <c r="T34" t="n">
-        <v>750.5797847031484</v>
+        <v>750.5797847031492</v>
       </c>
       <c r="U34" t="n">
-        <v>605.1981643508535</v>
+        <v>605.1981643508542</v>
       </c>
       <c r="V34" t="n">
-        <v>493.253965918655</v>
+        <v>493.2539659186556</v>
       </c>
       <c r="W34" t="n">
-        <v>347.818630294056</v>
+        <v>347.8186302940566</v>
       </c>
       <c r="X34" t="n">
-        <v>262.9410895736049</v>
+        <v>262.9410895736054</v>
       </c>
       <c r="Y34" t="n">
-        <v>185.5298984132962</v>
+        <v>185.5298984132966</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>981.3122544834364</v>
+        <v>981.312254483437</v>
       </c>
       <c r="C35" t="n">
-        <v>833.5113677215995</v>
+        <v>833.5113677216004</v>
       </c>
       <c r="D35" t="n">
-        <v>696.1956960348584</v>
+        <v>696.1956960348592</v>
       </c>
       <c r="E35" t="n">
-        <v>532.0989102060071</v>
+        <v>532.0989102060079</v>
       </c>
       <c r="F35" t="n">
-        <v>343.5820963718493</v>
+        <v>343.5820963718501</v>
       </c>
       <c r="G35" t="n">
-        <v>147.9593981639706</v>
+        <v>147.9593981639707</v>
       </c>
       <c r="H35" t="n">
-        <v>34.73312973923653</v>
+        <v>34.73312973923655</v>
       </c>
       <c r="I35" t="n">
-        <v>34.73312973923653</v>
+        <v>34.73312973923655</v>
       </c>
       <c r="J35" t="n">
-        <v>109.7568047734034</v>
+        <v>78.28402089948582</v>
       </c>
       <c r="K35" t="n">
-        <v>297.3048939503171</v>
+        <v>265.8321100763995</v>
       </c>
       <c r="L35" t="n">
-        <v>581.9439608339035</v>
+        <v>581.9439608339045</v>
       </c>
       <c r="M35" t="n">
-        <v>913.8720606765775</v>
+        <v>913.8720606765784</v>
       </c>
       <c r="N35" t="n">
-        <v>1235.65392920258</v>
+        <v>1235.653929202581</v>
       </c>
       <c r="O35" t="n">
-        <v>1493.375071629379</v>
+        <v>1493.37507162938</v>
       </c>
       <c r="P35" t="n">
-        <v>1676.395310933286</v>
+        <v>1676.395310933287</v>
       </c>
       <c r="Q35" t="n">
-        <v>1736.656486961826</v>
+        <v>1736.656486961827</v>
       </c>
       <c r="R35" t="n">
-        <v>1736.656486961826</v>
+        <v>1736.656486961827</v>
       </c>
       <c r="S35" t="n">
-        <v>1736.656486961826</v>
+        <v>1736.656486961827</v>
       </c>
       <c r="T35" t="n">
-        <v>1736.656486961826</v>
+        <v>1736.656486961827</v>
       </c>
       <c r="U35" t="n">
-        <v>1705.572184254397</v>
+        <v>1705.572184254398</v>
       </c>
       <c r="V35" t="n">
-        <v>1596.61157441824</v>
+        <v>1596.611574418241</v>
       </c>
       <c r="W35" t="n">
-        <v>1465.431878240634</v>
+        <v>1465.431878240635</v>
       </c>
       <c r="X35" t="n">
-        <v>1313.715331426044</v>
+        <v>1313.715331426045</v>
       </c>
       <c r="Y35" t="n">
-        <v>1146.013458732598</v>
+        <v>1146.013458732599</v>
       </c>
     </row>
     <row r="36">
@@ -6990,58 +6990,58 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>207.4862448174193</v>
+        <v>223.9498850761836</v>
       </c>
       <c r="C36" t="n">
-        <v>34.73312973923653</v>
+        <v>51.19676999800078</v>
       </c>
       <c r="D36" t="n">
-        <v>34.73312973923653</v>
+        <v>51.19676999800078</v>
       </c>
       <c r="E36" t="n">
-        <v>34.73312973923653</v>
+        <v>51.19676999800078</v>
       </c>
       <c r="F36" t="n">
-        <v>34.73312973923653</v>
+        <v>34.73312973923655</v>
       </c>
       <c r="G36" t="n">
-        <v>34.73312973923653</v>
+        <v>34.73312973923655</v>
       </c>
       <c r="H36" t="n">
-        <v>34.73312973923653</v>
+        <v>34.73312973923655</v>
       </c>
       <c r="I36" t="n">
-        <v>34.73312973923653</v>
+        <v>34.73312973923655</v>
       </c>
       <c r="J36" t="n">
-        <v>34.73312973923653</v>
+        <v>34.73312973923655</v>
       </c>
       <c r="K36" t="n">
-        <v>34.73312973923653</v>
+        <v>34.73312973923655</v>
       </c>
       <c r="L36" t="n">
-        <v>191.2210062781778</v>
+        <v>191.2210062781785</v>
       </c>
       <c r="M36" t="n">
-        <v>604.1223875264616</v>
+        <v>604.1223875264623</v>
       </c>
       <c r="N36" t="n">
-        <v>1033.944868049514</v>
+        <v>1033.944868049515</v>
       </c>
       <c r="O36" t="n">
-        <v>1368.125010657364</v>
+        <v>1368.125010657365</v>
       </c>
       <c r="P36" t="n">
-        <v>1619.907495863276</v>
+        <v>1619.907495863277</v>
       </c>
       <c r="Q36" t="n">
-        <v>1736.656486961826</v>
+        <v>1736.656486961827</v>
       </c>
       <c r="R36" t="n">
-        <v>1658.657702698949</v>
+        <v>1658.65770269895</v>
       </c>
       <c r="S36" t="n">
-        <v>1493.270504209403</v>
+        <v>1493.270504209404</v>
       </c>
       <c r="T36" t="n">
         <v>1294.030112927039</v>
@@ -7050,16 +7050,16 @@
         <v>1067.122376634102</v>
       </c>
       <c r="V36" t="n">
-        <v>832.8711331597024</v>
+        <v>1055.762262235183</v>
       </c>
       <c r="W36" t="n">
-        <v>580.3566414930357</v>
+        <v>803.2477705685161</v>
       </c>
       <c r="X36" t="n">
-        <v>373.8297428986132</v>
+        <v>596.7208719740936</v>
       </c>
       <c r="Y36" t="n">
-        <v>373.8297428986132</v>
+        <v>390.992436197744</v>
       </c>
     </row>
     <row r="37">
@@ -7069,31 +7069,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>34.73312973923653</v>
+        <v>34.73312973923655</v>
       </c>
       <c r="C37" t="n">
-        <v>34.73312973923653</v>
+        <v>34.73312973923655</v>
       </c>
       <c r="D37" t="n">
-        <v>34.73312973923653</v>
+        <v>34.73312973923655</v>
       </c>
       <c r="E37" t="n">
-        <v>34.73312973923653</v>
+        <v>34.73312973923655</v>
       </c>
       <c r="F37" t="n">
-        <v>34.73312973923653</v>
+        <v>34.73312973923655</v>
       </c>
       <c r="G37" t="n">
-        <v>34.73312973923653</v>
+        <v>34.73312973923655</v>
       </c>
       <c r="H37" t="n">
-        <v>34.73312973923653</v>
+        <v>34.73312973923655</v>
       </c>
       <c r="I37" t="n">
-        <v>34.73312973923653</v>
+        <v>34.73312973923655</v>
       </c>
       <c r="J37" t="n">
-        <v>34.73312973923653</v>
+        <v>34.73312973923655</v>
       </c>
       <c r="K37" t="n">
         <v>47.248856022948</v>
@@ -7102,7 +7102,7 @@
         <v>119.0682917887916</v>
       </c>
       <c r="M37" t="n">
-        <v>205.3847165982968</v>
+        <v>205.3847165982969</v>
       </c>
       <c r="N37" t="n">
         <v>294.7899916473683</v>
@@ -7138,7 +7138,7 @@
         <v>219.3580077859038</v>
       </c>
       <c r="Y37" t="n">
-        <v>34.73312973923653</v>
+        <v>34.73312973923655</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>981.3122544834366</v>
+        <v>981.3122544834368</v>
       </c>
       <c r="C38" t="n">
-        <v>833.5113677215998</v>
+        <v>833.5113677216004</v>
       </c>
       <c r="D38" t="n">
-        <v>696.1956960348587</v>
+        <v>696.1956960348593</v>
       </c>
       <c r="E38" t="n">
-        <v>532.0989102060073</v>
+        <v>532.098910206008</v>
       </c>
       <c r="F38" t="n">
-        <v>343.5820963718495</v>
+        <v>343.5820963718502</v>
       </c>
       <c r="G38" t="n">
         <v>147.9593981639706</v>
@@ -7169,46 +7169,46 @@
         <v>34.73312973923653</v>
       </c>
       <c r="I38" t="n">
-        <v>34.73312973923653</v>
+        <v>39.68853405825208</v>
       </c>
       <c r="J38" t="n">
-        <v>78.28402089948582</v>
+        <v>83.23942521850137</v>
       </c>
       <c r="K38" t="n">
-        <v>265.8321100763995</v>
+        <v>270.787514395415</v>
       </c>
       <c r="L38" t="n">
-        <v>550.471176959986</v>
+        <v>555.4265812790014</v>
       </c>
       <c r="M38" t="n">
-        <v>882.3992768026599</v>
+        <v>887.3546811216753</v>
       </c>
       <c r="N38" t="n">
-        <v>1204.181145328663</v>
+        <v>1209.136549647678</v>
       </c>
       <c r="O38" t="n">
-        <v>1461.902287755462</v>
+        <v>1466.857692074477</v>
       </c>
       <c r="P38" t="n">
-        <v>1644.922527059369</v>
+        <v>1649.877931378384</v>
       </c>
       <c r="Q38" t="n">
-        <v>1736.656486961826</v>
+        <v>1710.139107406924</v>
       </c>
       <c r="R38" t="n">
-        <v>1736.656486961826</v>
+        <v>1710.139107406924</v>
       </c>
       <c r="S38" t="n">
-        <v>1736.656486961826</v>
+        <v>1736.656486961827</v>
       </c>
       <c r="T38" t="n">
-        <v>1736.656486961826</v>
+        <v>1736.656486961827</v>
       </c>
       <c r="U38" t="n">
         <v>1705.572184254397</v>
       </c>
       <c r="V38" t="n">
-        <v>1596.61157441824</v>
+        <v>1596.611574418241</v>
       </c>
       <c r="W38" t="n">
         <v>1465.431878240635</v>
@@ -7227,25 +7227,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>500.0303414418586</v>
+        <v>257.2771874002153</v>
       </c>
       <c r="C39" t="n">
-        <v>327.2772263636758</v>
+        <v>257.2771874002153</v>
       </c>
       <c r="D39" t="n">
-        <v>179.6889197226197</v>
+        <v>257.2771874002153</v>
       </c>
       <c r="E39" t="n">
-        <v>179.6889197226197</v>
+        <v>257.2771874002153</v>
       </c>
       <c r="F39" t="n">
-        <v>34.73312973923653</v>
+        <v>112.3213974168321</v>
       </c>
       <c r="G39" t="n">
-        <v>34.73312973923653</v>
+        <v>112.3213974168321</v>
       </c>
       <c r="H39" t="n">
-        <v>34.73312973923653</v>
+        <v>112.3213974168321</v>
       </c>
       <c r="I39" t="n">
         <v>34.73312973923653</v>
@@ -7257,22 +7257,22 @@
         <v>34.73312973923653</v>
       </c>
       <c r="L39" t="n">
-        <v>191.2210062781778</v>
+        <v>343.3155993779282</v>
       </c>
       <c r="M39" t="n">
-        <v>604.1223875264616</v>
+        <v>604.1223875264618</v>
       </c>
       <c r="N39" t="n">
         <v>1033.944868049514</v>
       </c>
       <c r="O39" t="n">
-        <v>1368.125010657364</v>
+        <v>1368.125010657365</v>
       </c>
       <c r="P39" t="n">
         <v>1619.907495863276</v>
       </c>
       <c r="Q39" t="n">
-        <v>1736.656486961826</v>
+        <v>1736.656486961827</v>
       </c>
       <c r="R39" t="n">
         <v>1658.657702698949</v>
@@ -7284,19 +7284,19 @@
         <v>1294.030112927039</v>
       </c>
       <c r="U39" t="n">
-        <v>1290.013505709581</v>
+        <v>1067.122376634102</v>
       </c>
       <c r="V39" t="n">
         <v>1055.762262235182</v>
       </c>
       <c r="W39" t="n">
-        <v>803.2477705685152</v>
+        <v>803.2477705685156</v>
       </c>
       <c r="X39" t="n">
-        <v>596.7208719740927</v>
+        <v>596.7208719740931</v>
       </c>
       <c r="Y39" t="n">
-        <v>596.7208719740927</v>
+        <v>390.9924361977436</v>
       </c>
     </row>
     <row r="40">
@@ -7333,7 +7333,7 @@
         <v>34.73312973923653</v>
       </c>
       <c r="K40" t="n">
-        <v>47.248856022948</v>
+        <v>47.24885602294799</v>
       </c>
       <c r="L40" t="n">
         <v>119.0682917887916</v>
@@ -7357,22 +7357,22 @@
         <v>396.3497113913518</v>
       </c>
       <c r="S40" t="n">
-        <v>396.3497113913518</v>
+        <v>211.7248333446846</v>
       </c>
       <c r="T40" t="n">
-        <v>389.6204477006512</v>
+        <v>204.9955696539839</v>
       </c>
       <c r="U40" t="n">
-        <v>323.5828911520553</v>
+        <v>138.958013105388</v>
       </c>
       <c r="V40" t="n">
-        <v>290.9827565235558</v>
+        <v>106.3578784768885</v>
       </c>
       <c r="W40" t="n">
-        <v>224.8914847026559</v>
+        <v>40.26660665598866</v>
       </c>
       <c r="X40" t="n">
-        <v>219.3580077859038</v>
+        <v>34.73312973923653</v>
       </c>
       <c r="Y40" t="n">
         <v>34.73312973923653</v>
@@ -7388,13 +7388,13 @@
         <v>1150.825059785584</v>
       </c>
       <c r="C41" t="n">
-        <v>975.9683832523951</v>
+        <v>975.9683832523949</v>
       </c>
       <c r="D41" t="n">
-        <v>811.5969217943015</v>
+        <v>811.5969217943014</v>
       </c>
       <c r="E41" t="n">
-        <v>620.4443461940976</v>
+        <v>620.4443461940975</v>
       </c>
       <c r="F41" t="n">
         <v>404.8717425885873</v>
@@ -7403,58 +7403,58 @@
         <v>182.1932546093554</v>
       </c>
       <c r="H41" t="n">
-        <v>41.91119641326886</v>
+        <v>41.91119641326883</v>
       </c>
       <c r="I41" t="n">
-        <v>41.91119641326886</v>
+        <v>41.91119641326883</v>
       </c>
       <c r="J41" t="n">
-        <v>85.46208757351815</v>
+        <v>85.46208757351812</v>
       </c>
       <c r="K41" t="n">
         <v>273.0101767504318</v>
       </c>
       <c r="L41" t="n">
-        <v>562.186122712017</v>
+        <v>557.6492436340181</v>
       </c>
       <c r="M41" t="n">
-        <v>1080.837178326219</v>
+        <v>889.577343476692</v>
       </c>
       <c r="N41" t="n">
-        <v>1594.557262904197</v>
+        <v>1211.359212002695</v>
       </c>
       <c r="O41" t="n">
-        <v>1852.278405330996</v>
+        <v>1661.018570481469</v>
       </c>
       <c r="P41" t="n">
-        <v>2035.298644634903</v>
+        <v>1844.038809785376</v>
       </c>
       <c r="Q41" t="n">
-        <v>2095.559820663443</v>
+        <v>2095.559820663441</v>
       </c>
       <c r="R41" t="n">
-        <v>2095.559820663443</v>
+        <v>2095.559820663441</v>
       </c>
       <c r="S41" t="n">
-        <v>2095.559820663443</v>
+        <v>2095.559820663441</v>
       </c>
       <c r="T41" t="n">
-        <v>2068.504030892091</v>
+        <v>2068.504030892088</v>
       </c>
       <c r="U41" t="n">
-        <v>2010.363938413307</v>
+        <v>2010.363938413306</v>
       </c>
       <c r="V41" t="n">
         <v>1874.347538805798</v>
       </c>
       <c r="W41" t="n">
-        <v>1716.11205285684</v>
+        <v>1716.112052856839</v>
       </c>
       <c r="X41" t="n">
-        <v>1537.339716270897</v>
+        <v>1537.339716270896</v>
       </c>
       <c r="Y41" t="n">
-        <v>1342.582053806099</v>
+        <v>1342.582053806098</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>519.8621471296531</v>
+        <v>507.2084081158909</v>
       </c>
       <c r="C42" t="n">
-        <v>347.1090320514703</v>
+        <v>334.4552930377081</v>
       </c>
       <c r="D42" t="n">
-        <v>199.5207254104142</v>
+        <v>186.866986396652</v>
       </c>
       <c r="E42" t="n">
-        <v>41.91119641326886</v>
+        <v>186.866986396652</v>
       </c>
       <c r="F42" t="n">
-        <v>41.91119641326886</v>
+        <v>41.91119641326883</v>
       </c>
       <c r="G42" t="n">
-        <v>41.91119641326886</v>
+        <v>41.91119641326883</v>
       </c>
       <c r="H42" t="n">
-        <v>41.91119641326886</v>
+        <v>41.91119641326883</v>
       </c>
       <c r="I42" t="n">
-        <v>41.91119641326886</v>
+        <v>41.91119641326883</v>
       </c>
       <c r="J42" t="n">
-        <v>75.6318540167218</v>
+        <v>47.89637865329621</v>
       </c>
       <c r="K42" t="n">
-        <v>232.1359666772022</v>
+        <v>232.1359666772005</v>
       </c>
       <c r="L42" t="n">
-        <v>540.718436315894</v>
+        <v>540.7184363158922</v>
       </c>
       <c r="M42" t="n">
-        <v>953.6198175641778</v>
+        <v>953.6198175641759</v>
       </c>
       <c r="N42" t="n">
-        <v>1392.84820175113</v>
+        <v>1392.848201751128</v>
       </c>
       <c r="O42" t="n">
-        <v>1727.028344358981</v>
+        <v>1727.028344358979</v>
       </c>
       <c r="P42" t="n">
-        <v>1978.810829564893</v>
+        <v>1978.810829564891</v>
       </c>
       <c r="Q42" t="n">
-        <v>2095.559820663443</v>
+        <v>2095.559820663441</v>
       </c>
       <c r="R42" t="n">
-        <v>2017.561036400566</v>
+        <v>2095.559820663441</v>
       </c>
       <c r="S42" t="n">
-        <v>2012.073895338353</v>
+        <v>1930.172622173895</v>
       </c>
       <c r="T42" t="n">
-        <v>1812.833504055988</v>
+        <v>1730.932230891531</v>
       </c>
       <c r="U42" t="n">
-        <v>1585.925767763051</v>
+        <v>1504.024494598594</v>
       </c>
       <c r="V42" t="n">
-        <v>1351.674524288652</v>
+        <v>1339.02078527489</v>
       </c>
       <c r="W42" t="n">
-        <v>1099.160032621985</v>
+        <v>1086.506293608223</v>
       </c>
       <c r="X42" t="n">
-        <v>892.6331340275631</v>
+        <v>879.9793950138009</v>
       </c>
       <c r="Y42" t="n">
-        <v>686.9046982512135</v>
+        <v>674.2509592374513</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>41.91119641326886</v>
+        <v>41.91119641326883</v>
       </c>
       <c r="C43" t="n">
-        <v>41.91119641326886</v>
+        <v>41.91119641326883</v>
       </c>
       <c r="D43" t="n">
-        <v>41.91119641326886</v>
+        <v>41.91119641326883</v>
       </c>
       <c r="E43" t="n">
-        <v>41.91119641326886</v>
+        <v>41.91119641326883</v>
       </c>
       <c r="F43" t="n">
-        <v>41.91119641326886</v>
+        <v>41.91119641326883</v>
       </c>
       <c r="G43" t="n">
-        <v>41.91119641326886</v>
+        <v>41.91119641326883</v>
       </c>
       <c r="H43" t="n">
-        <v>41.91119641326886</v>
+        <v>41.91119641326883</v>
       </c>
       <c r="I43" t="n">
-        <v>41.91119641326886</v>
+        <v>41.91119641326883</v>
       </c>
       <c r="J43" t="n">
-        <v>41.91119641326886</v>
+        <v>41.91119641326883</v>
       </c>
       <c r="K43" t="n">
-        <v>54.42692269698033</v>
+        <v>54.42692269698028</v>
       </c>
       <c r="L43" t="n">
-        <v>126.2463584628239</v>
+        <v>126.2463584628238</v>
       </c>
       <c r="M43" t="n">
-        <v>212.5627832723292</v>
+        <v>212.9538494209551</v>
       </c>
       <c r="N43" t="n">
-        <v>301.9680583214006</v>
+        <v>302.3591244700265</v>
       </c>
       <c r="O43" t="n">
-        <v>369.211703936885</v>
+        <v>369.6027700855109</v>
       </c>
       <c r="P43" t="n">
-        <v>403.5277780653842</v>
+        <v>403.9188442140101</v>
       </c>
       <c r="Q43" t="n">
-        <v>403.9188442140103</v>
+        <v>403.9188442140101</v>
       </c>
       <c r="R43" t="n">
-        <v>403.9188442140103</v>
+        <v>403.9188442140101</v>
       </c>
       <c r="S43" t="n">
-        <v>379.3047660034415</v>
+        <v>379.3047660034413</v>
       </c>
       <c r="T43" t="n">
-        <v>345.5197125413883</v>
+        <v>345.5197125413882</v>
       </c>
       <c r="U43" t="n">
-        <v>252.42636622144</v>
+        <v>252.4263662214398</v>
       </c>
       <c r="V43" t="n">
-        <v>192.770441821588</v>
+        <v>192.7704418215879</v>
       </c>
       <c r="W43" t="n">
-        <v>99.62338022933564</v>
+        <v>99.62338022933554</v>
       </c>
       <c r="X43" t="n">
-        <v>67.03411354123102</v>
+        <v>67.03411354123095</v>
       </c>
       <c r="Y43" t="n">
-        <v>41.91119641326886</v>
+        <v>41.91119641326883</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1150.825059785586</v>
+        <v>1150.825059785584</v>
       </c>
       <c r="C44" t="n">
-        <v>975.9683832523966</v>
+        <v>975.9683832523953</v>
       </c>
       <c r="D44" t="n">
-        <v>811.5969217943029</v>
+        <v>811.5969217943016</v>
       </c>
       <c r="E44" t="n">
-        <v>620.4443461940991</v>
+        <v>620.4443461940978</v>
       </c>
       <c r="F44" t="n">
-        <v>404.8717425885886</v>
+        <v>404.8717425885875</v>
       </c>
       <c r="G44" t="n">
-        <v>182.1932546093555</v>
+        <v>182.1932546093554</v>
       </c>
       <c r="H44" t="n">
-        <v>41.91119641326886</v>
+        <v>41.91119641326883</v>
       </c>
       <c r="I44" t="n">
-        <v>41.91119641326886</v>
+        <v>50.75609222718957</v>
       </c>
       <c r="J44" t="n">
-        <v>85.46208757351815</v>
+        <v>286.2451994394137</v>
       </c>
       <c r="K44" t="n">
-        <v>273.0101767504318</v>
+        <v>571.9866412952467</v>
       </c>
       <c r="L44" t="n">
-        <v>557.6492436340181</v>
+        <v>856.6257081788331</v>
       </c>
       <c r="M44" t="n">
-        <v>889.577343476692</v>
+        <v>1188.553808021507</v>
       </c>
       <c r="N44" t="n">
-        <v>1403.29742805467</v>
+        <v>1510.33567654751</v>
       </c>
       <c r="O44" t="n">
-        <v>1661.018570481468</v>
+        <v>1768.056818974309</v>
       </c>
       <c r="P44" t="n">
-        <v>1844.038809785375</v>
+        <v>1951.077058278216</v>
       </c>
       <c r="Q44" t="n">
-        <v>2095.559820663443</v>
+        <v>2011.338234306756</v>
       </c>
       <c r="R44" t="n">
-        <v>2095.559820663443</v>
+        <v>2095.559820663441</v>
       </c>
       <c r="S44" t="n">
-        <v>2095.559820663443</v>
+        <v>2095.559820663441</v>
       </c>
       <c r="T44" t="n">
-        <v>2068.504030892091</v>
+        <v>2068.504030892089</v>
       </c>
       <c r="U44" t="n">
-        <v>2010.363938413308</v>
+        <v>2010.363938413307</v>
       </c>
       <c r="V44" t="n">
-        <v>1874.3475388058</v>
+        <v>1874.347538805798</v>
       </c>
       <c r="W44" t="n">
-        <v>1716.112052856842</v>
+        <v>1716.11205285684</v>
       </c>
       <c r="X44" t="n">
-        <v>1537.339716270899</v>
+        <v>1537.339716270897</v>
       </c>
       <c r="Y44" t="n">
-        <v>1342.5820538061</v>
+        <v>1342.582053806098</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>830.7419156943063</v>
+        <v>359.9620897023181</v>
       </c>
       <c r="C45" t="n">
-        <v>657.9888006161234</v>
+        <v>359.9620897023181</v>
       </c>
       <c r="D45" t="n">
-        <v>510.4004939750673</v>
+        <v>359.9620897023181</v>
       </c>
       <c r="E45" t="n">
-        <v>510.4004939750673</v>
+        <v>256.6123272420761</v>
       </c>
       <c r="F45" t="n">
-        <v>365.4447039916842</v>
+        <v>256.6123272420761</v>
       </c>
       <c r="G45" t="n">
-        <v>228.3318408404725</v>
+        <v>119.4994640908644</v>
       </c>
       <c r="H45" t="n">
         <v>119.4994640908644</v>
       </c>
       <c r="I45" t="n">
-        <v>41.91119641326886</v>
+        <v>41.91119641326883</v>
       </c>
       <c r="J45" t="n">
-        <v>75.6318540167218</v>
+        <v>47.89637865329621</v>
       </c>
       <c r="K45" t="n">
-        <v>232.1359666772022</v>
+        <v>232.1359666772005</v>
       </c>
       <c r="L45" t="n">
-        <v>540.718436315894</v>
+        <v>540.7184363158922</v>
       </c>
       <c r="M45" t="n">
-        <v>953.6198175641778</v>
+        <v>953.6198175641759</v>
       </c>
       <c r="N45" t="n">
-        <v>1392.84820175113</v>
+        <v>1392.848201751128</v>
       </c>
       <c r="O45" t="n">
-        <v>1727.028344358981</v>
+        <v>1727.028344358979</v>
       </c>
       <c r="P45" t="n">
-        <v>1978.810829564893</v>
+        <v>1978.810829564891</v>
       </c>
       <c r="Q45" t="n">
-        <v>2095.559820663443</v>
+        <v>2095.559820663441</v>
       </c>
       <c r="R45" t="n">
-        <v>2017.561036400566</v>
+        <v>2017.561036400564</v>
       </c>
       <c r="S45" t="n">
-        <v>1852.17383791102</v>
+        <v>1852.173837911018</v>
       </c>
       <c r="T45" t="n">
-        <v>1652.933446628655</v>
+        <v>1652.933446628653</v>
       </c>
       <c r="U45" t="n">
-        <v>1505.134857719451</v>
+        <v>1426.025710335716</v>
       </c>
       <c r="V45" t="n">
-        <v>1466.718953549179</v>
+        <v>1191.774466861317</v>
       </c>
       <c r="W45" t="n">
-        <v>1214.204461882512</v>
+        <v>939.2599751946506</v>
       </c>
       <c r="X45" t="n">
-        <v>1203.512902592216</v>
+        <v>732.7330766002281</v>
       </c>
       <c r="Y45" t="n">
-        <v>997.7844668158667</v>
+        <v>527.0046408238785</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>41.91119641326886</v>
+        <v>41.91119641326883</v>
       </c>
       <c r="C46" t="n">
-        <v>41.91119641326886</v>
+        <v>41.91119641326883</v>
       </c>
       <c r="D46" t="n">
-        <v>41.91119641326886</v>
+        <v>41.91119641326883</v>
       </c>
       <c r="E46" t="n">
-        <v>41.91119641326886</v>
+        <v>41.91119641326883</v>
       </c>
       <c r="F46" t="n">
-        <v>41.91119641326886</v>
+        <v>41.91119641326883</v>
       </c>
       <c r="G46" t="n">
-        <v>41.91119641326886</v>
+        <v>41.91119641326883</v>
       </c>
       <c r="H46" t="n">
-        <v>41.91119641326886</v>
+        <v>41.91119641326883</v>
       </c>
       <c r="I46" t="n">
-        <v>41.91119641326886</v>
+        <v>42.30226256189505</v>
       </c>
       <c r="J46" t="n">
-        <v>41.91119641326886</v>
+        <v>42.30226256189505</v>
       </c>
       <c r="K46" t="n">
-        <v>54.42692269698033</v>
+        <v>54.81798884560651</v>
       </c>
       <c r="L46" t="n">
-        <v>126.2463584628239</v>
+        <v>126.6374246114501</v>
       </c>
       <c r="M46" t="n">
-        <v>212.5627832723292</v>
+        <v>212.9538494209554</v>
       </c>
       <c r="N46" t="n">
-        <v>301.9680583214006</v>
+        <v>302.3591244700268</v>
       </c>
       <c r="O46" t="n">
-        <v>369.211703936885</v>
+        <v>369.6027700855112</v>
       </c>
       <c r="P46" t="n">
-        <v>403.5277780653842</v>
+        <v>403.9188442140103</v>
       </c>
       <c r="Q46" t="n">
-        <v>403.5277780653842</v>
+        <v>403.9188442140103</v>
       </c>
       <c r="R46" t="n">
-        <v>403.9188442140107</v>
+        <v>403.9188442140103</v>
       </c>
       <c r="S46" t="n">
-        <v>379.3047660034418</v>
+        <v>379.3047660034415</v>
       </c>
       <c r="T46" t="n">
-        <v>345.5197125413886</v>
+        <v>345.5197125413883</v>
       </c>
       <c r="U46" t="n">
-        <v>252.4263662214402</v>
+        <v>252.42636622144</v>
       </c>
       <c r="V46" t="n">
-        <v>192.7704418215882</v>
+        <v>192.770441821588</v>
       </c>
       <c r="W46" t="n">
-        <v>99.62338022933575</v>
+        <v>99.6233802293356</v>
       </c>
       <c r="X46" t="n">
-        <v>67.03411354123108</v>
+        <v>67.03411354123098</v>
       </c>
       <c r="Y46" t="n">
-        <v>41.91119641326886</v>
+        <v>41.91119641326883</v>
       </c>
     </row>
   </sheetData>
@@ -8766,13 +8766,13 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J12" t="n">
-        <v>97.07340644750704</v>
+        <v>97.07340644750705</v>
       </c>
       <c r="K12" t="n">
-        <v>88.94325252954209</v>
+        <v>223.2498953047614</v>
       </c>
       <c r="L12" t="n">
-        <v>208.28113760931</v>
+        <v>73.97449483409075</v>
       </c>
       <c r="M12" t="n">
         <v>484.3332662999999</v>
@@ -9003,13 +9003,13 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J15" t="n">
-        <v>97.07340644750704</v>
+        <v>97.07340644750705</v>
       </c>
       <c r="K15" t="n">
-        <v>88.94325252954209</v>
+        <v>88.94325252954211</v>
       </c>
       <c r="L15" t="n">
-        <v>208.28113760931</v>
+        <v>208.2811376093101</v>
       </c>
       <c r="M15" t="n">
         <v>484.3332662999999</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>175.8604797789565</v>
+        <v>175.8604797789567</v>
       </c>
       <c r="K17" t="n">
         <v>337.1112290740114</v>
@@ -9240,16 +9240,16 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J18" t="n">
-        <v>97.07340644750704</v>
+        <v>97.07340644750705</v>
       </c>
       <c r="K18" t="n">
-        <v>223.2498953047614</v>
+        <v>88.94325252954211</v>
       </c>
       <c r="L18" t="n">
-        <v>73.97449483409073</v>
+        <v>385.6739591155975</v>
       </c>
       <c r="M18" t="n">
-        <v>484.3332662999999</v>
+        <v>306.9404447937125</v>
       </c>
       <c r="N18" t="n">
         <v>480.9863851290694</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>175.8604797789565</v>
+        <v>175.8604797789557</v>
       </c>
       <c r="K20" t="n">
         <v>337.1112290740114</v>
@@ -9477,19 +9477,19 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J21" t="n">
-        <v>131.1346767540252</v>
+        <v>97.07340644750705</v>
       </c>
       <c r="K21" t="n">
-        <v>275.0438464930818</v>
+        <v>88.94325252954211</v>
       </c>
       <c r="L21" t="n">
-        <v>73.97449483409073</v>
+        <v>208.2811376093093</v>
       </c>
       <c r="M21" t="n">
-        <v>398.4780448051614</v>
+        <v>484.3332662999999</v>
       </c>
       <c r="N21" t="n">
-        <v>480.9863851290694</v>
+        <v>480.9863851290692</v>
       </c>
       <c r="O21" t="n">
         <v>409.6168120477987</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>175.8604797789567</v>
+        <v>175.8604797789557</v>
       </c>
       <c r="K23" t="n">
         <v>337.1112290740114</v>
@@ -9714,19 +9714,19 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J24" t="n">
-        <v>97.07340644750704</v>
+        <v>97.07340644750705</v>
       </c>
       <c r="K24" t="n">
-        <v>88.94325252954209</v>
+        <v>88.94325252954211</v>
       </c>
       <c r="L24" t="n">
-        <v>385.6739591155975</v>
+        <v>208.2811376093093</v>
       </c>
       <c r="M24" t="n">
-        <v>306.9404447937124</v>
+        <v>484.3332662999999</v>
       </c>
       <c r="N24" t="n">
-        <v>480.9863851290694</v>
+        <v>480.9863851290692</v>
       </c>
       <c r="O24" t="n">
         <v>409.6168120477987</v>
@@ -10662,19 +10662,19 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J36" t="n">
-        <v>97.07340644750704</v>
+        <v>97.07340644750705</v>
       </c>
       <c r="K36" t="n">
-        <v>88.94325252954209</v>
+        <v>88.94325252954211</v>
       </c>
       <c r="L36" t="n">
-        <v>232.0430569946375</v>
+        <v>232.0430569946382</v>
       </c>
       <c r="M36" t="n">
         <v>484.3332662999999</v>
       </c>
       <c r="N36" t="n">
-        <v>489.015156525477</v>
+        <v>489.0151565254773</v>
       </c>
       <c r="O36" t="n">
         <v>409.6168120477987</v>
@@ -10899,19 +10899,19 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J39" t="n">
-        <v>97.07340644750704</v>
+        <v>97.07340644750705</v>
       </c>
       <c r="K39" t="n">
-        <v>88.94325252954209</v>
+        <v>88.94325252954211</v>
       </c>
       <c r="L39" t="n">
-        <v>232.0430569946375</v>
+        <v>385.6739591155975</v>
       </c>
       <c r="M39" t="n">
-        <v>484.3332662999999</v>
+        <v>330.7023641790402</v>
       </c>
       <c r="N39" t="n">
-        <v>489.015156525477</v>
+        <v>489.0151565254771</v>
       </c>
       <c r="O39" t="n">
         <v>409.6168120477987</v>
@@ -11136,10 +11136,10 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J42" t="n">
-        <v>131.1346767540252</v>
+        <v>103.1190450737973</v>
       </c>
       <c r="K42" t="n">
-        <v>247.0282148128557</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L42" t="n">
         <v>385.6739591155975</v>
@@ -11373,10 +11373,10 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J45" t="n">
-        <v>131.1346767540252</v>
+        <v>103.1190450737973</v>
       </c>
       <c r="K45" t="n">
-        <v>247.0282148128557</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L45" t="n">
         <v>385.6739591155975</v>
@@ -23258,22 +23258,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>164.2595562619052</v>
+        <v>244.9625436714603</v>
       </c>
       <c r="D11" t="n">
         <v>234.5821807471161</v>
       </c>
       <c r="E11" t="n">
-        <v>261.0954837478052</v>
+        <v>261.0954837478051</v>
       </c>
       <c r="F11" t="n">
-        <v>285.2713114730586</v>
+        <v>285.2713114730585</v>
       </c>
       <c r="G11" t="n">
-        <v>292.306137003043</v>
+        <v>292.3061370030429</v>
       </c>
       <c r="H11" t="n">
-        <v>210.7336715177292</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23321,7 +23321,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>130.0306841081739</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>4.128284212117251</v>
+        <v>4.128284212115972</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23492,25 +23492,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>130.030684108174</v>
       </c>
       <c r="C14" t="n">
-        <v>164.2595562619052</v>
+        <v>244.9625436714603</v>
       </c>
       <c r="D14" t="n">
         <v>234.5821807471161</v>
       </c>
       <c r="E14" t="n">
-        <v>261.0954837478052</v>
+        <v>261.0954837478051</v>
       </c>
       <c r="F14" t="n">
-        <v>285.2713114730586</v>
+        <v>285.2713114730585</v>
       </c>
       <c r="G14" t="n">
-        <v>292.306137003043</v>
+        <v>292.3061370030429</v>
       </c>
       <c r="H14" t="n">
-        <v>210.7336715177291</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23662,7 +23662,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>4.128284212117151</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>4.128284212115972</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -26378,10 +26378,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>80988.93635747247</v>
+        <v>80988.93635747253</v>
       </c>
       <c r="H3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26390,19 +26390,19 @@
         <v>110025.3308063923</v>
       </c>
       <c r="K3" t="n">
-        <v>5.5409215677243e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>80988.9363574725</v>
       </c>
       <c r="M3" t="n">
-        <v>97387.39977618624</v>
+        <v>97387.39977618633</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>32864.76537852327</v>
+        <v>32864.76537852317</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26430,13 +26430,13 @@
         <v>286364.5436229132</v>
       </c>
       <c r="G4" t="n">
-        <v>351958.9825329302</v>
+        <v>351958.9825329303</v>
       </c>
       <c r="H4" t="n">
-        <v>351958.9825329302</v>
+        <v>351958.9825329303</v>
       </c>
       <c r="I4" t="n">
-        <v>351958.9825329302</v>
+        <v>351958.9825329303</v>
       </c>
       <c r="J4" t="n">
         <v>350098.1444517556</v>
@@ -26457,7 +26457,7 @@
         <v>349353.4290257165</v>
       </c>
       <c r="P4" t="n">
-        <v>349353.4290257166</v>
+        <v>349353.4290257165</v>
       </c>
     </row>
     <row r="5">
@@ -26485,31 +26485,31 @@
         <v>47530.94760072912</v>
       </c>
       <c r="H5" t="n">
-        <v>47530.94760072912</v>
+        <v>47530.94760072911</v>
       </c>
       <c r="I5" t="n">
-        <v>47530.94760072912</v>
+        <v>47530.94760072911</v>
       </c>
       <c r="J5" t="n">
         <v>58677.5251302165</v>
       </c>
       <c r="K5" t="n">
-        <v>58677.52513021651</v>
+        <v>58677.5251302165</v>
       </c>
       <c r="L5" t="n">
-        <v>58677.52513021651</v>
+        <v>58677.5251302165</v>
       </c>
       <c r="M5" t="n">
-        <v>47800.81135056225</v>
+        <v>47800.81135056226</v>
       </c>
       <c r="N5" t="n">
         <v>47800.81135056225</v>
       </c>
       <c r="O5" t="n">
-        <v>51004.33436444186</v>
+        <v>51004.33436444183</v>
       </c>
       <c r="P5" t="n">
-        <v>51004.33436444186</v>
+        <v>51004.33436444183</v>
       </c>
     </row>
     <row r="6">
@@ -26519,31 +26519,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-455638.2252867677</v>
+        <v>-455642.6328639157</v>
       </c>
       <c r="C6" t="n">
-        <v>-455638.2252867677</v>
+        <v>-455642.6328639157</v>
       </c>
       <c r="D6" t="n">
-        <v>-455638.2252867677</v>
+        <v>-455642.6328639157</v>
       </c>
       <c r="E6" t="n">
-        <v>-655371.8738133386</v>
+        <v>-655660.3229302007</v>
       </c>
       <c r="F6" t="n">
-        <v>-325384.6676103469</v>
+        <v>-325673.116727209</v>
       </c>
       <c r="G6" t="n">
-        <v>-480478.8664911318</v>
+        <v>-480478.8664911319</v>
       </c>
       <c r="H6" t="n">
         <v>-399489.9301336594</v>
       </c>
       <c r="I6" t="n">
-        <v>-399489.9301336593</v>
+        <v>-399489.9301336594</v>
       </c>
       <c r="J6" t="n">
-        <v>-518801.0003883643</v>
+        <v>-518801.0003883644</v>
       </c>
       <c r="K6" t="n">
         <v>-408775.6695819721</v>
@@ -26552,16 +26552,16 @@
         <v>-489764.6059394446</v>
       </c>
       <c r="M6" t="n">
-        <v>-496933.1845884231</v>
+        <v>-496933.1845884232</v>
       </c>
       <c r="N6" t="n">
         <v>-399545.7848122369</v>
       </c>
       <c r="O6" t="n">
-        <v>-433222.5287686816</v>
+        <v>-433222.5287686815</v>
       </c>
       <c r="P6" t="n">
-        <v>-400357.7633901584</v>
+        <v>-400357.7633901583</v>
       </c>
     </row>
   </sheetData>
@@ -26698,13 +26698,13 @@
         <v>122.0225520074823</v>
       </c>
       <c r="G2" t="n">
-        <v>223.2587224543229</v>
+        <v>223.258722454323</v>
       </c>
       <c r="H2" t="n">
-        <v>223.2587224543229</v>
+        <v>223.258722454323</v>
       </c>
       <c r="I2" t="n">
-        <v>223.2587224543229</v>
+        <v>223.258722454323</v>
       </c>
       <c r="J2" t="n">
         <v>142.1115946190625</v>
@@ -26713,7 +26713,7 @@
         <v>142.1115946190626</v>
       </c>
       <c r="L2" t="n">
-        <v>142.1115946190626</v>
+        <v>142.1115946190625</v>
       </c>
       <c r="M2" t="n">
         <v>220.6622177847246</v>
@@ -26725,7 +26725,7 @@
         <v>193.8769859110857</v>
       </c>
       <c r="P2" t="n">
-        <v>193.8769859110856</v>
+        <v>193.8769859110857</v>
       </c>
     </row>
     <row r="3">
@@ -26805,31 +26805,31 @@
         <v>426.135350344049</v>
       </c>
       <c r="H4" t="n">
-        <v>426.135350344049</v>
+        <v>426.1353503440488</v>
       </c>
       <c r="I4" t="n">
-        <v>426.135350344049</v>
+        <v>426.1353503440488</v>
       </c>
       <c r="J4" t="n">
-        <v>721.6704723748037</v>
+        <v>721.6704723748036</v>
       </c>
       <c r="K4" t="n">
-        <v>721.6704723748037</v>
+        <v>721.6704723748036</v>
       </c>
       <c r="L4" t="n">
-        <v>721.6704723748037</v>
+        <v>721.6704723748036</v>
       </c>
       <c r="M4" t="n">
-        <v>434.1641217404566</v>
+        <v>434.1641217404568</v>
       </c>
       <c r="N4" t="n">
-        <v>434.1641217404566</v>
+        <v>434.1641217404567</v>
       </c>
       <c r="O4" t="n">
-        <v>523.8899551658608</v>
+        <v>523.8899551658603</v>
       </c>
       <c r="P4" t="n">
-        <v>523.8899551658608</v>
+        <v>523.8899551658603</v>
       </c>
     </row>
   </sheetData>
@@ -26920,19 +26920,19 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>101.2361704468406</v>
+        <v>101.2361704468407</v>
       </c>
       <c r="H2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>40.87542417222187</v>
+        <v>40.87542417222188</v>
       </c>
       <c r="K2" t="n">
-        <v>6.926151959655375e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>101.2361704468406</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>14.09019229858291</v>
+        <v>14.09019229858295</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>295.5351220307547</v>
+        <v>295.5351220307548</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,13 +27042,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>138.6289997097019</v>
+        <v>138.6289997097023</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>89.72583342540418</v>
+        <v>89.72583342540366</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27157,19 +27157,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>101.2361704468406</v>
+        <v>101.2361704468407</v>
       </c>
       <c r="M2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>40.87542417222187</v>
+        <v>40.87542417222188</v>
       </c>
       <c r="P2" t="n">
-        <v>6.926151959655375e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -28166,10 +28166,10 @@
         </is>
       </c>
       <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
         <v>122.0225520074823</v>
-      </c>
-      <c r="C12" t="n">
-        <v>84.77978180390225</v>
       </c>
       <c r="D12" t="n">
         <v>122.0225520074823</v>
@@ -28226,16 +28226,16 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>84.7797818039019</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
       </c>
       <c r="X12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y12" t="n">
         <v>122.0225520074823</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -28409,10 +28409,10 @@
         <v>122.0225520074823</v>
       </c>
       <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
         <v>122.0225520074823</v>
-      </c>
-      <c r="E15" t="n">
-        <v>84.77978180390225</v>
       </c>
       <c r="F15" t="n">
         <v>122.0225520074823</v>
@@ -28454,7 +28454,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>84.77978180390188</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -28463,13 +28463,13 @@
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>122.0225520074823</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>122.0225520074823</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>223.2587224543229</v>
+        <v>223.258722454323</v>
       </c>
       <c r="C17" t="n">
-        <v>223.2587224543229</v>
+        <v>223.258722454323</v>
       </c>
       <c r="D17" t="n">
-        <v>223.2587224543229</v>
+        <v>223.258722454323</v>
       </c>
       <c r="E17" t="n">
-        <v>223.2587224543229</v>
+        <v>223.258722454323</v>
       </c>
       <c r="F17" t="n">
-        <v>223.2587224543229</v>
+        <v>223.258722454323</v>
       </c>
       <c r="G17" t="n">
-        <v>223.2587224543229</v>
+        <v>223.258722454323</v>
       </c>
       <c r="H17" t="n">
-        <v>223.2587224543229</v>
+        <v>223.258722454323</v>
       </c>
       <c r="I17" t="n">
         <v>184.9427477152061</v>
@@ -28618,19 +28618,19 @@
         <v>220.6622177847247</v>
       </c>
       <c r="U17" t="n">
-        <v>223.2587224543229</v>
+        <v>223.258722454323</v>
       </c>
       <c r="V17" t="n">
-        <v>223.2587224543229</v>
+        <v>223.258722454323</v>
       </c>
       <c r="W17" t="n">
-        <v>223.2587224543229</v>
+        <v>223.258722454323</v>
       </c>
       <c r="X17" t="n">
-        <v>223.2587224543229</v>
+        <v>223.258722454323</v>
       </c>
       <c r="Y17" t="n">
-        <v>223.2587224543229</v>
+        <v>223.258722454323</v>
       </c>
     </row>
     <row r="18">
@@ -28640,13 +28640,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -28655,7 +28655,7 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>135.7417345196995</v>
       </c>
       <c r="H18" t="n">
         <v>107.7440529821119</v>
@@ -28700,16 +28700,16 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>168.2959812165785</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>223.258722454323</v>
       </c>
       <c r="X18" t="n">
-        <v>133.3400008089147</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -28773,22 +28773,22 @@
         <v>218.2449233395488</v>
       </c>
       <c r="T19" t="n">
-        <v>223.2587224543229</v>
+        <v>223.258722454323</v>
       </c>
       <c r="U19" t="n">
-        <v>223.2587224543229</v>
+        <v>223.258722454323</v>
       </c>
       <c r="V19" t="n">
-        <v>223.2587224543229</v>
+        <v>223.258722454323</v>
       </c>
       <c r="W19" t="n">
-        <v>223.2587224543229</v>
+        <v>223.258722454323</v>
       </c>
       <c r="X19" t="n">
-        <v>223.2587224543229</v>
+        <v>223.258722454323</v>
       </c>
       <c r="Y19" t="n">
-        <v>22.98752125357669</v>
+        <v>22.98752125357612</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>223.2587224543229</v>
+        <v>223.258722454323</v>
       </c>
       <c r="C20" t="n">
-        <v>223.2587224543229</v>
+        <v>223.258722454323</v>
       </c>
       <c r="D20" t="n">
-        <v>223.2587224543229</v>
+        <v>223.258722454323</v>
       </c>
       <c r="E20" t="n">
-        <v>223.2587224543229</v>
+        <v>223.258722454323</v>
       </c>
       <c r="F20" t="n">
-        <v>223.2587224543229</v>
+        <v>223.258722454323</v>
       </c>
       <c r="G20" t="n">
-        <v>223.2587224543229</v>
+        <v>223.258722454323</v>
       </c>
       <c r="H20" t="n">
-        <v>223.2587224543229</v>
+        <v>223.258722454323</v>
       </c>
       <c r="I20" t="n">
         <v>184.9427477152061</v>
@@ -28855,19 +28855,19 @@
         <v>220.6622177847247</v>
       </c>
       <c r="U20" t="n">
-        <v>223.2587224543229</v>
+        <v>223.258722454323</v>
       </c>
       <c r="V20" t="n">
-        <v>223.2587224543229</v>
+        <v>223.258722454323</v>
       </c>
       <c r="W20" t="n">
-        <v>223.2587224543229</v>
+        <v>223.258722454323</v>
       </c>
       <c r="X20" t="n">
-        <v>223.2587224543229</v>
+        <v>223.258722454323</v>
       </c>
       <c r="Y20" t="n">
-        <v>223.2587224543229</v>
+        <v>223.258722454323</v>
       </c>
     </row>
     <row r="21">
@@ -28877,13 +28877,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -28898,7 +28898,7 @@
         <v>107.7440529821119</v>
       </c>
       <c r="I21" t="n">
-        <v>76.81238500081962</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -28931,22 +28931,22 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>197.2479873695406</v>
       </c>
       <c r="U21" t="n">
-        <v>223.2587224543229</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>152.604975933312</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y21" t="n">
-        <v>146.430087689783</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="22">
@@ -29007,22 +29007,22 @@
         <v>162.7806395874728</v>
       </c>
       <c r="S22" t="n">
-        <v>218.2449233395488</v>
+        <v>22.48377072535666</v>
       </c>
       <c r="T22" t="n">
-        <v>223.2587224543229</v>
+        <v>223.258722454323</v>
       </c>
       <c r="U22" t="n">
-        <v>27.49756984013106</v>
+        <v>223.258722454323</v>
       </c>
       <c r="V22" t="n">
-        <v>223.2587224543229</v>
+        <v>223.258722454323</v>
       </c>
       <c r="W22" t="n">
-        <v>223.2587224543229</v>
+        <v>223.258722454323</v>
       </c>
       <c r="X22" t="n">
-        <v>223.2587224543229</v>
+        <v>223.258722454323</v>
       </c>
       <c r="Y22" t="n">
         <v>218.7486738677682</v>
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>223.2587224543229</v>
+        <v>223.258722454323</v>
       </c>
       <c r="C23" t="n">
-        <v>223.2587224543229</v>
+        <v>223.258722454323</v>
       </c>
       <c r="D23" t="n">
-        <v>223.2587224543229</v>
+        <v>223.258722454323</v>
       </c>
       <c r="E23" t="n">
-        <v>223.2587224543229</v>
+        <v>223.258722454323</v>
       </c>
       <c r="F23" t="n">
-        <v>223.2587224543229</v>
+        <v>223.258722454323</v>
       </c>
       <c r="G23" t="n">
-        <v>223.2587224543229</v>
+        <v>223.258722454323</v>
       </c>
       <c r="H23" t="n">
-        <v>223.2587224543229</v>
+        <v>223.258722454323</v>
       </c>
       <c r="I23" t="n">
         <v>184.9427477152061</v>
@@ -29092,19 +29092,19 @@
         <v>220.6622177847247</v>
       </c>
       <c r="U23" t="n">
-        <v>223.2587224543229</v>
+        <v>223.258722454323</v>
       </c>
       <c r="V23" t="n">
-        <v>223.2587224543229</v>
+        <v>223.258722454323</v>
       </c>
       <c r="W23" t="n">
-        <v>223.2587224543229</v>
+        <v>223.258722454323</v>
       </c>
       <c r="X23" t="n">
-        <v>223.2587224543229</v>
+        <v>223.258722454323</v>
       </c>
       <c r="Y23" t="n">
-        <v>223.2587224543229</v>
+        <v>223.258722454323</v>
       </c>
     </row>
     <row r="24">
@@ -29114,7 +29114,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -29123,7 +29123,7 @@
         <v>146.1124235746456</v>
       </c>
       <c r="E24" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>143.5062320835493</v>
@@ -29132,7 +29132,7 @@
         <v>135.7417345196995</v>
       </c>
       <c r="H24" t="n">
-        <v>107.7440529821119</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>76.81238500081962</v>
@@ -29168,16 +29168,16 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>110.6679085883464</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>12.26254750940458</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>223.2587224543229</v>
+        <v>223.258722454323</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -29199,7 +29199,7 @@
         <v>167.3365529312023</v>
       </c>
       <c r="D25" t="n">
-        <v>149.0055665145194</v>
+        <v>116.0250534878</v>
       </c>
       <c r="E25" t="n">
         <v>146.9746241731992</v>
@@ -29247,19 +29247,19 @@
         <v>218.2449233395488</v>
       </c>
       <c r="T25" t="n">
-        <v>223.2587224543229</v>
+        <v>223.258722454323</v>
       </c>
       <c r="U25" t="n">
-        <v>190.2782094276038</v>
+        <v>223.258722454323</v>
       </c>
       <c r="V25" t="n">
-        <v>223.2587224543229</v>
+        <v>223.258722454323</v>
       </c>
       <c r="W25" t="n">
-        <v>223.2587224543229</v>
+        <v>223.258722454323</v>
       </c>
       <c r="X25" t="n">
-        <v>223.2587224543229</v>
+        <v>223.258722454323</v>
       </c>
       <c r="Y25" t="n">
         <v>218.7486738677682</v>
@@ -29296,7 +29296,7 @@
         <v>142.1115946190625</v>
       </c>
       <c r="J26" t="n">
-        <v>142.1115946190632</v>
+        <v>142.1115946190625</v>
       </c>
       <c r="K26" t="n">
         <v>142.1115946190625</v>
@@ -29354,19 +29354,19 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>125.867713608394</v>
       </c>
       <c r="D27" t="n">
         <v>142.1115946190625</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>142.1115946190625</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>135.7417345196995</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>107.7440529821119</v>
@@ -29405,7 +29405,7 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>132.2375737077571</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -29454,22 +29454,22 @@
         <v>142.1115946190625</v>
       </c>
       <c r="J28" t="n">
-        <v>72.15507595161209</v>
+        <v>142.1115946190625</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>142.1115946190625</v>
       </c>
       <c r="M28" t="n">
-        <v>142.1115946190625</v>
+        <v>83.99523789667103</v>
       </c>
       <c r="N28" t="n">
-        <v>11.84016194505929</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>142.1115946190625</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
         <v>142.1115946190625</v>
@@ -29588,19 +29588,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>55.0187772875084</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>142.1115946190626</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>142.1115946190626</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>135.7417345196995</v>
@@ -29636,7 +29636,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>77.21879642024861</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -29657,7 +29657,7 @@
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>132.2375737077571</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -29691,25 +29691,25 @@
         <v>142.1115946190626</v>
       </c>
       <c r="J31" t="n">
-        <v>72.15507595161209</v>
+        <v>142.1115946190626</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>142.1115946190626</v>
       </c>
       <c r="L31" t="n">
-        <v>142.1115946190626</v>
+        <v>23.99462494887561</v>
       </c>
       <c r="M31" t="n">
         <v>142.1115946190626</v>
       </c>
       <c r="N31" t="n">
-        <v>93.95114361632608</v>
+        <v>142.1115946190626</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>142.1115946190626</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
         <v>60.00061294779458</v>
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>142.1115946190626</v>
+        <v>142.1115946190625</v>
       </c>
       <c r="C32" t="n">
-        <v>142.1115946190626</v>
+        <v>142.1115946190625</v>
       </c>
       <c r="D32" t="n">
-        <v>142.1115946190626</v>
+        <v>142.1115946190625</v>
       </c>
       <c r="E32" t="n">
-        <v>142.1115946190626</v>
+        <v>142.1115946190625</v>
       </c>
       <c r="F32" t="n">
-        <v>142.1115946190626</v>
+        <v>142.1115946190625</v>
       </c>
       <c r="G32" t="n">
-        <v>142.1115946190626</v>
+        <v>142.1115946190625</v>
       </c>
       <c r="H32" t="n">
-        <v>142.1115946190626</v>
+        <v>142.1115946190625</v>
       </c>
       <c r="I32" t="n">
-        <v>142.1115946190626</v>
+        <v>142.1115946190625</v>
       </c>
       <c r="J32" t="n">
-        <v>142.1115946190626</v>
+        <v>142.1115946190625</v>
       </c>
       <c r="K32" t="n">
-        <v>142.1115946190621</v>
+        <v>142.1115946190625</v>
       </c>
       <c r="L32" t="n">
-        <v>142.1115946190626</v>
+        <v>142.1115946190625</v>
       </c>
       <c r="M32" t="n">
-        <v>142.1115946190626</v>
+        <v>142.1115946190625</v>
       </c>
       <c r="N32" t="n">
-        <v>142.1115946190626</v>
+        <v>142.1115946190625</v>
       </c>
       <c r="O32" t="n">
-        <v>142.1115946190626</v>
+        <v>142.1115946190625</v>
       </c>
       <c r="P32" t="n">
-        <v>142.1115946190626</v>
+        <v>142.1115946190625</v>
       </c>
       <c r="Q32" t="n">
-        <v>142.1115946190626</v>
+        <v>142.1115946190625</v>
       </c>
       <c r="R32" t="n">
-        <v>142.1115946190626</v>
+        <v>142.1115946190625</v>
       </c>
       <c r="S32" t="n">
-        <v>142.1115946190626</v>
+        <v>142.1115946190625</v>
       </c>
       <c r="T32" t="n">
-        <v>142.1115946190626</v>
+        <v>142.1115946190625</v>
       </c>
       <c r="U32" t="n">
-        <v>142.1115946190626</v>
+        <v>142.1115946190625</v>
       </c>
       <c r="V32" t="n">
-        <v>142.1115946190626</v>
+        <v>142.1115946190625</v>
       </c>
       <c r="W32" t="n">
-        <v>142.1115946190626</v>
+        <v>142.1115946190625</v>
       </c>
       <c r="X32" t="n">
-        <v>142.1115946190626</v>
+        <v>142.1115946190625</v>
       </c>
       <c r="Y32" t="n">
-        <v>142.1115946190626</v>
+        <v>142.1115946190625</v>
       </c>
     </row>
     <row r="33">
@@ -29828,19 +29828,19 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>125.8677136083939</v>
+        <v>132.237573707757</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>142.1115946190625</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>135.7417345196995</v>
       </c>
       <c r="H33" t="n">
         <v>107.7440529821119</v>
@@ -29891,10 +29891,10 @@
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>142.1115946190626</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>142.1115946190626</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>142.1115946190626</v>
+        <v>142.1115946190625</v>
       </c>
       <c r="C34" t="n">
-        <v>142.1115946190626</v>
+        <v>142.1115946190625</v>
       </c>
       <c r="D34" t="n">
-        <v>142.1115946190626</v>
+        <v>142.1115946190625</v>
       </c>
       <c r="E34" t="n">
-        <v>142.1115946190626</v>
+        <v>142.1115946190625</v>
       </c>
       <c r="F34" t="n">
-        <v>142.1115946190626</v>
+        <v>142.1115946190625</v>
       </c>
       <c r="G34" t="n">
-        <v>142.1115946190626</v>
+        <v>142.1115946190625</v>
       </c>
       <c r="H34" t="n">
-        <v>142.1115946190626</v>
+        <v>142.1115946190625</v>
       </c>
       <c r="I34" t="n">
-        <v>142.1115946190626</v>
+        <v>142.1115946190625</v>
       </c>
       <c r="J34" t="n">
         <v>72.15507595161209</v>
       </c>
       <c r="K34" t="n">
-        <v>11.84016194505767</v>
+        <v>142.1115946190625</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>142.1115946190625</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>142.1115946190626</v>
+        <v>142.1115946190625</v>
       </c>
       <c r="O34" t="n">
-        <v>142.1115946190626</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>142.1115946190626</v>
+        <v>93.95114361632676</v>
       </c>
       <c r="Q34" t="n">
-        <v>142.1115946190626</v>
+        <v>60.00061294779458</v>
       </c>
       <c r="R34" t="n">
-        <v>142.1115946190626</v>
+        <v>142.1115946190625</v>
       </c>
       <c r="S34" t="n">
-        <v>142.1115946190626</v>
+        <v>142.1115946190625</v>
       </c>
       <c r="T34" t="n">
-        <v>142.1115946190626</v>
+        <v>142.1115946190625</v>
       </c>
       <c r="U34" t="n">
-        <v>142.1115946190626</v>
+        <v>142.1115946190625</v>
       </c>
       <c r="V34" t="n">
-        <v>142.1115946190626</v>
+        <v>142.1115946190625</v>
       </c>
       <c r="W34" t="n">
-        <v>142.1115946190626</v>
+        <v>142.1115946190625</v>
       </c>
       <c r="X34" t="n">
-        <v>142.1115946190626</v>
+        <v>142.1115946190625</v>
       </c>
       <c r="Y34" t="n">
-        <v>142.1115946190626</v>
+        <v>142.1115946190625</v>
       </c>
     </row>
     <row r="35">
@@ -30007,13 +30007,13 @@
         <v>184.9427477152061</v>
       </c>
       <c r="J35" t="n">
-        <v>31.79069078173491</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>31.79069078173598</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -30062,7 +30062,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.6920625099629376</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -30074,7 +30074,7 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F36" t="n">
-        <v>143.5062320835493</v>
+        <v>127.2072282273727</v>
       </c>
       <c r="G36" t="n">
         <v>135.7417345196995</v>
@@ -30122,7 +30122,7 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>220.6622177847246</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -30131,7 +30131,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -30241,7 +30241,7 @@
         <v>220.6622177847246</v>
       </c>
       <c r="I38" t="n">
-        <v>184.9427477152061</v>
+        <v>189.9482066233027</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30265,16 +30265,16 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>31.79069078173508</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>108.8046764598881</v>
       </c>
       <c r="S38" t="n">
-        <v>193.8769859110857</v>
+        <v>220.6622177847246</v>
       </c>
       <c r="T38" t="n">
-        <v>220.6622177847246</v>
+        <v>220.6622177847247</v>
       </c>
       <c r="U38" t="n">
         <v>220.6622177847246</v>
@@ -30299,13 +30299,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>69.64850038343312</v>
+        <v>32.99402930079179</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E39" t="n">
         <v>156.0334337071738</v>
@@ -30320,7 +30320,7 @@
         <v>107.7440529821119</v>
       </c>
       <c r="I39" t="n">
-        <v>76.81238500081962</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -30356,11 +30356,11 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
+        <v>0</v>
+      </c>
+      <c r="V39" t="n">
         <v>220.6622177847246</v>
       </c>
-      <c r="V39" t="n">
-        <v>0</v>
-      </c>
       <c r="W39" t="n">
         <v>0</v>
       </c>
@@ -30368,7 +30368,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -30429,7 +30429,7 @@
         <v>162.7806395874728</v>
       </c>
       <c r="S40" t="n">
-        <v>218.2449233395488</v>
+        <v>35.46629407334822</v>
       </c>
       <c r="T40" t="n">
         <v>220.6622177847246</v>
@@ -30447,7 +30447,7 @@
         <v>220.6622177847246</v>
       </c>
       <c r="Y40" t="n">
-        <v>35.97004460156768</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
     <row r="41">
@@ -30487,22 +30487,22 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>4.582706139392712</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>188.609046233867</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
         <v>193.8769859110857</v>
       </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
       <c r="P41" t="n">
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>193.1917523732579</v>
       </c>
       <c r="R41" t="n">
         <v>108.8046764598881</v>
@@ -30545,10 +30545,10 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F42" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>135.7417345196995</v>
@@ -30584,10 +30584,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>77.21879642024861</v>
       </c>
       <c r="S42" t="n">
-        <v>158.3010568530598</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -30596,7 +30596,7 @@
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>68.55505880918838</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
@@ -30648,7 +30648,7 @@
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>0.3950163117433618</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
@@ -30660,7 +30660,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>60.3956292595382</v>
+        <v>60.00061294779458</v>
       </c>
       <c r="R43" t="n">
         <v>162.7806395874728</v>
@@ -30694,34 +30694,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>193.8769859110856</v>
+        <v>193.8769859110857</v>
       </c>
       <c r="C44" t="n">
-        <v>193.8769859110856</v>
+        <v>193.8769859110857</v>
       </c>
       <c r="D44" t="n">
-        <v>193.8769859110856</v>
+        <v>193.8769859110857</v>
       </c>
       <c r="E44" t="n">
-        <v>193.8769859110856</v>
+        <v>193.8769859110857</v>
       </c>
       <c r="F44" t="n">
-        <v>193.8769859110856</v>
+        <v>193.8769859110857</v>
       </c>
       <c r="G44" t="n">
-        <v>193.8769859110856</v>
+        <v>193.8769859110857</v>
       </c>
       <c r="H44" t="n">
-        <v>193.8769859110856</v>
+        <v>193.8769859110857</v>
       </c>
       <c r="I44" t="n">
-        <v>184.9427477152061</v>
+        <v>193.8769859110857</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>193.8769859110857</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>99.18520472618121</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -30730,7 +30730,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>193.8769859110856</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -30739,31 +30739,31 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>193.1917523732602</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>108.8046764598881</v>
+        <v>193.8769859110857</v>
       </c>
       <c r="S44" t="n">
-        <v>193.8769859110856</v>
+        <v>193.8769859110857</v>
       </c>
       <c r="T44" t="n">
-        <v>193.8769859110856</v>
+        <v>193.8769859110857</v>
       </c>
       <c r="U44" t="n">
-        <v>193.8769859110856</v>
+        <v>193.8769859110857</v>
       </c>
       <c r="V44" t="n">
-        <v>193.8769859110856</v>
+        <v>193.8769859110857</v>
       </c>
       <c r="W44" t="n">
-        <v>193.8769859110856</v>
+        <v>193.8769859110857</v>
       </c>
       <c r="X44" t="n">
-        <v>193.8769859110856</v>
+        <v>193.8769859110857</v>
       </c>
       <c r="Y44" t="n">
-        <v>193.8769859110856</v>
+        <v>193.8769859110857</v>
       </c>
     </row>
     <row r="45">
@@ -30776,22 +30776,22 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E45" t="n">
-        <v>156.0334337071738</v>
+        <v>53.71716887153431</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>107.7440529821119</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -30830,16 +30830,16 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>78.31805590989521</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>193.8769859110856</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>193.8769859110856</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -30873,7 +30873,7 @@
         <v>159.5359974224836</v>
       </c>
       <c r="I46" t="n">
-        <v>146.661991856789</v>
+        <v>147.0570081685327</v>
       </c>
       <c r="J46" t="n">
         <v>72.15507595161209</v>
@@ -30900,28 +30900,28 @@
         <v>60.00061294779458</v>
       </c>
       <c r="R46" t="n">
-        <v>163.1756558992168</v>
+        <v>162.7806395874728</v>
       </c>
       <c r="S46" t="n">
-        <v>193.8769859110856</v>
+        <v>193.8769859110857</v>
       </c>
       <c r="T46" t="n">
-        <v>193.8769859110856</v>
+        <v>193.8769859110857</v>
       </c>
       <c r="U46" t="n">
-        <v>193.8769859110856</v>
+        <v>193.8769859110857</v>
       </c>
       <c r="V46" t="n">
-        <v>193.8769859110856</v>
+        <v>193.8769859110857</v>
       </c>
       <c r="W46" t="n">
-        <v>193.8769859110856</v>
+        <v>193.8769859110857</v>
       </c>
       <c r="X46" t="n">
-        <v>193.8769859110856</v>
+        <v>193.8769859110857</v>
       </c>
       <c r="Y46" t="n">
-        <v>193.8769859110856</v>
+        <v>193.8769859110857</v>
       </c>
     </row>
   </sheetData>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5260763933056962</v>
+        <v>0.5260763933056961</v>
       </c>
       <c r="H11" t="n">
-        <v>5.387679862941964</v>
+        <v>5.387679862941963</v>
       </c>
       <c r="I11" t="n">
-        <v>20.28156015291788</v>
+        <v>20.28156015291787</v>
       </c>
       <c r="J11" t="n">
-        <v>44.65007628632938</v>
+        <v>44.65007628632937</v>
       </c>
       <c r="K11" t="n">
-        <v>66.91889001495952</v>
+        <v>66.9188900149595</v>
       </c>
       <c r="L11" t="n">
-        <v>83.01880043658873</v>
+        <v>83.01880043658872</v>
       </c>
       <c r="M11" t="n">
-        <v>92.3744114960389</v>
+        <v>92.37441149603889</v>
       </c>
       <c r="N11" t="n">
-        <v>93.86912604851872</v>
+        <v>93.86912604851871</v>
       </c>
       <c r="O11" t="n">
-        <v>88.6379539125852</v>
+        <v>88.63795391258519</v>
       </c>
       <c r="P11" t="n">
-        <v>75.65044295285081</v>
+        <v>75.6504429528508</v>
       </c>
       <c r="Q11" t="n">
-        <v>56.81033211759055</v>
+        <v>56.81033211759053</v>
       </c>
       <c r="R11" t="n">
         <v>33.04614624098897</v>
       </c>
       <c r="S11" t="n">
-        <v>11.98796581245357</v>
+        <v>11.98796581245356</v>
       </c>
       <c r="T11" t="n">
         <v>2.302899411695686</v>
       </c>
       <c r="U11" t="n">
-        <v>0.04208611146445569</v>
+        <v>0.04208611146445568</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31835,43 +31835,43 @@
         <v>2.718462540020869</v>
       </c>
       <c r="I12" t="n">
-        <v>9.691158464652053</v>
+        <v>9.691158464652052</v>
       </c>
       <c r="J12" t="n">
         <v>26.59327955249298</v>
       </c>
       <c r="K12" t="n">
-        <v>45.45215047045792</v>
+        <v>45.45215047045791</v>
       </c>
       <c r="L12" t="n">
-        <v>61.11602545128662</v>
+        <v>61.1160254512866</v>
       </c>
       <c r="M12" t="n">
-        <v>71.31951904496165</v>
+        <v>71.31951904496164</v>
       </c>
       <c r="N12" t="n">
-        <v>73.20713449622957</v>
+        <v>73.20713449622956</v>
       </c>
       <c r="O12" t="n">
-        <v>66.97022588942419</v>
+        <v>66.97022588942417</v>
       </c>
       <c r="P12" t="n">
-        <v>53.74951047567148</v>
+        <v>53.74951047567147</v>
       </c>
       <c r="Q12" t="n">
-        <v>35.93012432550744</v>
+        <v>35.93012432550743</v>
       </c>
       <c r="R12" t="n">
         <v>17.47618334084261</v>
       </c>
       <c r="S12" t="n">
-        <v>5.228287400993811</v>
+        <v>5.22828740099381</v>
       </c>
       <c r="T12" t="n">
         <v>1.134544538728055</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01851813719360266</v>
+        <v>0.01851813719360265</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,28 +31911,28 @@
         <v>0.2359797592102807</v>
       </c>
       <c r="H13" t="n">
-        <v>2.098074586433225</v>
+        <v>2.098074586433224</v>
       </c>
       <c r="I13" t="n">
-        <v>7.096554940614626</v>
+        <v>7.096554940614625</v>
       </c>
       <c r="J13" t="n">
-        <v>16.68376897616685</v>
+        <v>16.68376897616684</v>
       </c>
       <c r="K13" t="n">
         <v>27.41655747915806</v>
       </c>
       <c r="L13" t="n">
-        <v>35.08375438295392</v>
+        <v>35.08375438295391</v>
       </c>
       <c r="M13" t="n">
-        <v>36.99089989148064</v>
+        <v>36.99089989148063</v>
       </c>
       <c r="N13" t="n">
-        <v>36.1113389707878</v>
+        <v>36.11133897078779</v>
       </c>
       <c r="O13" t="n">
-        <v>33.35466632910406</v>
+        <v>33.35466632910405</v>
       </c>
       <c r="P13" t="n">
         <v>28.5406792412143</v>
@@ -31944,7 +31944,7 @@
         <v>10.61050808230953</v>
       </c>
       <c r="S13" t="n">
-        <v>4.112483621873709</v>
+        <v>4.112483621873708</v>
       </c>
       <c r="T13" t="n">
         <v>1.008277152989381</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5260763933056962</v>
+        <v>0.5260763933056961</v>
       </c>
       <c r="H14" t="n">
-        <v>5.387679862941964</v>
+        <v>5.387679862941963</v>
       </c>
       <c r="I14" t="n">
-        <v>20.28156015291788</v>
+        <v>20.28156015291787</v>
       </c>
       <c r="J14" t="n">
-        <v>44.65007628632938</v>
+        <v>44.65007628632937</v>
       </c>
       <c r="K14" t="n">
-        <v>66.91889001495952</v>
+        <v>66.9188900149595</v>
       </c>
       <c r="L14" t="n">
-        <v>83.01880043658873</v>
+        <v>83.01880043658872</v>
       </c>
       <c r="M14" t="n">
-        <v>92.3744114960389</v>
+        <v>92.37441149603889</v>
       </c>
       <c r="N14" t="n">
-        <v>93.86912604851872</v>
+        <v>93.86912604851871</v>
       </c>
       <c r="O14" t="n">
-        <v>88.6379539125852</v>
+        <v>88.63795391258519</v>
       </c>
       <c r="P14" t="n">
-        <v>75.65044295285081</v>
+        <v>75.6504429528508</v>
       </c>
       <c r="Q14" t="n">
-        <v>56.81033211759055</v>
+        <v>56.81033211759053</v>
       </c>
       <c r="R14" t="n">
         <v>33.04614624098897</v>
       </c>
       <c r="S14" t="n">
-        <v>11.98796581245357</v>
+        <v>11.98796581245356</v>
       </c>
       <c r="T14" t="n">
         <v>2.302899411695686</v>
       </c>
       <c r="U14" t="n">
-        <v>0.04208611146445569</v>
+        <v>0.04208611146445568</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32072,43 +32072,43 @@
         <v>2.718462540020869</v>
       </c>
       <c r="I15" t="n">
-        <v>9.691158464652053</v>
+        <v>9.691158464652052</v>
       </c>
       <c r="J15" t="n">
         <v>26.59327955249298</v>
       </c>
       <c r="K15" t="n">
-        <v>45.45215047045792</v>
+        <v>45.45215047045791</v>
       </c>
       <c r="L15" t="n">
-        <v>61.11602545128662</v>
+        <v>61.1160254512866</v>
       </c>
       <c r="M15" t="n">
-        <v>71.31951904496165</v>
+        <v>71.31951904496164</v>
       </c>
       <c r="N15" t="n">
-        <v>73.20713449622957</v>
+        <v>73.20713449622956</v>
       </c>
       <c r="O15" t="n">
-        <v>66.97022588942419</v>
+        <v>66.97022588942417</v>
       </c>
       <c r="P15" t="n">
-        <v>53.74951047567148</v>
+        <v>53.74951047567147</v>
       </c>
       <c r="Q15" t="n">
-        <v>35.93012432550744</v>
+        <v>35.93012432550743</v>
       </c>
       <c r="R15" t="n">
         <v>17.47618334084261</v>
       </c>
       <c r="S15" t="n">
-        <v>5.228287400993811</v>
+        <v>5.22828740099381</v>
       </c>
       <c r="T15" t="n">
         <v>1.134544538728055</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01851813719360266</v>
+        <v>0.01851813719360265</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,28 +32148,28 @@
         <v>0.2359797592102807</v>
       </c>
       <c r="H16" t="n">
-        <v>2.098074586433225</v>
+        <v>2.098074586433224</v>
       </c>
       <c r="I16" t="n">
-        <v>7.096554940614626</v>
+        <v>7.096554940614625</v>
       </c>
       <c r="J16" t="n">
-        <v>16.68376897616685</v>
+        <v>16.68376897616684</v>
       </c>
       <c r="K16" t="n">
         <v>27.41655747915806</v>
       </c>
       <c r="L16" t="n">
-        <v>35.08375438295392</v>
+        <v>35.08375438295391</v>
       </c>
       <c r="M16" t="n">
-        <v>36.99089989148064</v>
+        <v>36.99089989148063</v>
       </c>
       <c r="N16" t="n">
-        <v>36.1113389707878</v>
+        <v>36.11133897078779</v>
       </c>
       <c r="O16" t="n">
-        <v>33.35466632910406</v>
+        <v>33.35466632910405</v>
       </c>
       <c r="P16" t="n">
         <v>28.5406792412143</v>
@@ -32181,7 +32181,7 @@
         <v>10.61050808230953</v>
       </c>
       <c r="S16" t="n">
-        <v>4.112483621873709</v>
+        <v>4.112483621873708</v>
       </c>
       <c r="T16" t="n">
         <v>1.008277152989381</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5260763933056962</v>
+        <v>0.5260763933056961</v>
       </c>
       <c r="H17" t="n">
-        <v>5.387679862941964</v>
+        <v>5.387679862941963</v>
       </c>
       <c r="I17" t="n">
-        <v>20.28156015291788</v>
+        <v>20.28156015291787</v>
       </c>
       <c r="J17" t="n">
-        <v>44.65007628632938</v>
+        <v>44.65007628632937</v>
       </c>
       <c r="K17" t="n">
-        <v>66.91889001495952</v>
+        <v>66.9188900149595</v>
       </c>
       <c r="L17" t="n">
-        <v>83.01880043658873</v>
+        <v>83.01880043658872</v>
       </c>
       <c r="M17" t="n">
-        <v>92.3744114960389</v>
+        <v>92.37441149603889</v>
       </c>
       <c r="N17" t="n">
-        <v>93.86912604851872</v>
+        <v>93.86912604851871</v>
       </c>
       <c r="O17" t="n">
-        <v>88.6379539125852</v>
+        <v>88.63795391258519</v>
       </c>
       <c r="P17" t="n">
-        <v>75.65044295285081</v>
+        <v>75.6504429528508</v>
       </c>
       <c r="Q17" t="n">
-        <v>56.81033211759055</v>
+        <v>56.81033211759053</v>
       </c>
       <c r="R17" t="n">
         <v>33.04614624098897</v>
       </c>
       <c r="S17" t="n">
-        <v>11.98796581245357</v>
+        <v>11.98796581245356</v>
       </c>
       <c r="T17" t="n">
         <v>2.302899411695686</v>
       </c>
       <c r="U17" t="n">
-        <v>0.04208611146445569</v>
+        <v>0.04208611146445568</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32309,43 +32309,43 @@
         <v>2.718462540020869</v>
       </c>
       <c r="I18" t="n">
-        <v>9.691158464652053</v>
+        <v>9.691158464652052</v>
       </c>
       <c r="J18" t="n">
         <v>26.59327955249298</v>
       </c>
       <c r="K18" t="n">
-        <v>45.45215047045792</v>
+        <v>45.45215047045791</v>
       </c>
       <c r="L18" t="n">
-        <v>61.11602545128662</v>
+        <v>61.1160254512866</v>
       </c>
       <c r="M18" t="n">
-        <v>71.31951904496165</v>
+        <v>71.31951904496164</v>
       </c>
       <c r="N18" t="n">
-        <v>73.20713449622957</v>
+        <v>73.20713449622956</v>
       </c>
       <c r="O18" t="n">
-        <v>66.97022588942419</v>
+        <v>66.97022588942417</v>
       </c>
       <c r="P18" t="n">
-        <v>53.74951047567148</v>
+        <v>53.74951047567147</v>
       </c>
       <c r="Q18" t="n">
-        <v>35.93012432550744</v>
+        <v>35.93012432550743</v>
       </c>
       <c r="R18" t="n">
         <v>17.47618334084261</v>
       </c>
       <c r="S18" t="n">
-        <v>5.228287400993811</v>
+        <v>5.22828740099381</v>
       </c>
       <c r="T18" t="n">
         <v>1.134544538728055</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01851813719360266</v>
+        <v>0.01851813719360265</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,28 +32385,28 @@
         <v>0.2359797592102807</v>
       </c>
       <c r="H19" t="n">
-        <v>2.098074586433225</v>
+        <v>2.098074586433224</v>
       </c>
       <c r="I19" t="n">
-        <v>7.096554940614626</v>
+        <v>7.096554940614625</v>
       </c>
       <c r="J19" t="n">
-        <v>16.68376897616685</v>
+        <v>16.68376897616684</v>
       </c>
       <c r="K19" t="n">
         <v>27.41655747915806</v>
       </c>
       <c r="L19" t="n">
-        <v>35.08375438295392</v>
+        <v>35.08375438295391</v>
       </c>
       <c r="M19" t="n">
-        <v>36.99089989148064</v>
+        <v>36.99089989148063</v>
       </c>
       <c r="N19" t="n">
-        <v>36.1113389707878</v>
+        <v>36.11133897078779</v>
       </c>
       <c r="O19" t="n">
-        <v>33.35466632910406</v>
+        <v>33.35466632910405</v>
       </c>
       <c r="P19" t="n">
         <v>28.5406792412143</v>
@@ -32418,7 +32418,7 @@
         <v>10.61050808230953</v>
       </c>
       <c r="S19" t="n">
-        <v>4.112483621873709</v>
+        <v>4.112483621873708</v>
       </c>
       <c r="T19" t="n">
         <v>1.008277152989381</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5260763933056962</v>
+        <v>0.5260763933056961</v>
       </c>
       <c r="H20" t="n">
-        <v>5.387679862941964</v>
+        <v>5.387679862941963</v>
       </c>
       <c r="I20" t="n">
-        <v>20.28156015291788</v>
+        <v>20.28156015291787</v>
       </c>
       <c r="J20" t="n">
-        <v>44.65007628632938</v>
+        <v>44.65007628632937</v>
       </c>
       <c r="K20" t="n">
-        <v>66.91889001495952</v>
+        <v>66.9188900149595</v>
       </c>
       <c r="L20" t="n">
-        <v>83.01880043658873</v>
+        <v>83.01880043658872</v>
       </c>
       <c r="M20" t="n">
-        <v>92.3744114960389</v>
+        <v>92.37441149603889</v>
       </c>
       <c r="N20" t="n">
-        <v>93.86912604851872</v>
+        <v>93.86912604851871</v>
       </c>
       <c r="O20" t="n">
-        <v>88.6379539125852</v>
+        <v>88.63795391258519</v>
       </c>
       <c r="P20" t="n">
-        <v>75.65044295285081</v>
+        <v>75.6504429528508</v>
       </c>
       <c r="Q20" t="n">
-        <v>56.81033211759055</v>
+        <v>56.81033211759053</v>
       </c>
       <c r="R20" t="n">
         <v>33.04614624098897</v>
       </c>
       <c r="S20" t="n">
-        <v>11.98796581245357</v>
+        <v>11.98796581245356</v>
       </c>
       <c r="T20" t="n">
         <v>2.302899411695686</v>
       </c>
       <c r="U20" t="n">
-        <v>0.04208611146445569</v>
+        <v>0.04208611146445568</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32546,43 +32546,43 @@
         <v>2.718462540020869</v>
       </c>
       <c r="I21" t="n">
-        <v>9.691158464652053</v>
+        <v>9.691158464652052</v>
       </c>
       <c r="J21" t="n">
         <v>26.59327955249298</v>
       </c>
       <c r="K21" t="n">
-        <v>45.45215047045792</v>
+        <v>45.45215047045791</v>
       </c>
       <c r="L21" t="n">
-        <v>61.11602545128662</v>
+        <v>61.1160254512866</v>
       </c>
       <c r="M21" t="n">
-        <v>71.31951904496165</v>
+        <v>71.31951904496164</v>
       </c>
       <c r="N21" t="n">
-        <v>73.20713449622957</v>
+        <v>73.20713449622956</v>
       </c>
       <c r="O21" t="n">
-        <v>66.97022588942419</v>
+        <v>66.97022588942417</v>
       </c>
       <c r="P21" t="n">
-        <v>53.74951047567148</v>
+        <v>53.74951047567147</v>
       </c>
       <c r="Q21" t="n">
-        <v>35.93012432550744</v>
+        <v>35.93012432550743</v>
       </c>
       <c r="R21" t="n">
         <v>17.47618334084261</v>
       </c>
       <c r="S21" t="n">
-        <v>5.228287400993811</v>
+        <v>5.22828740099381</v>
       </c>
       <c r="T21" t="n">
         <v>1.134544538728055</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01851813719360266</v>
+        <v>0.01851813719360265</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,28 +32622,28 @@
         <v>0.2359797592102807</v>
       </c>
       <c r="H22" t="n">
-        <v>2.098074586433225</v>
+        <v>2.098074586433224</v>
       </c>
       <c r="I22" t="n">
-        <v>7.096554940614626</v>
+        <v>7.096554940614625</v>
       </c>
       <c r="J22" t="n">
-        <v>16.68376897616685</v>
+        <v>16.68376897616684</v>
       </c>
       <c r="K22" t="n">
         <v>27.41655747915806</v>
       </c>
       <c r="L22" t="n">
-        <v>35.08375438295392</v>
+        <v>35.08375438295391</v>
       </c>
       <c r="M22" t="n">
-        <v>36.99089989148064</v>
+        <v>36.99089989148063</v>
       </c>
       <c r="N22" t="n">
-        <v>36.1113389707878</v>
+        <v>36.11133897078779</v>
       </c>
       <c r="O22" t="n">
-        <v>33.35466632910406</v>
+        <v>33.35466632910405</v>
       </c>
       <c r="P22" t="n">
         <v>28.5406792412143</v>
@@ -32655,7 +32655,7 @@
         <v>10.61050808230953</v>
       </c>
       <c r="S22" t="n">
-        <v>4.112483621873709</v>
+        <v>4.112483621873708</v>
       </c>
       <c r="T22" t="n">
         <v>1.008277152989381</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5260763933056962</v>
+        <v>0.5260763933056961</v>
       </c>
       <c r="H23" t="n">
-        <v>5.387679862941964</v>
+        <v>5.387679862941963</v>
       </c>
       <c r="I23" t="n">
-        <v>20.28156015291788</v>
+        <v>20.28156015291787</v>
       </c>
       <c r="J23" t="n">
-        <v>44.65007628632938</v>
+        <v>44.65007628632937</v>
       </c>
       <c r="K23" t="n">
-        <v>66.91889001495952</v>
+        <v>66.9188900149595</v>
       </c>
       <c r="L23" t="n">
-        <v>83.01880043658873</v>
+        <v>83.01880043658872</v>
       </c>
       <c r="M23" t="n">
-        <v>92.3744114960389</v>
+        <v>92.37441149603889</v>
       </c>
       <c r="N23" t="n">
-        <v>93.86912604851872</v>
+        <v>93.86912604851871</v>
       </c>
       <c r="O23" t="n">
-        <v>88.6379539125852</v>
+        <v>88.63795391258519</v>
       </c>
       <c r="P23" t="n">
-        <v>75.65044295285081</v>
+        <v>75.6504429528508</v>
       </c>
       <c r="Q23" t="n">
-        <v>56.81033211759055</v>
+        <v>56.81033211759053</v>
       </c>
       <c r="R23" t="n">
         <v>33.04614624098897</v>
       </c>
       <c r="S23" t="n">
-        <v>11.98796581245357</v>
+        <v>11.98796581245356</v>
       </c>
       <c r="T23" t="n">
         <v>2.302899411695686</v>
       </c>
       <c r="U23" t="n">
-        <v>0.04208611146445569</v>
+        <v>0.04208611146445568</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32783,43 +32783,43 @@
         <v>2.718462540020869</v>
       </c>
       <c r="I24" t="n">
-        <v>9.691158464652053</v>
+        <v>9.691158464652052</v>
       </c>
       <c r="J24" t="n">
         <v>26.59327955249298</v>
       </c>
       <c r="K24" t="n">
-        <v>45.45215047045792</v>
+        <v>45.45215047045791</v>
       </c>
       <c r="L24" t="n">
-        <v>61.11602545128662</v>
+        <v>61.1160254512866</v>
       </c>
       <c r="M24" t="n">
-        <v>71.31951904496165</v>
+        <v>71.31951904496164</v>
       </c>
       <c r="N24" t="n">
-        <v>73.20713449622957</v>
+        <v>73.20713449622956</v>
       </c>
       <c r="O24" t="n">
-        <v>66.97022588942419</v>
+        <v>66.97022588942417</v>
       </c>
       <c r="P24" t="n">
-        <v>53.74951047567148</v>
+        <v>53.74951047567147</v>
       </c>
       <c r="Q24" t="n">
-        <v>35.93012432550744</v>
+        <v>35.93012432550743</v>
       </c>
       <c r="R24" t="n">
         <v>17.47618334084261</v>
       </c>
       <c r="S24" t="n">
-        <v>5.228287400993811</v>
+        <v>5.22828740099381</v>
       </c>
       <c r="T24" t="n">
         <v>1.134544538728055</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01851813719360266</v>
+        <v>0.01851813719360265</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,28 +32859,28 @@
         <v>0.2359797592102807</v>
       </c>
       <c r="H25" t="n">
-        <v>2.098074586433225</v>
+        <v>2.098074586433224</v>
       </c>
       <c r="I25" t="n">
-        <v>7.096554940614626</v>
+        <v>7.096554940614625</v>
       </c>
       <c r="J25" t="n">
-        <v>16.68376897616685</v>
+        <v>16.68376897616684</v>
       </c>
       <c r="K25" t="n">
         <v>27.41655747915806</v>
       </c>
       <c r="L25" t="n">
-        <v>35.08375438295392</v>
+        <v>35.08375438295391</v>
       </c>
       <c r="M25" t="n">
-        <v>36.99089989148064</v>
+        <v>36.99089989148063</v>
       </c>
       <c r="N25" t="n">
-        <v>36.1113389707878</v>
+        <v>36.11133897078779</v>
       </c>
       <c r="O25" t="n">
-        <v>33.35466632910406</v>
+        <v>33.35466632910405</v>
       </c>
       <c r="P25" t="n">
         <v>28.5406792412143</v>
@@ -32892,7 +32892,7 @@
         <v>10.61050808230953</v>
       </c>
       <c r="S25" t="n">
-        <v>4.112483621873709</v>
+        <v>4.112483621873708</v>
       </c>
       <c r="T25" t="n">
         <v>1.008277152989381</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5260763933056962</v>
+        <v>0.5260763933056961</v>
       </c>
       <c r="H26" t="n">
-        <v>5.387679862941964</v>
+        <v>5.387679862941963</v>
       </c>
       <c r="I26" t="n">
-        <v>20.28156015291788</v>
+        <v>20.28156015291787</v>
       </c>
       <c r="J26" t="n">
-        <v>44.65007628632938</v>
+        <v>44.65007628632937</v>
       </c>
       <c r="K26" t="n">
-        <v>66.91889001495952</v>
+        <v>66.9188900149595</v>
       </c>
       <c r="L26" t="n">
-        <v>83.01880043658873</v>
+        <v>83.01880043658872</v>
       </c>
       <c r="M26" t="n">
-        <v>92.3744114960389</v>
+        <v>92.37441149603889</v>
       </c>
       <c r="N26" t="n">
-        <v>93.86912604851872</v>
+        <v>93.86912604851871</v>
       </c>
       <c r="O26" t="n">
-        <v>88.6379539125852</v>
+        <v>88.63795391258519</v>
       </c>
       <c r="P26" t="n">
-        <v>75.65044295285081</v>
+        <v>75.6504429528508</v>
       </c>
       <c r="Q26" t="n">
-        <v>56.81033211759055</v>
+        <v>56.81033211759053</v>
       </c>
       <c r="R26" t="n">
         <v>33.04614624098897</v>
       </c>
       <c r="S26" t="n">
-        <v>11.98796581245357</v>
+        <v>11.98796581245356</v>
       </c>
       <c r="T26" t="n">
         <v>2.302899411695686</v>
       </c>
       <c r="U26" t="n">
-        <v>0.04208611146445569</v>
+        <v>0.04208611146445568</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33020,43 +33020,43 @@
         <v>2.718462540020869</v>
       </c>
       <c r="I27" t="n">
-        <v>9.691158464652053</v>
+        <v>9.691158464652052</v>
       </c>
       <c r="J27" t="n">
         <v>26.59327955249298</v>
       </c>
       <c r="K27" t="n">
-        <v>45.45215047045792</v>
+        <v>45.45215047045791</v>
       </c>
       <c r="L27" t="n">
-        <v>61.11602545128662</v>
+        <v>61.1160254512866</v>
       </c>
       <c r="M27" t="n">
-        <v>71.31951904496165</v>
+        <v>71.31951904496164</v>
       </c>
       <c r="N27" t="n">
-        <v>73.20713449622957</v>
+        <v>73.20713449622956</v>
       </c>
       <c r="O27" t="n">
-        <v>66.97022588942419</v>
+        <v>66.97022588942417</v>
       </c>
       <c r="P27" t="n">
-        <v>53.74951047567148</v>
+        <v>53.74951047567147</v>
       </c>
       <c r="Q27" t="n">
-        <v>35.93012432550744</v>
+        <v>35.93012432550743</v>
       </c>
       <c r="R27" t="n">
         <v>17.47618334084261</v>
       </c>
       <c r="S27" t="n">
-        <v>5.228287400993811</v>
+        <v>5.22828740099381</v>
       </c>
       <c r="T27" t="n">
         <v>1.134544538728055</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01851813719360266</v>
+        <v>0.01851813719360265</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,28 +33096,28 @@
         <v>0.2359797592102807</v>
       </c>
       <c r="H28" t="n">
-        <v>2.098074586433225</v>
+        <v>2.098074586433224</v>
       </c>
       <c r="I28" t="n">
-        <v>7.096554940614626</v>
+        <v>7.096554940614625</v>
       </c>
       <c r="J28" t="n">
-        <v>16.68376897616685</v>
+        <v>16.68376897616684</v>
       </c>
       <c r="K28" t="n">
         <v>27.41655747915806</v>
       </c>
       <c r="L28" t="n">
-        <v>35.08375438295392</v>
+        <v>35.08375438295391</v>
       </c>
       <c r="M28" t="n">
-        <v>36.99089989148064</v>
+        <v>36.99089989148063</v>
       </c>
       <c r="N28" t="n">
-        <v>36.1113389707878</v>
+        <v>36.11133897078779</v>
       </c>
       <c r="O28" t="n">
-        <v>33.35466632910406</v>
+        <v>33.35466632910405</v>
       </c>
       <c r="P28" t="n">
         <v>28.5406792412143</v>
@@ -33129,7 +33129,7 @@
         <v>10.61050808230953</v>
       </c>
       <c r="S28" t="n">
-        <v>4.112483621873709</v>
+        <v>4.112483621873708</v>
       </c>
       <c r="T28" t="n">
         <v>1.008277152989381</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5260763933056962</v>
+        <v>0.5260763933056961</v>
       </c>
       <c r="H29" t="n">
-        <v>5.387679862941964</v>
+        <v>5.387679862941963</v>
       </c>
       <c r="I29" t="n">
-        <v>20.28156015291788</v>
+        <v>20.28156015291787</v>
       </c>
       <c r="J29" t="n">
-        <v>44.65007628632938</v>
+        <v>44.65007628632937</v>
       </c>
       <c r="K29" t="n">
-        <v>66.91889001495952</v>
+        <v>66.9188900149595</v>
       </c>
       <c r="L29" t="n">
-        <v>83.01880043658873</v>
+        <v>83.01880043658872</v>
       </c>
       <c r="M29" t="n">
-        <v>92.3744114960389</v>
+        <v>92.37441149603889</v>
       </c>
       <c r="N29" t="n">
-        <v>93.86912604851872</v>
+        <v>93.86912604851871</v>
       </c>
       <c r="O29" t="n">
-        <v>88.6379539125852</v>
+        <v>88.63795391258519</v>
       </c>
       <c r="P29" t="n">
-        <v>75.65044295285081</v>
+        <v>75.6504429528508</v>
       </c>
       <c r="Q29" t="n">
-        <v>56.81033211759055</v>
+        <v>56.81033211759053</v>
       </c>
       <c r="R29" t="n">
         <v>33.04614624098897</v>
       </c>
       <c r="S29" t="n">
-        <v>11.98796581245357</v>
+        <v>11.98796581245356</v>
       </c>
       <c r="T29" t="n">
         <v>2.302899411695686</v>
       </c>
       <c r="U29" t="n">
-        <v>0.04208611146445569</v>
+        <v>0.04208611146445568</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33257,43 +33257,43 @@
         <v>2.718462540020869</v>
       </c>
       <c r="I30" t="n">
-        <v>9.691158464652053</v>
+        <v>9.691158464652052</v>
       </c>
       <c r="J30" t="n">
         <v>26.59327955249298</v>
       </c>
       <c r="K30" t="n">
-        <v>45.45215047045792</v>
+        <v>45.45215047045791</v>
       </c>
       <c r="L30" t="n">
-        <v>61.11602545128662</v>
+        <v>61.1160254512866</v>
       </c>
       <c r="M30" t="n">
-        <v>71.31951904496165</v>
+        <v>71.31951904496164</v>
       </c>
       <c r="N30" t="n">
-        <v>73.20713449622957</v>
+        <v>73.20713449622956</v>
       </c>
       <c r="O30" t="n">
-        <v>66.97022588942419</v>
+        <v>66.97022588942417</v>
       </c>
       <c r="P30" t="n">
-        <v>53.74951047567148</v>
+        <v>53.74951047567147</v>
       </c>
       <c r="Q30" t="n">
-        <v>35.93012432550744</v>
+        <v>35.93012432550743</v>
       </c>
       <c r="R30" t="n">
         <v>17.47618334084261</v>
       </c>
       <c r="S30" t="n">
-        <v>5.228287400993811</v>
+        <v>5.22828740099381</v>
       </c>
       <c r="T30" t="n">
         <v>1.134544538728055</v>
       </c>
       <c r="U30" t="n">
-        <v>0.01851813719360266</v>
+        <v>0.01851813719360265</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,28 +33333,28 @@
         <v>0.2359797592102807</v>
       </c>
       <c r="H31" t="n">
-        <v>2.098074586433225</v>
+        <v>2.098074586433224</v>
       </c>
       <c r="I31" t="n">
-        <v>7.096554940614626</v>
+        <v>7.096554940614625</v>
       </c>
       <c r="J31" t="n">
-        <v>16.68376897616685</v>
+        <v>16.68376897616684</v>
       </c>
       <c r="K31" t="n">
         <v>27.41655747915806</v>
       </c>
       <c r="L31" t="n">
-        <v>35.08375438295392</v>
+        <v>35.08375438295391</v>
       </c>
       <c r="M31" t="n">
-        <v>36.99089989148064</v>
+        <v>36.99089989148063</v>
       </c>
       <c r="N31" t="n">
-        <v>36.1113389707878</v>
+        <v>36.11133897078779</v>
       </c>
       <c r="O31" t="n">
-        <v>33.35466632910406</v>
+        <v>33.35466632910405</v>
       </c>
       <c r="P31" t="n">
         <v>28.5406792412143</v>
@@ -33366,7 +33366,7 @@
         <v>10.61050808230953</v>
       </c>
       <c r="S31" t="n">
-        <v>4.112483621873709</v>
+        <v>4.112483621873708</v>
       </c>
       <c r="T31" t="n">
         <v>1.008277152989381</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.5260763933056962</v>
+        <v>0.5260763933056961</v>
       </c>
       <c r="H32" t="n">
-        <v>5.387679862941964</v>
+        <v>5.387679862941963</v>
       </c>
       <c r="I32" t="n">
-        <v>20.28156015291788</v>
+        <v>20.28156015291787</v>
       </c>
       <c r="J32" t="n">
-        <v>44.65007628632938</v>
+        <v>44.65007628632937</v>
       </c>
       <c r="K32" t="n">
-        <v>66.91889001495952</v>
+        <v>66.9188900149595</v>
       </c>
       <c r="L32" t="n">
-        <v>83.01880043658873</v>
+        <v>83.01880043658872</v>
       </c>
       <c r="M32" t="n">
-        <v>92.3744114960389</v>
+        <v>92.37441149603889</v>
       </c>
       <c r="N32" t="n">
-        <v>93.86912604851872</v>
+        <v>93.86912604851871</v>
       </c>
       <c r="O32" t="n">
-        <v>88.6379539125852</v>
+        <v>88.63795391258519</v>
       </c>
       <c r="P32" t="n">
-        <v>75.65044295285081</v>
+        <v>75.6504429528508</v>
       </c>
       <c r="Q32" t="n">
-        <v>56.81033211759055</v>
+        <v>56.81033211759053</v>
       </c>
       <c r="R32" t="n">
         <v>33.04614624098897</v>
       </c>
       <c r="S32" t="n">
-        <v>11.98796581245357</v>
+        <v>11.98796581245356</v>
       </c>
       <c r="T32" t="n">
         <v>2.302899411695686</v>
       </c>
       <c r="U32" t="n">
-        <v>0.04208611146445569</v>
+        <v>0.04208611146445568</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33494,43 +33494,43 @@
         <v>2.718462540020869</v>
       </c>
       <c r="I33" t="n">
-        <v>9.691158464652053</v>
+        <v>9.691158464652052</v>
       </c>
       <c r="J33" t="n">
         <v>26.59327955249298</v>
       </c>
       <c r="K33" t="n">
-        <v>45.45215047045792</v>
+        <v>45.45215047045791</v>
       </c>
       <c r="L33" t="n">
-        <v>61.11602545128662</v>
+        <v>61.1160254512866</v>
       </c>
       <c r="M33" t="n">
-        <v>71.31951904496165</v>
+        <v>71.31951904496164</v>
       </c>
       <c r="N33" t="n">
-        <v>73.20713449622957</v>
+        <v>73.20713449622956</v>
       </c>
       <c r="O33" t="n">
-        <v>66.97022588942419</v>
+        <v>66.97022588942417</v>
       </c>
       <c r="P33" t="n">
-        <v>53.74951047567148</v>
+        <v>53.74951047567147</v>
       </c>
       <c r="Q33" t="n">
-        <v>35.93012432550744</v>
+        <v>35.93012432550743</v>
       </c>
       <c r="R33" t="n">
         <v>17.47618334084261</v>
       </c>
       <c r="S33" t="n">
-        <v>5.228287400993811</v>
+        <v>5.22828740099381</v>
       </c>
       <c r="T33" t="n">
         <v>1.134544538728055</v>
       </c>
       <c r="U33" t="n">
-        <v>0.01851813719360266</v>
+        <v>0.01851813719360265</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,28 +33570,28 @@
         <v>0.2359797592102807</v>
       </c>
       <c r="H34" t="n">
-        <v>2.098074586433225</v>
+        <v>2.098074586433224</v>
       </c>
       <c r="I34" t="n">
-        <v>7.096554940614626</v>
+        <v>7.096554940614625</v>
       </c>
       <c r="J34" t="n">
-        <v>16.68376897616685</v>
+        <v>16.68376897616684</v>
       </c>
       <c r="K34" t="n">
         <v>27.41655747915806</v>
       </c>
       <c r="L34" t="n">
-        <v>35.08375438295392</v>
+        <v>35.08375438295391</v>
       </c>
       <c r="M34" t="n">
-        <v>36.99089989148064</v>
+        <v>36.99089989148063</v>
       </c>
       <c r="N34" t="n">
-        <v>36.1113389707878</v>
+        <v>36.11133897078779</v>
       </c>
       <c r="O34" t="n">
-        <v>33.35466632910406</v>
+        <v>33.35466632910405</v>
       </c>
       <c r="P34" t="n">
         <v>28.5406792412143</v>
@@ -33603,7 +33603,7 @@
         <v>10.61050808230953</v>
       </c>
       <c r="S34" t="n">
-        <v>4.112483621873709</v>
+        <v>4.112483621873708</v>
       </c>
       <c r="T34" t="n">
         <v>1.008277152989381</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.5260763933056962</v>
+        <v>0.5260763933056961</v>
       </c>
       <c r="H35" t="n">
-        <v>5.387679862941964</v>
+        <v>5.387679862941963</v>
       </c>
       <c r="I35" t="n">
-        <v>20.28156015291788</v>
+        <v>20.28156015291787</v>
       </c>
       <c r="J35" t="n">
-        <v>44.65007628632938</v>
+        <v>44.65007628632937</v>
       </c>
       <c r="K35" t="n">
-        <v>66.91889001495952</v>
+        <v>66.9188900149595</v>
       </c>
       <c r="L35" t="n">
-        <v>83.01880043658873</v>
+        <v>83.01880043658872</v>
       </c>
       <c r="M35" t="n">
-        <v>92.3744114960389</v>
+        <v>92.37441149603889</v>
       </c>
       <c r="N35" t="n">
-        <v>93.86912604851872</v>
+        <v>93.86912604851871</v>
       </c>
       <c r="O35" t="n">
-        <v>88.6379539125852</v>
+        <v>88.63795391258519</v>
       </c>
       <c r="P35" t="n">
-        <v>75.65044295285081</v>
+        <v>75.6504429528508</v>
       </c>
       <c r="Q35" t="n">
-        <v>56.81033211759055</v>
+        <v>56.81033211759053</v>
       </c>
       <c r="R35" t="n">
         <v>33.04614624098897</v>
       </c>
       <c r="S35" t="n">
-        <v>11.98796581245357</v>
+        <v>11.98796581245356</v>
       </c>
       <c r="T35" t="n">
         <v>2.302899411695686</v>
       </c>
       <c r="U35" t="n">
-        <v>0.04208611146445569</v>
+        <v>0.04208611146445568</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33731,43 +33731,43 @@
         <v>2.718462540020869</v>
       </c>
       <c r="I36" t="n">
-        <v>9.691158464652053</v>
+        <v>9.691158464652052</v>
       </c>
       <c r="J36" t="n">
         <v>26.59327955249298</v>
       </c>
       <c r="K36" t="n">
-        <v>45.45215047045792</v>
+        <v>45.45215047045791</v>
       </c>
       <c r="L36" t="n">
-        <v>61.11602545128662</v>
+        <v>61.1160254512866</v>
       </c>
       <c r="M36" t="n">
-        <v>71.31951904496165</v>
+        <v>71.31951904496164</v>
       </c>
       <c r="N36" t="n">
-        <v>73.20713449622957</v>
+        <v>73.20713449622956</v>
       </c>
       <c r="O36" t="n">
-        <v>66.97022588942419</v>
+        <v>66.97022588942417</v>
       </c>
       <c r="P36" t="n">
-        <v>53.74951047567148</v>
+        <v>53.74951047567147</v>
       </c>
       <c r="Q36" t="n">
-        <v>35.93012432550744</v>
+        <v>35.93012432550743</v>
       </c>
       <c r="R36" t="n">
         <v>17.47618334084261</v>
       </c>
       <c r="S36" t="n">
-        <v>5.228287400993811</v>
+        <v>5.22828740099381</v>
       </c>
       <c r="T36" t="n">
         <v>1.134544538728055</v>
       </c>
       <c r="U36" t="n">
-        <v>0.01851813719360266</v>
+        <v>0.01851813719360265</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,28 +33807,28 @@
         <v>0.2359797592102807</v>
       </c>
       <c r="H37" t="n">
-        <v>2.098074586433225</v>
+        <v>2.098074586433224</v>
       </c>
       <c r="I37" t="n">
-        <v>7.096554940614626</v>
+        <v>7.096554940614625</v>
       </c>
       <c r="J37" t="n">
-        <v>16.68376897616685</v>
+        <v>16.68376897616684</v>
       </c>
       <c r="K37" t="n">
         <v>27.41655747915806</v>
       </c>
       <c r="L37" t="n">
-        <v>35.08375438295392</v>
+        <v>35.08375438295391</v>
       </c>
       <c r="M37" t="n">
-        <v>36.99089989148064</v>
+        <v>36.99089989148063</v>
       </c>
       <c r="N37" t="n">
-        <v>36.1113389707878</v>
+        <v>36.11133897078779</v>
       </c>
       <c r="O37" t="n">
-        <v>33.35466632910406</v>
+        <v>33.35466632910405</v>
       </c>
       <c r="P37" t="n">
         <v>28.5406792412143</v>
@@ -33840,7 +33840,7 @@
         <v>10.61050808230953</v>
       </c>
       <c r="S37" t="n">
-        <v>4.112483621873709</v>
+        <v>4.112483621873708</v>
       </c>
       <c r="T37" t="n">
         <v>1.008277152989381</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5260763933056962</v>
+        <v>0.5260763933056961</v>
       </c>
       <c r="H38" t="n">
-        <v>5.387679862941964</v>
+        <v>5.387679862941963</v>
       </c>
       <c r="I38" t="n">
-        <v>20.28156015291788</v>
+        <v>20.28156015291787</v>
       </c>
       <c r="J38" t="n">
-        <v>44.65007628632938</v>
+        <v>44.65007628632937</v>
       </c>
       <c r="K38" t="n">
-        <v>66.91889001495952</v>
+        <v>66.9188900149595</v>
       </c>
       <c r="L38" t="n">
-        <v>83.01880043658873</v>
+        <v>83.01880043658872</v>
       </c>
       <c r="M38" t="n">
-        <v>92.3744114960389</v>
+        <v>92.37441149603889</v>
       </c>
       <c r="N38" t="n">
-        <v>93.86912604851872</v>
+        <v>93.86912604851871</v>
       </c>
       <c r="O38" t="n">
-        <v>88.6379539125852</v>
+        <v>88.63795391258519</v>
       </c>
       <c r="P38" t="n">
-        <v>75.65044295285081</v>
+        <v>75.6504429528508</v>
       </c>
       <c r="Q38" t="n">
-        <v>56.81033211759055</v>
+        <v>56.81033211759053</v>
       </c>
       <c r="R38" t="n">
         <v>33.04614624098897</v>
       </c>
       <c r="S38" t="n">
-        <v>11.98796581245357</v>
+        <v>11.98796581245356</v>
       </c>
       <c r="T38" t="n">
         <v>2.302899411695686</v>
       </c>
       <c r="U38" t="n">
-        <v>0.04208611146445569</v>
+        <v>0.04208611146445568</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33968,43 +33968,43 @@
         <v>2.718462540020869</v>
       </c>
       <c r="I39" t="n">
-        <v>9.691158464652053</v>
+        <v>9.691158464652052</v>
       </c>
       <c r="J39" t="n">
         <v>26.59327955249298</v>
       </c>
       <c r="K39" t="n">
-        <v>45.45215047045792</v>
+        <v>45.45215047045791</v>
       </c>
       <c r="L39" t="n">
-        <v>61.11602545128662</v>
+        <v>61.1160254512866</v>
       </c>
       <c r="M39" t="n">
-        <v>71.31951904496165</v>
+        <v>71.31951904496164</v>
       </c>
       <c r="N39" t="n">
-        <v>73.20713449622957</v>
+        <v>73.20713449622956</v>
       </c>
       <c r="O39" t="n">
-        <v>66.97022588942419</v>
+        <v>66.97022588942417</v>
       </c>
       <c r="P39" t="n">
-        <v>53.74951047567148</v>
+        <v>53.74951047567147</v>
       </c>
       <c r="Q39" t="n">
-        <v>35.93012432550744</v>
+        <v>35.93012432550743</v>
       </c>
       <c r="R39" t="n">
         <v>17.47618334084261</v>
       </c>
       <c r="S39" t="n">
-        <v>5.228287400993811</v>
+        <v>5.22828740099381</v>
       </c>
       <c r="T39" t="n">
         <v>1.134544538728055</v>
       </c>
       <c r="U39" t="n">
-        <v>0.01851813719360266</v>
+        <v>0.01851813719360265</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,28 +34044,28 @@
         <v>0.2359797592102807</v>
       </c>
       <c r="H40" t="n">
-        <v>2.098074586433225</v>
+        <v>2.098074586433224</v>
       </c>
       <c r="I40" t="n">
-        <v>7.096554940614626</v>
+        <v>7.096554940614625</v>
       </c>
       <c r="J40" t="n">
-        <v>16.68376897616685</v>
+        <v>16.68376897616684</v>
       </c>
       <c r="K40" t="n">
         <v>27.41655747915806</v>
       </c>
       <c r="L40" t="n">
-        <v>35.08375438295392</v>
+        <v>35.08375438295391</v>
       </c>
       <c r="M40" t="n">
-        <v>36.99089989148064</v>
+        <v>36.99089989148063</v>
       </c>
       <c r="N40" t="n">
-        <v>36.1113389707878</v>
+        <v>36.11133897078779</v>
       </c>
       <c r="O40" t="n">
-        <v>33.35466632910406</v>
+        <v>33.35466632910405</v>
       </c>
       <c r="P40" t="n">
         <v>28.5406792412143</v>
@@ -34077,7 +34077,7 @@
         <v>10.61050808230953</v>
       </c>
       <c r="S40" t="n">
-        <v>4.112483621873709</v>
+        <v>4.112483621873708</v>
       </c>
       <c r="T40" t="n">
         <v>1.008277152989381</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5260763933056962</v>
+        <v>0.5260763933056961</v>
       </c>
       <c r="H41" t="n">
-        <v>5.387679862941964</v>
+        <v>5.387679862941963</v>
       </c>
       <c r="I41" t="n">
-        <v>20.28156015291788</v>
+        <v>20.28156015291787</v>
       </c>
       <c r="J41" t="n">
-        <v>44.65007628632938</v>
+        <v>44.65007628632937</v>
       </c>
       <c r="K41" t="n">
-        <v>66.91889001495952</v>
+        <v>66.9188900149595</v>
       </c>
       <c r="L41" t="n">
-        <v>83.01880043658873</v>
+        <v>83.01880043658872</v>
       </c>
       <c r="M41" t="n">
-        <v>92.3744114960389</v>
+        <v>92.37441149603889</v>
       </c>
       <c r="N41" t="n">
-        <v>93.86912604851872</v>
+        <v>93.86912604851871</v>
       </c>
       <c r="O41" t="n">
-        <v>88.6379539125852</v>
+        <v>88.63795391258519</v>
       </c>
       <c r="P41" t="n">
-        <v>75.65044295285081</v>
+        <v>75.6504429528508</v>
       </c>
       <c r="Q41" t="n">
-        <v>56.81033211759055</v>
+        <v>56.81033211759053</v>
       </c>
       <c r="R41" t="n">
         <v>33.04614624098897</v>
       </c>
       <c r="S41" t="n">
-        <v>11.98796581245357</v>
+        <v>11.98796581245356</v>
       </c>
       <c r="T41" t="n">
         <v>2.302899411695686</v>
       </c>
       <c r="U41" t="n">
-        <v>0.04208611146445569</v>
+        <v>0.04208611146445568</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34205,43 +34205,43 @@
         <v>2.718462540020869</v>
       </c>
       <c r="I42" t="n">
-        <v>9.691158464652053</v>
+        <v>9.691158464652052</v>
       </c>
       <c r="J42" t="n">
         <v>26.59327955249298</v>
       </c>
       <c r="K42" t="n">
-        <v>45.45215047045792</v>
+        <v>45.45215047045791</v>
       </c>
       <c r="L42" t="n">
-        <v>61.11602545128662</v>
+        <v>61.1160254512866</v>
       </c>
       <c r="M42" t="n">
-        <v>71.31951904496165</v>
+        <v>71.31951904496164</v>
       </c>
       <c r="N42" t="n">
-        <v>73.20713449622957</v>
+        <v>73.20713449622956</v>
       </c>
       <c r="O42" t="n">
-        <v>66.97022588942419</v>
+        <v>66.97022588942417</v>
       </c>
       <c r="P42" t="n">
-        <v>53.74951047567148</v>
+        <v>53.74951047567147</v>
       </c>
       <c r="Q42" t="n">
-        <v>35.93012432550744</v>
+        <v>35.93012432550743</v>
       </c>
       <c r="R42" t="n">
         <v>17.47618334084261</v>
       </c>
       <c r="S42" t="n">
-        <v>5.228287400993811</v>
+        <v>5.22828740099381</v>
       </c>
       <c r="T42" t="n">
         <v>1.134544538728055</v>
       </c>
       <c r="U42" t="n">
-        <v>0.01851813719360266</v>
+        <v>0.01851813719360265</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,28 +34281,28 @@
         <v>0.2359797592102807</v>
       </c>
       <c r="H43" t="n">
-        <v>2.098074586433225</v>
+        <v>2.098074586433224</v>
       </c>
       <c r="I43" t="n">
-        <v>7.096554940614626</v>
+        <v>7.096554940614625</v>
       </c>
       <c r="J43" t="n">
-        <v>16.68376897616685</v>
+        <v>16.68376897616684</v>
       </c>
       <c r="K43" t="n">
         <v>27.41655747915806</v>
       </c>
       <c r="L43" t="n">
-        <v>35.08375438295392</v>
+        <v>35.08375438295391</v>
       </c>
       <c r="M43" t="n">
-        <v>36.99089989148064</v>
+        <v>36.99089989148063</v>
       </c>
       <c r="N43" t="n">
-        <v>36.1113389707878</v>
+        <v>36.11133897078779</v>
       </c>
       <c r="O43" t="n">
-        <v>33.35466632910406</v>
+        <v>33.35466632910405</v>
       </c>
       <c r="P43" t="n">
         <v>28.5406792412143</v>
@@ -34314,7 +34314,7 @@
         <v>10.61050808230953</v>
       </c>
       <c r="S43" t="n">
-        <v>4.112483621873709</v>
+        <v>4.112483621873708</v>
       </c>
       <c r="T43" t="n">
         <v>1.008277152989381</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5260763933056962</v>
+        <v>0.5260763933056961</v>
       </c>
       <c r="H44" t="n">
-        <v>5.387679862941964</v>
+        <v>5.387679862941963</v>
       </c>
       <c r="I44" t="n">
-        <v>20.28156015291788</v>
+        <v>20.28156015291787</v>
       </c>
       <c r="J44" t="n">
-        <v>44.65007628632938</v>
+        <v>44.65007628632937</v>
       </c>
       <c r="K44" t="n">
-        <v>66.91889001495952</v>
+        <v>66.9188900149595</v>
       </c>
       <c r="L44" t="n">
-        <v>83.01880043658873</v>
+        <v>83.01880043658872</v>
       </c>
       <c r="M44" t="n">
-        <v>92.3744114960389</v>
+        <v>92.37441149603889</v>
       </c>
       <c r="N44" t="n">
-        <v>93.86912604851872</v>
+        <v>93.86912604851871</v>
       </c>
       <c r="O44" t="n">
-        <v>88.6379539125852</v>
+        <v>88.63795391258519</v>
       </c>
       <c r="P44" t="n">
-        <v>75.65044295285081</v>
+        <v>75.6504429528508</v>
       </c>
       <c r="Q44" t="n">
-        <v>56.81033211759055</v>
+        <v>56.81033211759053</v>
       </c>
       <c r="R44" t="n">
         <v>33.04614624098897</v>
       </c>
       <c r="S44" t="n">
-        <v>11.98796581245357</v>
+        <v>11.98796581245356</v>
       </c>
       <c r="T44" t="n">
         <v>2.302899411695686</v>
       </c>
       <c r="U44" t="n">
-        <v>0.04208611146445569</v>
+        <v>0.04208611146445568</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34442,43 +34442,43 @@
         <v>2.718462540020869</v>
       </c>
       <c r="I45" t="n">
-        <v>9.691158464652053</v>
+        <v>9.691158464652052</v>
       </c>
       <c r="J45" t="n">
         <v>26.59327955249298</v>
       </c>
       <c r="K45" t="n">
-        <v>45.45215047045792</v>
+        <v>45.45215047045791</v>
       </c>
       <c r="L45" t="n">
-        <v>61.11602545128662</v>
+        <v>61.1160254512866</v>
       </c>
       <c r="M45" t="n">
-        <v>71.31951904496165</v>
+        <v>71.31951904496164</v>
       </c>
       <c r="N45" t="n">
-        <v>73.20713449622957</v>
+        <v>73.20713449622956</v>
       </c>
       <c r="O45" t="n">
-        <v>66.97022588942419</v>
+        <v>66.97022588942417</v>
       </c>
       <c r="P45" t="n">
-        <v>53.74951047567148</v>
+        <v>53.74951047567147</v>
       </c>
       <c r="Q45" t="n">
-        <v>35.93012432550744</v>
+        <v>35.93012432550743</v>
       </c>
       <c r="R45" t="n">
         <v>17.47618334084261</v>
       </c>
       <c r="S45" t="n">
-        <v>5.228287400993811</v>
+        <v>5.22828740099381</v>
       </c>
       <c r="T45" t="n">
         <v>1.134544538728055</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01851813719360266</v>
+        <v>0.01851813719360265</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,28 +34518,28 @@
         <v>0.2359797592102807</v>
       </c>
       <c r="H46" t="n">
-        <v>2.098074586433225</v>
+        <v>2.098074586433224</v>
       </c>
       <c r="I46" t="n">
-        <v>7.096554940614626</v>
+        <v>7.096554940614625</v>
       </c>
       <c r="J46" t="n">
-        <v>16.68376897616685</v>
+        <v>16.68376897616684</v>
       </c>
       <c r="K46" t="n">
         <v>27.41655747915806</v>
       </c>
       <c r="L46" t="n">
-        <v>35.08375438295392</v>
+        <v>35.08375438295391</v>
       </c>
       <c r="M46" t="n">
-        <v>36.99089989148064</v>
+        <v>36.99089989148063</v>
       </c>
       <c r="N46" t="n">
-        <v>36.1113389707878</v>
+        <v>36.11133897078779</v>
       </c>
       <c r="O46" t="n">
-        <v>33.35466632910406</v>
+        <v>33.35466632910405</v>
       </c>
       <c r="P46" t="n">
         <v>28.5406792412143</v>
@@ -34551,7 +34551,7 @@
         <v>10.61050808230953</v>
       </c>
       <c r="S46" t="n">
-        <v>4.112483621873709</v>
+        <v>4.112483621873708</v>
       </c>
       <c r="T46" t="n">
         <v>1.008277152989381</v>
@@ -35407,7 +35407,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>43.99079915176696</v>
+        <v>43.99079915176691</v>
       </c>
       <c r="K11" t="n">
         <v>189.4425143201148</v>
@@ -35425,10 +35425,10 @@
         <v>260.3243862896958</v>
       </c>
       <c r="P11" t="n">
-        <v>184.868928589805</v>
+        <v>184.8689285898049</v>
       </c>
       <c r="Q11" t="n">
-        <v>60.86987477630316</v>
+        <v>60.86987477630315</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35489,10 +35489,10 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>134.3066427752193</v>
       </c>
       <c r="L12" t="n">
-        <v>134.3066427752193</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>417.0721022709937</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>49.86747605587017</v>
+        <v>49.86747605587021</v>
       </c>
       <c r="K13" t="n">
         <v>134.664699768807</v>
@@ -35583,10 +35583,10 @@
         <v>189.9454263665574</v>
       </c>
       <c r="P13" t="n">
-        <v>156.6852531473804</v>
+        <v>156.6852531473805</v>
       </c>
       <c r="Q13" t="n">
-        <v>62.02193905968768</v>
+        <v>62.02193905968772</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35662,10 +35662,10 @@
         <v>260.3243862896958</v>
       </c>
       <c r="P14" t="n">
-        <v>184.868928589805</v>
+        <v>184.8689285898049</v>
       </c>
       <c r="Q14" t="n">
-        <v>60.86987477630316</v>
+        <v>60.86987477630315</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>49.86747605587017</v>
+        <v>49.86747605587021</v>
       </c>
       <c r="K16" t="n">
         <v>134.664699768807</v>
@@ -35820,10 +35820,10 @@
         <v>189.9454263665574</v>
       </c>
       <c r="P16" t="n">
-        <v>156.6852531473804</v>
+        <v>156.6852531473805</v>
       </c>
       <c r="Q16" t="n">
-        <v>62.02193905968768</v>
+        <v>62.02193905968772</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>43.99079915176677</v>
+        <v>43.99079915176696</v>
       </c>
       <c r="K17" t="n">
         <v>189.4425143201148</v>
@@ -35899,10 +35899,10 @@
         <v>260.3243862896958</v>
       </c>
       <c r="P17" t="n">
-        <v>184.868928589805</v>
+        <v>184.8689285898049</v>
       </c>
       <c r="Q17" t="n">
-        <v>60.86987477630316</v>
+        <v>60.86987477630315</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35963,13 +35963,13 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>134.3066427752193</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>311.6994642815068</v>
       </c>
       <c r="M18" t="n">
-        <v>417.0721022709937</v>
+        <v>239.6792807647062</v>
       </c>
       <c r="N18" t="n">
         <v>426.135350344049</v>
@@ -36057,7 +36057,7 @@
         <v>67.92287435907511</v>
       </c>
       <c r="P19" t="n">
-        <v>34.66270113989815</v>
+        <v>34.66270113989814</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>43.99079915176677</v>
+        <v>43.99079915176601</v>
       </c>
       <c r="K20" t="n">
         <v>189.4425143201148</v>
@@ -36136,10 +36136,10 @@
         <v>260.3243862896958</v>
       </c>
       <c r="P20" t="n">
-        <v>184.868928589805</v>
+        <v>184.8689285898049</v>
       </c>
       <c r="Q20" t="n">
-        <v>60.86987477630316</v>
+        <v>60.86987477630315</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,19 +36197,19 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>34.06127030651813</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>186.1005939635397</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>134.3066427752186</v>
       </c>
       <c r="M21" t="n">
-        <v>331.2168807761552</v>
+        <v>417.0721022709937</v>
       </c>
       <c r="N21" t="n">
-        <v>426.135350344049</v>
+        <v>426.1353503440488</v>
       </c>
       <c r="O21" t="n">
         <v>337.5556996038895</v>
@@ -36294,7 +36294,7 @@
         <v>67.92287435907511</v>
       </c>
       <c r="P22" t="n">
-        <v>34.66270113989815</v>
+        <v>34.66270113989814</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>43.99079915176696</v>
+        <v>43.99079915176601</v>
       </c>
       <c r="K23" t="n">
         <v>189.4425143201148</v>
@@ -36373,10 +36373,10 @@
         <v>260.3243862896958</v>
       </c>
       <c r="P23" t="n">
-        <v>184.868928589805</v>
+        <v>184.8689285898049</v>
       </c>
       <c r="Q23" t="n">
-        <v>60.86987477630316</v>
+        <v>60.86987477630315</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36440,13 +36440,13 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>311.6994642815068</v>
+        <v>134.3066427752186</v>
       </c>
       <c r="M24" t="n">
-        <v>239.6792807647062</v>
+        <v>417.0721022709937</v>
       </c>
       <c r="N24" t="n">
-        <v>426.135350344049</v>
+        <v>426.1353503440488</v>
       </c>
       <c r="O24" t="n">
         <v>337.5556996038895</v>
@@ -36531,7 +36531,7 @@
         <v>67.92287435907511</v>
       </c>
       <c r="P25" t="n">
-        <v>34.66270113989815</v>
+        <v>34.66270113989814</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>186.1023937708302</v>
+        <v>186.1023937708295</v>
       </c>
       <c r="K26" t="n">
         <v>331.5541089391774</v>
@@ -36604,7 +36604,7 @@
         <v>477.3925035510563</v>
       </c>
       <c r="N26" t="n">
-        <v>467.1437850493686</v>
+        <v>467.1437850493685</v>
       </c>
       <c r="O26" t="n">
         <v>402.4359809087583</v>
@@ -36616,7 +36616,7 @@
         <v>202.9814693953657</v>
       </c>
       <c r="R26" t="n">
-        <v>33.30691815917442</v>
+        <v>33.30691815917444</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>69.95651866745045</v>
       </c>
       <c r="K28" t="n">
         <v>12.64214776132471</v>
       </c>
       <c r="L28" t="n">
-        <v>72.5448846119632</v>
+        <v>214.6564792310257</v>
       </c>
       <c r="M28" t="n">
-        <v>229.2999025074517</v>
+        <v>171.1835457850602</v>
       </c>
       <c r="N28" t="n">
-        <v>102.148520580485</v>
+        <v>90.30835863542569</v>
       </c>
       <c r="O28" t="n">
-        <v>210.0344689781376</v>
+        <v>67.92287435907511</v>
       </c>
       <c r="P28" t="n">
-        <v>176.7742957589606</v>
+        <v>176.7742957589607</v>
       </c>
       <c r="Q28" t="n">
-        <v>82.11098167126794</v>
+        <v>82.11098167126796</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36835,7 +36835,7 @@
         <v>331.5541089391774</v>
       </c>
       <c r="L29" t="n">
-        <v>429.6258035923822</v>
+        <v>429.6258035923821</v>
       </c>
       <c r="M29" t="n">
         <v>477.3925035510564</v>
@@ -36844,7 +36844,7 @@
         <v>467.1437850493686</v>
       </c>
       <c r="O29" t="n">
-        <v>402.4359809087583</v>
+        <v>402.4359809087584</v>
       </c>
       <c r="P29" t="n">
         <v>326.9805232088675</v>
@@ -36987,25 +36987,25 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>69.95651866745048</v>
       </c>
       <c r="K31" t="n">
-        <v>12.64214776132471</v>
+        <v>154.7537423803873</v>
       </c>
       <c r="L31" t="n">
-        <v>214.6564792310258</v>
+        <v>96.53950956083881</v>
       </c>
       <c r="M31" t="n">
         <v>229.2999025074518</v>
       </c>
       <c r="N31" t="n">
-        <v>184.2595022517518</v>
+        <v>232.4199532544883</v>
       </c>
       <c r="O31" t="n">
         <v>67.92287435907511</v>
       </c>
       <c r="P31" t="n">
-        <v>176.7742957589607</v>
+        <v>34.66270113989814</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>186.1023937708296</v>
+        <v>186.1023937708295</v>
       </c>
       <c r="K32" t="n">
-        <v>331.554108939177</v>
+        <v>331.5541089391774</v>
       </c>
       <c r="L32" t="n">
-        <v>429.6258035923822</v>
+        <v>429.6258035923821</v>
       </c>
       <c r="M32" t="n">
-        <v>477.3925035510564</v>
+        <v>477.3925035510563</v>
       </c>
       <c r="N32" t="n">
-        <v>467.1437850493687</v>
+        <v>467.1437850493685</v>
       </c>
       <c r="O32" t="n">
-        <v>402.4359809087584</v>
+        <v>402.4359809087583</v>
       </c>
       <c r="P32" t="n">
-        <v>326.9805232088676</v>
+        <v>326.9805232088675</v>
       </c>
       <c r="Q32" t="n">
-        <v>202.9814693953658</v>
+        <v>202.9814693953657</v>
       </c>
       <c r="R32" t="n">
-        <v>33.3069181591745</v>
+        <v>33.30691815917444</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37227,25 +37227,25 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>24.48230970638238</v>
+        <v>154.7537423803873</v>
       </c>
       <c r="L34" t="n">
-        <v>72.5448846119632</v>
+        <v>214.6564792310257</v>
       </c>
       <c r="M34" t="n">
         <v>87.1883078883892</v>
       </c>
       <c r="N34" t="n">
-        <v>232.4199532544883</v>
+        <v>232.4199532544882</v>
       </c>
       <c r="O34" t="n">
-        <v>210.0344689781377</v>
+        <v>67.92287435907511</v>
       </c>
       <c r="P34" t="n">
-        <v>176.7742957589607</v>
+        <v>128.6138447562249</v>
       </c>
       <c r="Q34" t="n">
-        <v>82.11098167126802</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,13 +37303,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>75.78148993350187</v>
+        <v>43.99079915176696</v>
       </c>
       <c r="K35" t="n">
         <v>189.4425143201148</v>
       </c>
       <c r="L35" t="n">
-        <v>287.5142089733196</v>
+        <v>319.3048997550555</v>
       </c>
       <c r="M35" t="n">
         <v>335.2809089319938</v>
@@ -37321,10 +37321,10 @@
         <v>260.3243862896958</v>
       </c>
       <c r="P35" t="n">
-        <v>184.868928589805</v>
+        <v>184.8689285898049</v>
       </c>
       <c r="Q35" t="n">
-        <v>60.86987477630316</v>
+        <v>60.86987477630315</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37388,13 +37388,13 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>158.0685621605468</v>
+        <v>158.0685621605474</v>
       </c>
       <c r="M36" t="n">
         <v>417.0721022709937</v>
       </c>
       <c r="N36" t="n">
-        <v>434.1641217404566</v>
+        <v>434.1641217404568</v>
       </c>
       <c r="O36" t="n">
         <v>337.5556996038895</v>
@@ -37479,7 +37479,7 @@
         <v>67.92287435907511</v>
       </c>
       <c r="P37" t="n">
-        <v>34.66270113989815</v>
+        <v>34.66270113989814</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>5.005458908096515</v>
       </c>
       <c r="J38" t="n">
         <v>43.99079915176696</v>
@@ -37558,16 +37558,16 @@
         <v>260.3243862896958</v>
       </c>
       <c r="P38" t="n">
-        <v>184.868928589805</v>
+        <v>184.8689285898049</v>
       </c>
       <c r="Q38" t="n">
-        <v>92.66056555803824</v>
+        <v>60.86987477630315</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>26.78523187363897</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -37625,13 +37625,13 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>158.0685621605468</v>
+        <v>311.6994642815068</v>
       </c>
       <c r="M39" t="n">
-        <v>417.0721022709937</v>
+        <v>263.4412001500339</v>
       </c>
       <c r="N39" t="n">
-        <v>434.1641217404566</v>
+        <v>434.1641217404567</v>
       </c>
       <c r="O39" t="n">
         <v>337.5556996038895</v>
@@ -37716,7 +37716,7 @@
         <v>67.92287435907511</v>
       </c>
       <c r="P40" t="n">
-        <v>34.66270113989815</v>
+        <v>34.66270113989814</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37783,22 +37783,22 @@
         <v>189.4425143201148</v>
       </c>
       <c r="L41" t="n">
-        <v>292.0969151127123</v>
+        <v>287.5142089733196</v>
       </c>
       <c r="M41" t="n">
-        <v>523.8899551658608</v>
+        <v>335.2809089319938</v>
       </c>
       <c r="N41" t="n">
-        <v>518.9091763413918</v>
+        <v>325.0321904303061</v>
       </c>
       <c r="O41" t="n">
-        <v>260.3243862896958</v>
+        <v>454.2013722007815</v>
       </c>
       <c r="P41" t="n">
-        <v>184.868928589805</v>
+        <v>184.8689285898049</v>
       </c>
       <c r="Q41" t="n">
-        <v>60.86987477630316</v>
+        <v>254.0616271495611</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37856,10 +37856,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>34.06127030651813</v>
+        <v>6.045638626290287</v>
       </c>
       <c r="K42" t="n">
-        <v>158.0849622833136</v>
+        <v>186.1005939635397</v>
       </c>
       <c r="L42" t="n">
         <v>311.6994642815068</v>
@@ -37944,7 +37944,7 @@
         <v>72.5448846119632</v>
       </c>
       <c r="M43" t="n">
-        <v>87.1883078883892</v>
+        <v>87.58332420013257</v>
       </c>
       <c r="N43" t="n">
         <v>90.30835863542569</v>
@@ -37953,10 +37953,10 @@
         <v>67.92287435907511</v>
       </c>
       <c r="P43" t="n">
-        <v>34.66270113989815</v>
+        <v>34.66270113989814</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.3950163117436163</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,13 +38011,13 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>8.934238195879541</v>
       </c>
       <c r="J44" t="n">
-        <v>43.99079915176696</v>
+        <v>237.8677850628526</v>
       </c>
       <c r="K44" t="n">
-        <v>189.4425143201148</v>
+        <v>288.627719046296</v>
       </c>
       <c r="L44" t="n">
         <v>287.5142089733196</v>
@@ -38026,19 +38026,19 @@
         <v>335.2809089319938</v>
       </c>
       <c r="N44" t="n">
-        <v>518.9091763413917</v>
+        <v>325.0321904303061</v>
       </c>
       <c r="O44" t="n">
         <v>260.3243862896958</v>
       </c>
       <c r="P44" t="n">
-        <v>184.868928589805</v>
+        <v>184.8689285898049</v>
       </c>
       <c r="Q44" t="n">
-        <v>254.0616271495633</v>
+        <v>60.86987477630315</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>85.07230945119758</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,10 +38093,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>34.06127030651813</v>
+        <v>6.045638626290287</v>
       </c>
       <c r="K45" t="n">
-        <v>158.0849622833136</v>
+        <v>186.1005939635397</v>
       </c>
       <c r="L45" t="n">
         <v>311.6994642815068</v>
@@ -38169,7 +38169,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>0.3950163117436594</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -38190,13 +38190,13 @@
         <v>67.92287435907511</v>
       </c>
       <c r="P46" t="n">
-        <v>34.66270113989815</v>
+        <v>34.66270113989814</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0.3950163117440182</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
